--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C128C-5623-42BA-8961-21C0D232CAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8819EC5E-9700-402D-867D-8C57F90A08E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FD003C-122D-419C-A705-9F16770713FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE0D4B3-6C50-4006-8ED0-CEB28FCD608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1413,6 +1413,16 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1425,18 +1435,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-7</t>
+      <t>2025-July-11</t>
     </r>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1682,9 +1682,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1697,8 +1694,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1707,6 +1702,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2054,7 +2052,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2096,30 +2094,30 @@
         <v>291</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" s="49" customFormat="1" ht="28.8">
-      <c r="A9" s="47" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4124,7 +4122,7 @@
         <v>436</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4144,7 +4142,7 @@
         <v>437</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5452,7 +5450,7 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="47" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="18"/>
@@ -5466,7 +5464,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="18"/>
@@ -5494,7 +5492,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="47" t="s">
         <v>201</v>
       </c>
       <c r="B16" s="18"/>
@@ -5508,7 +5506,7 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="18"/>
@@ -5522,7 +5520,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="18"/>
@@ -5536,7 +5534,7 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="18"/>
@@ -5550,7 +5548,7 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="115.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="18"/>
@@ -5566,7 +5564,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="115.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="18"/>
@@ -5599,7 +5597,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="47" t="s">
         <v>180</v>
       </c>
       <c r="B23" s="18"/>
@@ -5615,7 +5613,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="72">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="47" t="s">
         <v>181</v>
       </c>
       <c r="B24" s="18"/>
@@ -5631,7 +5629,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="18"/>
@@ -5839,7 +5837,7 @@
         <v>353</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6084,22 +6082,22 @@
       <c r="C57" s="33"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="51"/>
+      <c r="A58" s="48"/>
       <c r="B58"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="51"/>
+      <c r="A59" s="48"/>
       <c r="B59"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="52"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="27"/>
       <c r="C60" s="38"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="51"/>
+      <c r="A61" s="48"/>
       <c r="B61"/>
       <c r="C61" s="4"/>
     </row>
@@ -6314,1644 +6312,1644 @@
       <c r="C103" s="36"/>
     </row>
     <row r="210" spans="5:5">
-      <c r="E210" s="44"/>
+      <c r="E210" s="43"/>
     </row>
     <row r="211" spans="5:5">
-      <c r="E211" s="44"/>
+      <c r="E211" s="43"/>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="44"/>
+      <c r="E212" s="43"/>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="44"/>
+      <c r="E213" s="43"/>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="44"/>
+      <c r="E214" s="43"/>
     </row>
     <row r="215" spans="5:5">
-      <c r="E215" s="44"/>
+      <c r="E215" s="43"/>
     </row>
     <row r="216" spans="5:5">
-      <c r="E216" s="44"/>
+      <c r="E216" s="43"/>
     </row>
     <row r="226" spans="5:7">
-      <c r="E226" s="44"/>
+      <c r="E226" s="43"/>
     </row>
     <row r="228" spans="5:7">
-      <c r="E228" s="44"/>
-      <c r="G228" s="44"/>
+      <c r="E228" s="43"/>
+      <c r="G228" s="43"/>
     </row>
     <row r="229" spans="5:7">
-      <c r="G229" s="44"/>
+      <c r="G229" s="43"/>
     </row>
     <row r="230" spans="5:7">
-      <c r="E230" s="45"/>
-      <c r="G230" s="44"/>
+      <c r="E230" s="44"/>
+      <c r="G230" s="43"/>
     </row>
     <row r="231" spans="5:7">
-      <c r="E231" s="44"/>
-      <c r="G231" s="44"/>
+      <c r="E231" s="43"/>
+      <c r="G231" s="43"/>
     </row>
     <row r="232" spans="5:7">
-      <c r="E232" s="44"/>
-      <c r="G232" s="44"/>
+      <c r="E232" s="43"/>
+      <c r="G232" s="43"/>
     </row>
     <row r="233" spans="5:7">
-      <c r="E233" s="44"/>
-      <c r="G233" s="44"/>
+      <c r="E233" s="43"/>
+      <c r="G233" s="43"/>
     </row>
     <row r="234" spans="5:7">
-      <c r="E234" s="44"/>
-      <c r="G234" s="44"/>
+      <c r="E234" s="43"/>
+      <c r="G234" s="43"/>
     </row>
     <row r="235" spans="5:7">
-      <c r="E235" s="44"/>
-      <c r="G235" s="44"/>
+      <c r="E235" s="43"/>
+      <c r="G235" s="43"/>
     </row>
     <row r="236" spans="5:7">
-      <c r="E236" s="46"/>
-      <c r="G236" s="44"/>
+      <c r="E236" s="45"/>
+      <c r="G236" s="43"/>
     </row>
     <row r="237" spans="5:7">
-      <c r="E237" s="44"/>
-      <c r="G237" s="44"/>
+      <c r="E237" s="43"/>
+      <c r="G237" s="43"/>
     </row>
     <row r="238" spans="5:7">
-      <c r="E238" s="44"/>
-      <c r="G238" s="44"/>
+      <c r="E238" s="43"/>
+      <c r="G238" s="43"/>
     </row>
     <row r="239" spans="5:7">
-      <c r="E239" s="44"/>
-      <c r="G239" s="44"/>
+      <c r="E239" s="43"/>
+      <c r="G239" s="43"/>
     </row>
     <row r="240" spans="5:7">
-      <c r="E240" s="44"/>
-      <c r="G240" s="44"/>
+      <c r="E240" s="43"/>
+      <c r="G240" s="43"/>
     </row>
     <row r="241" spans="5:7">
-      <c r="E241" s="44"/>
-      <c r="G241" s="44"/>
+      <c r="E241" s="43"/>
+      <c r="G241" s="43"/>
     </row>
     <row r="242" spans="5:7">
-      <c r="E242" s="44"/>
-      <c r="G242" s="44"/>
+      <c r="E242" s="43"/>
+      <c r="G242" s="43"/>
     </row>
     <row r="243" spans="5:7">
-      <c r="E243" s="44"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="43"/>
+      <c r="G243" s="43"/>
     </row>
     <row r="244" spans="5:7">
-      <c r="E244" s="44"/>
-      <c r="G244" s="44"/>
+      <c r="E244" s="43"/>
+      <c r="G244" s="43"/>
     </row>
     <row r="245" spans="5:7">
-      <c r="E245" s="44"/>
-      <c r="G245" s="44"/>
+      <c r="E245" s="43"/>
+      <c r="G245" s="43"/>
     </row>
     <row r="246" spans="5:7">
-      <c r="E246" s="44"/>
-      <c r="G246" s="44"/>
+      <c r="E246" s="43"/>
+      <c r="G246" s="43"/>
     </row>
     <row r="247" spans="5:7">
-      <c r="E247" s="44"/>
-      <c r="G247" s="44"/>
+      <c r="E247" s="43"/>
+      <c r="G247" s="43"/>
     </row>
     <row r="248" spans="5:7">
-      <c r="E248" s="44"/>
-      <c r="G248" s="44"/>
+      <c r="E248" s="43"/>
+      <c r="G248" s="43"/>
     </row>
     <row r="249" spans="5:7">
-      <c r="E249" s="44"/>
-      <c r="G249" s="44"/>
+      <c r="E249" s="43"/>
+      <c r="G249" s="43"/>
     </row>
     <row r="250" spans="5:7">
-      <c r="E250" s="44"/>
-      <c r="G250" s="44"/>
+      <c r="E250" s="43"/>
+      <c r="G250" s="43"/>
     </row>
     <row r="251" spans="5:7">
-      <c r="E251" s="44"/>
-      <c r="G251" s="44"/>
+      <c r="E251" s="43"/>
+      <c r="G251" s="43"/>
     </row>
     <row r="252" spans="5:7">
-      <c r="E252" s="44"/>
-      <c r="G252" s="44"/>
+      <c r="E252" s="43"/>
+      <c r="G252" s="43"/>
     </row>
     <row r="253" spans="5:7">
-      <c r="E253" s="44"/>
-      <c r="G253" s="44"/>
+      <c r="E253" s="43"/>
+      <c r="G253" s="43"/>
     </row>
     <row r="254" spans="5:7">
-      <c r="E254" s="44"/>
-      <c r="G254" s="44"/>
+      <c r="E254" s="43"/>
+      <c r="G254" s="43"/>
     </row>
     <row r="255" spans="5:7">
-      <c r="E255" s="44"/>
-      <c r="G255" s="44"/>
+      <c r="E255" s="43"/>
+      <c r="G255" s="43"/>
     </row>
     <row r="256" spans="5:7">
-      <c r="E256" s="44"/>
-      <c r="G256" s="44"/>
+      <c r="E256" s="43"/>
+      <c r="G256" s="43"/>
     </row>
     <row r="257" spans="5:7">
-      <c r="E257" s="44"/>
-      <c r="G257" s="44"/>
+      <c r="E257" s="43"/>
+      <c r="G257" s="43"/>
     </row>
     <row r="258" spans="5:7">
-      <c r="E258" s="44"/>
-      <c r="G258" s="44"/>
+      <c r="E258" s="43"/>
+      <c r="G258" s="43"/>
     </row>
     <row r="259" spans="5:7">
-      <c r="E259" s="44"/>
-      <c r="G259" s="44"/>
+      <c r="E259" s="43"/>
+      <c r="G259" s="43"/>
     </row>
     <row r="260" spans="5:7">
-      <c r="E260" s="44"/>
-      <c r="G260" s="44"/>
+      <c r="E260" s="43"/>
+      <c r="G260" s="43"/>
     </row>
     <row r="261" spans="5:7">
-      <c r="E261" s="44"/>
-      <c r="G261" s="44"/>
+      <c r="E261" s="43"/>
+      <c r="G261" s="43"/>
     </row>
     <row r="262" spans="5:7">
-      <c r="E262" s="44"/>
-      <c r="G262" s="44"/>
+      <c r="E262" s="43"/>
+      <c r="G262" s="43"/>
     </row>
     <row r="263" spans="5:7">
-      <c r="E263" s="44"/>
-      <c r="G263" s="44"/>
+      <c r="E263" s="43"/>
+      <c r="G263" s="43"/>
     </row>
     <row r="264" spans="5:7">
-      <c r="E264" s="44"/>
-      <c r="G264" s="44"/>
+      <c r="E264" s="43"/>
+      <c r="G264" s="43"/>
     </row>
     <row r="265" spans="5:7">
-      <c r="E265" s="44"/>
-      <c r="G265" s="44"/>
+      <c r="E265" s="43"/>
+      <c r="G265" s="43"/>
     </row>
     <row r="266" spans="5:7">
-      <c r="E266" s="44"/>
-      <c r="G266" s="44"/>
+      <c r="E266" s="43"/>
+      <c r="G266" s="43"/>
     </row>
     <row r="267" spans="5:7">
-      <c r="E267" s="44"/>
-      <c r="G267" s="44"/>
+      <c r="E267" s="43"/>
+      <c r="G267" s="43"/>
     </row>
     <row r="268" spans="5:7">
-      <c r="E268" s="44"/>
-      <c r="G268" s="44"/>
+      <c r="E268" s="43"/>
+      <c r="G268" s="43"/>
     </row>
     <row r="269" spans="5:7">
-      <c r="E269" s="44"/>
-      <c r="G269" s="44"/>
+      <c r="E269" s="43"/>
+      <c r="G269" s="43"/>
     </row>
     <row r="270" spans="5:7">
-      <c r="E270" s="44"/>
-      <c r="G270" s="44"/>
+      <c r="E270" s="43"/>
+      <c r="G270" s="43"/>
     </row>
     <row r="271" spans="5:7">
-      <c r="E271" s="44"/>
-      <c r="G271" s="44"/>
+      <c r="E271" s="43"/>
+      <c r="G271" s="43"/>
     </row>
     <row r="272" spans="5:7">
-      <c r="E272" s="44"/>
-      <c r="G272" s="44"/>
+      <c r="E272" s="43"/>
+      <c r="G272" s="43"/>
     </row>
     <row r="273" spans="5:7">
-      <c r="E273" s="44"/>
-      <c r="G273" s="44"/>
+      <c r="E273" s="43"/>
+      <c r="G273" s="43"/>
     </row>
     <row r="274" spans="5:7">
-      <c r="E274" s="44"/>
-      <c r="G274" s="44"/>
+      <c r="E274" s="43"/>
+      <c r="G274" s="43"/>
     </row>
     <row r="275" spans="5:7">
-      <c r="E275" s="44"/>
-      <c r="G275" s="44"/>
+      <c r="E275" s="43"/>
+      <c r="G275" s="43"/>
     </row>
     <row r="283" spans="5:7">
-      <c r="E283" s="44"/>
+      <c r="E283" s="43"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="44"/>
+      <c r="G292" s="43"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="44"/>
+      <c r="G293" s="43"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="44"/>
+      <c r="G294" s="43"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="44"/>
+      <c r="G295" s="43"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="44"/>
+      <c r="G296" s="43"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="44"/>
+      <c r="G297" s="43"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="44"/>
+      <c r="G298" s="43"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="44"/>
+      <c r="G299" s="43"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="44"/>
+      <c r="G300" s="43"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="44"/>
+      <c r="G301" s="43"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="44"/>
+      <c r="G302" s="43"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="44"/>
+      <c r="G303" s="43"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="44"/>
+      <c r="G304" s="43"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="44"/>
+      <c r="G305" s="43"/>
     </row>
     <row r="335" spans="5:5">
-      <c r="E335" s="44"/>
+      <c r="E335" s="43"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="44"/>
+      <c r="E354" s="43"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="44"/>
+      <c r="E355" s="43"/>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="44"/>
+      <c r="E358" s="43"/>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="44"/>
+      <c r="E359" s="43"/>
     </row>
     <row r="360" spans="5:5">
-      <c r="E360" s="44"/>
+      <c r="E360" s="43"/>
     </row>
     <row r="361" spans="5:5">
-      <c r="E361" s="44"/>
+      <c r="E361" s="43"/>
     </row>
     <row r="362" spans="5:5">
-      <c r="E362" s="44"/>
+      <c r="E362" s="43"/>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="44"/>
+      <c r="E363" s="43"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="44"/>
+      <c r="E369" s="43"/>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="44"/>
+      <c r="E370" s="43"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="44"/>
+      <c r="E371" s="43"/>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="44"/>
+      <c r="E372" s="43"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="44"/>
+      <c r="E373" s="43"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="44"/>
+      <c r="E374" s="43"/>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="44"/>
+      <c r="E375" s="43"/>
     </row>
     <row r="377" spans="5:5">
-      <c r="E377" s="44"/>
+      <c r="E377" s="43"/>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="44"/>
+      <c r="E378" s="43"/>
     </row>
     <row r="379" spans="5:5">
-      <c r="E379" s="44"/>
+      <c r="E379" s="43"/>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="44"/>
+      <c r="E380" s="43"/>
     </row>
     <row r="384" spans="5:5">
-      <c r="E384" s="44"/>
+      <c r="E384" s="43"/>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="44"/>
+      <c r="E391" s="43"/>
     </row>
     <row r="395" spans="5:5">
-      <c r="E395" s="44"/>
+      <c r="E395" s="43"/>
     </row>
     <row r="406" spans="5:5">
-      <c r="E406" s="44"/>
+      <c r="E406" s="43"/>
     </row>
     <row r="416" spans="5:5">
-      <c r="E416" s="44"/>
+      <c r="E416" s="43"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="44"/>
+      <c r="G418" s="43"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="44"/>
+      <c r="G419" s="43"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="44"/>
+      <c r="G420" s="43"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="44"/>
+      <c r="G421" s="43"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="44"/>
+      <c r="G422" s="43"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="44"/>
+      <c r="G423" s="43"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="44"/>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="44"/>
+      <c r="G425" s="43"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="44"/>
+      <c r="G426" s="43"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="44"/>
+      <c r="G427" s="43"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="44"/>
+      <c r="G428" s="43"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="44"/>
+      <c r="G429" s="43"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="44"/>
+      <c r="G430" s="43"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="44"/>
+      <c r="G431" s="43"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="44"/>
+      <c r="G432" s="43"/>
     </row>
     <row r="433" spans="5:7">
-      <c r="G433" s="44"/>
+      <c r="G433" s="43"/>
     </row>
     <row r="434" spans="5:7">
-      <c r="G434" s="44"/>
+      <c r="G434" s="43"/>
     </row>
     <row r="435" spans="5:7">
-      <c r="G435" s="44"/>
+      <c r="G435" s="43"/>
     </row>
     <row r="436" spans="5:7">
-      <c r="G436" s="44"/>
+      <c r="G436" s="43"/>
     </row>
     <row r="437" spans="5:7">
-      <c r="E437" s="44"/>
-      <c r="G437" s="44"/>
+      <c r="E437" s="43"/>
+      <c r="G437" s="43"/>
     </row>
     <row r="439" spans="5:7">
-      <c r="G439" s="44"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" spans="5:7">
-      <c r="G440" s="44"/>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" spans="5:7">
-      <c r="G441" s="44"/>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" spans="5:7">
-      <c r="G442" s="44"/>
+      <c r="G442" s="43"/>
     </row>
     <row r="443" spans="5:7">
-      <c r="G443" s="44"/>
+      <c r="G443" s="43"/>
     </row>
     <row r="444" spans="5:7">
-      <c r="G444" s="44"/>
+      <c r="G444" s="43"/>
     </row>
     <row r="445" spans="5:7">
-      <c r="G445" s="44"/>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" spans="5:7">
-      <c r="E446" s="44"/>
-      <c r="G446" s="44"/>
+      <c r="E446" s="43"/>
+      <c r="G446" s="43"/>
     </row>
     <row r="447" spans="5:7">
-      <c r="G447" s="44"/>
+      <c r="G447" s="43"/>
     </row>
     <row r="448" spans="5:7">
-      <c r="G448" s="44"/>
+      <c r="G448" s="43"/>
     </row>
     <row r="449" spans="5:7">
-      <c r="G449" s="44"/>
+      <c r="G449" s="43"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="G450" s="44"/>
+      <c r="G450" s="43"/>
     </row>
     <row r="451" spans="5:7">
-      <c r="G451" s="44"/>
+      <c r="G451" s="43"/>
     </row>
     <row r="452" spans="5:7">
-      <c r="G452" s="44"/>
+      <c r="G452" s="43"/>
     </row>
     <row r="453" spans="5:7">
-      <c r="G453" s="44"/>
+      <c r="G453" s="43"/>
     </row>
     <row r="454" spans="5:7">
-      <c r="E454" s="44"/>
-      <c r="G454" s="44"/>
+      <c r="E454" s="43"/>
+      <c r="G454" s="43"/>
     </row>
     <row r="456" spans="5:7">
-      <c r="G456" s="44"/>
+      <c r="G456" s="43"/>
     </row>
     <row r="457" spans="5:7">
-      <c r="G457" s="44"/>
+      <c r="G457" s="43"/>
     </row>
     <row r="458" spans="5:7">
-      <c r="G458" s="44"/>
+      <c r="G458" s="43"/>
     </row>
     <row r="459" spans="5:7">
-      <c r="G459" s="44"/>
+      <c r="G459" s="43"/>
     </row>
     <row r="460" spans="5:7">
-      <c r="G460" s="44"/>
+      <c r="G460" s="43"/>
     </row>
     <row r="461" spans="5:7">
-      <c r="G461" s="44"/>
+      <c r="G461" s="43"/>
     </row>
     <row r="462" spans="5:7">
-      <c r="G462" s="44"/>
+      <c r="G462" s="43"/>
     </row>
     <row r="463" spans="5:7">
-      <c r="E463" s="44"/>
-      <c r="G463" s="44"/>
+      <c r="E463" s="43"/>
+      <c r="G463" s="43"/>
     </row>
     <row r="464" spans="5:7">
-      <c r="G464" s="44"/>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" spans="5:7">
-      <c r="G465" s="44"/>
+      <c r="G465" s="43"/>
     </row>
     <row r="466" spans="5:7">
-      <c r="G466" s="44"/>
+      <c r="G466" s="43"/>
     </row>
     <row r="467" spans="5:7">
-      <c r="G467" s="44"/>
+      <c r="G467" s="43"/>
     </row>
     <row r="468" spans="5:7">
-      <c r="G468" s="44"/>
+      <c r="G468" s="43"/>
     </row>
     <row r="469" spans="5:7">
-      <c r="G469" s="44"/>
+      <c r="G469" s="43"/>
     </row>
     <row r="470" spans="5:7">
-      <c r="G470" s="44"/>
+      <c r="G470" s="43"/>
     </row>
     <row r="471" spans="5:7">
-      <c r="E471" s="44"/>
-      <c r="G471" s="44"/>
+      <c r="E471" s="43"/>
+      <c r="G471" s="43"/>
     </row>
     <row r="479" spans="5:7">
-      <c r="E479" s="44"/>
+      <c r="E479" s="43"/>
     </row>
     <row r="486" spans="5:5">
-      <c r="E486" s="44"/>
+      <c r="E486" s="43"/>
     </row>
     <row r="502" spans="5:5">
-      <c r="E502" s="45"/>
+      <c r="E502" s="44"/>
     </row>
     <row r="503" spans="5:5">
-      <c r="E503" s="45"/>
+      <c r="E503" s="44"/>
     </row>
     <row r="506" spans="5:5">
-      <c r="E506" s="45"/>
+      <c r="E506" s="44"/>
     </row>
     <row r="507" spans="5:5">
-      <c r="E507" s="44"/>
+      <c r="E507" s="43"/>
     </row>
     <row r="520" spans="5:5">
-      <c r="E520" s="44"/>
+      <c r="E520" s="43"/>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="44"/>
+      <c r="E532" s="43"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="44"/>
+      <c r="E536" s="43"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="44"/>
+      <c r="E537" s="43"/>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="44"/>
+      <c r="E538" s="43"/>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="44"/>
+      <c r="E539" s="43"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="44"/>
+      <c r="E540" s="43"/>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="44"/>
+      <c r="E541" s="43"/>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="44"/>
+      <c r="E542" s="43"/>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="44"/>
+      <c r="E543" s="43"/>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="44"/>
+      <c r="E544" s="43"/>
     </row>
     <row r="545" spans="5:5">
-      <c r="E545" s="44"/>
+      <c r="E545" s="43"/>
     </row>
     <row r="546" spans="5:5">
-      <c r="E546" s="44"/>
+      <c r="E546" s="43"/>
     </row>
     <row r="547" spans="5:5">
-      <c r="E547" s="44"/>
+      <c r="E547" s="43"/>
     </row>
     <row r="548" spans="5:5">
-      <c r="E548" s="44"/>
+      <c r="E548" s="43"/>
     </row>
     <row r="549" spans="5:5">
-      <c r="E549" s="44"/>
+      <c r="E549" s="43"/>
     </row>
     <row r="550" spans="5:5">
-      <c r="E550" s="44"/>
+      <c r="E550" s="43"/>
     </row>
     <row r="551" spans="5:5">
-      <c r="E551" s="44"/>
+      <c r="E551" s="43"/>
     </row>
     <row r="552" spans="5:5">
-      <c r="E552" s="44"/>
+      <c r="E552" s="43"/>
     </row>
     <row r="553" spans="5:5">
-      <c r="E553" s="44"/>
+      <c r="E553" s="43"/>
     </row>
     <row r="554" spans="5:5">
-      <c r="E554" s="44"/>
+      <c r="E554" s="43"/>
     </row>
     <row r="555" spans="5:5">
-      <c r="E555" s="44"/>
+      <c r="E555" s="43"/>
     </row>
     <row r="556" spans="5:5">
-      <c r="E556" s="44"/>
+      <c r="E556" s="43"/>
     </row>
     <row r="557" spans="5:5">
-      <c r="E557" s="44"/>
+      <c r="E557" s="43"/>
     </row>
     <row r="558" spans="5:5">
-      <c r="E558" s="44"/>
+      <c r="E558" s="43"/>
     </row>
     <row r="559" spans="5:5">
-      <c r="E559" s="44"/>
+      <c r="E559" s="43"/>
     </row>
     <row r="561" spans="5:7">
-      <c r="G561" s="44"/>
+      <c r="G561" s="43"/>
     </row>
     <row r="562" spans="5:7">
-      <c r="G562" s="44"/>
+      <c r="G562" s="43"/>
     </row>
     <row r="563" spans="5:7">
-      <c r="G563" s="44"/>
+      <c r="G563" s="43"/>
     </row>
     <row r="564" spans="5:7">
-      <c r="G564" s="44"/>
+      <c r="G564" s="43"/>
     </row>
     <row r="565" spans="5:7">
-      <c r="G565" s="44"/>
+      <c r="G565" s="43"/>
     </row>
     <row r="566" spans="5:7">
-      <c r="G566" s="44"/>
+      <c r="G566" s="43"/>
     </row>
     <row r="567" spans="5:7">
-      <c r="G567" s="44"/>
+      <c r="G567" s="43"/>
     </row>
     <row r="568" spans="5:7">
-      <c r="G568" s="44"/>
+      <c r="G568" s="43"/>
     </row>
     <row r="569" spans="5:7">
-      <c r="G569" s="44"/>
+      <c r="G569" s="43"/>
     </row>
     <row r="570" spans="5:7">
-      <c r="G570" s="44"/>
+      <c r="G570" s="43"/>
     </row>
     <row r="571" spans="5:7">
-      <c r="G571" s="44"/>
+      <c r="G571" s="43"/>
     </row>
     <row r="572" spans="5:7">
-      <c r="G572" s="44"/>
+      <c r="G572" s="43"/>
     </row>
     <row r="573" spans="5:7">
-      <c r="G573" s="44"/>
+      <c r="G573" s="43"/>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="44"/>
-      <c r="G574" s="44"/>
+      <c r="E574" s="43"/>
+      <c r="G574" s="43"/>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="44"/>
+      <c r="E576" s="43"/>
     </row>
     <row r="577" spans="5:5">
-      <c r="E577" s="44"/>
+      <c r="E577" s="43"/>
     </row>
     <row r="578" spans="5:5">
-      <c r="E578" s="44"/>
+      <c r="E578" s="43"/>
     </row>
     <row r="579" spans="5:5">
-      <c r="E579" s="44"/>
+      <c r="E579" s="43"/>
     </row>
     <row r="580" spans="5:5">
-      <c r="E580" s="44"/>
+      <c r="E580" s="43"/>
     </row>
     <row r="581" spans="5:5">
-      <c r="E581" s="44"/>
+      <c r="E581" s="43"/>
     </row>
     <row r="582" spans="5:5">
-      <c r="E582" s="44"/>
+      <c r="E582" s="43"/>
     </row>
     <row r="583" spans="5:5">
-      <c r="E583" s="44"/>
+      <c r="E583" s="43"/>
     </row>
     <row r="584" spans="5:5">
-      <c r="E584" s="44"/>
+      <c r="E584" s="43"/>
     </row>
     <row r="585" spans="5:5">
-      <c r="E585" s="44"/>
+      <c r="E585" s="43"/>
     </row>
     <row r="586" spans="5:5">
-      <c r="E586" s="44"/>
+      <c r="E586" s="43"/>
     </row>
     <row r="587" spans="5:5">
-      <c r="E587" s="44"/>
+      <c r="E587" s="43"/>
     </row>
     <row r="588" spans="5:5">
-      <c r="E588" s="44"/>
+      <c r="E588" s="43"/>
     </row>
     <row r="589" spans="5:5">
-      <c r="E589" s="44"/>
+      <c r="E589" s="43"/>
     </row>
     <row r="590" spans="5:5">
-      <c r="E590" s="44"/>
+      <c r="E590" s="43"/>
     </row>
     <row r="591" spans="5:5">
-      <c r="E591" s="44"/>
+      <c r="E591" s="43"/>
     </row>
     <row r="592" spans="5:5">
-      <c r="E592" s="44"/>
+      <c r="E592" s="43"/>
     </row>
     <row r="593" spans="5:5">
-      <c r="E593" s="44"/>
+      <c r="E593" s="43"/>
     </row>
     <row r="594" spans="5:5">
-      <c r="E594" s="44"/>
+      <c r="E594" s="43"/>
     </row>
     <row r="595" spans="5:5">
-      <c r="E595" s="44"/>
+      <c r="E595" s="43"/>
     </row>
     <row r="596" spans="5:5">
-      <c r="E596" s="44"/>
+      <c r="E596" s="43"/>
     </row>
     <row r="597" spans="5:5">
-      <c r="E597" s="44"/>
+      <c r="E597" s="43"/>
     </row>
     <row r="598" spans="5:5">
-      <c r="E598" s="44"/>
+      <c r="E598" s="43"/>
     </row>
     <row r="599" spans="5:5">
-      <c r="E599" s="44"/>
+      <c r="E599" s="43"/>
     </row>
     <row r="600" spans="5:5">
-      <c r="E600" s="44"/>
+      <c r="E600" s="43"/>
     </row>
     <row r="601" spans="5:5">
-      <c r="E601" s="44"/>
+      <c r="E601" s="43"/>
     </row>
     <row r="602" spans="5:5">
-      <c r="E602" s="44"/>
+      <c r="E602" s="43"/>
     </row>
     <row r="603" spans="5:5">
-      <c r="E603" s="44"/>
+      <c r="E603" s="43"/>
     </row>
     <row r="604" spans="5:5">
-      <c r="E604" s="44"/>
+      <c r="E604" s="43"/>
     </row>
     <row r="605" spans="5:5">
-      <c r="E605" s="44"/>
+      <c r="E605" s="43"/>
     </row>
     <row r="606" spans="5:5">
-      <c r="E606" s="44"/>
+      <c r="E606" s="43"/>
     </row>
     <row r="607" spans="5:5">
-      <c r="E607" s="44"/>
+      <c r="E607" s="43"/>
     </row>
     <row r="608" spans="5:5">
-      <c r="E608" s="44"/>
+      <c r="E608" s="43"/>
     </row>
     <row r="609" spans="5:5">
-      <c r="E609" s="44"/>
+      <c r="E609" s="43"/>
     </row>
     <row r="610" spans="5:5">
-      <c r="E610" s="44"/>
+      <c r="E610" s="43"/>
     </row>
     <row r="611" spans="5:5">
-      <c r="E611" s="44"/>
+      <c r="E611" s="43"/>
     </row>
     <row r="612" spans="5:5">
-      <c r="E612" s="44"/>
+      <c r="E612" s="43"/>
     </row>
     <row r="613" spans="5:5">
-      <c r="E613" s="44"/>
+      <c r="E613" s="43"/>
     </row>
     <row r="614" spans="5:5">
-      <c r="E614" s="44"/>
+      <c r="E614" s="43"/>
     </row>
     <row r="615" spans="5:5">
-      <c r="E615" s="44"/>
+      <c r="E615" s="43"/>
     </row>
     <row r="616" spans="5:5">
-      <c r="E616" s="44"/>
+      <c r="E616" s="43"/>
     </row>
     <row r="617" spans="5:5">
-      <c r="E617" s="44"/>
+      <c r="E617" s="43"/>
     </row>
     <row r="618" spans="5:5">
-      <c r="E618" s="44"/>
+      <c r="E618" s="43"/>
     </row>
     <row r="619" spans="5:5">
-      <c r="E619" s="44"/>
+      <c r="E619" s="43"/>
     </row>
     <row r="620" spans="5:5">
-      <c r="E620" s="44"/>
+      <c r="E620" s="43"/>
     </row>
     <row r="621" spans="5:5">
-      <c r="E621" s="44"/>
+      <c r="E621" s="43"/>
     </row>
     <row r="622" spans="5:5">
-      <c r="E622" s="44"/>
+      <c r="E622" s="43"/>
     </row>
     <row r="623" spans="5:5">
-      <c r="E623" s="44"/>
+      <c r="E623" s="43"/>
     </row>
     <row r="625" spans="5:7">
-      <c r="E625" s="44"/>
-      <c r="G625" s="44"/>
+      <c r="E625" s="43"/>
+      <c r="G625" s="43"/>
     </row>
     <row r="626" spans="5:7">
-      <c r="E626" s="44"/>
-      <c r="G626" s="44"/>
+      <c r="E626" s="43"/>
+      <c r="G626" s="43"/>
     </row>
     <row r="627" spans="5:7">
-      <c r="E627" s="44"/>
-      <c r="G627" s="44"/>
+      <c r="E627" s="43"/>
+      <c r="G627" s="43"/>
     </row>
     <row r="628" spans="5:7">
-      <c r="E628" s="44"/>
-      <c r="G628" s="44"/>
+      <c r="E628" s="43"/>
+      <c r="G628" s="43"/>
     </row>
     <row r="629" spans="5:7">
-      <c r="E629" s="44"/>
-      <c r="G629" s="44"/>
+      <c r="E629" s="43"/>
+      <c r="G629" s="43"/>
     </row>
     <row r="630" spans="5:7">
-      <c r="E630" s="44"/>
-      <c r="G630" s="44"/>
+      <c r="E630" s="43"/>
+      <c r="G630" s="43"/>
     </row>
     <row r="631" spans="5:7">
-      <c r="E631" s="44"/>
-      <c r="G631" s="44"/>
+      <c r="E631" s="43"/>
+      <c r="G631" s="43"/>
     </row>
     <row r="632" spans="5:7">
-      <c r="E632" s="44"/>
-      <c r="G632" s="44"/>
+      <c r="E632" s="43"/>
+      <c r="G632" s="43"/>
     </row>
     <row r="633" spans="5:7">
-      <c r="E633" s="44"/>
-      <c r="G633" s="44"/>
+      <c r="E633" s="43"/>
+      <c r="G633" s="43"/>
     </row>
     <row r="634" spans="5:7">
-      <c r="E634" s="44"/>
-      <c r="G634" s="44"/>
+      <c r="E634" s="43"/>
+      <c r="G634" s="43"/>
     </row>
     <row r="635" spans="5:7">
-      <c r="E635" s="44"/>
-      <c r="G635" s="44"/>
+      <c r="E635" s="43"/>
+      <c r="G635" s="43"/>
     </row>
     <row r="636" spans="5:7">
-      <c r="E636" s="44"/>
-      <c r="G636" s="44"/>
+      <c r="E636" s="43"/>
+      <c r="G636" s="43"/>
     </row>
     <row r="637" spans="5:7">
-      <c r="E637" s="44"/>
-      <c r="G637" s="44"/>
+      <c r="E637" s="43"/>
+      <c r="G637" s="43"/>
     </row>
     <row r="638" spans="5:7">
-      <c r="E638" s="44"/>
-      <c r="G638" s="44"/>
+      <c r="E638" s="43"/>
+      <c r="G638" s="43"/>
     </row>
     <row r="639" spans="5:7">
-      <c r="E639" s="44"/>
-      <c r="G639" s="44"/>
+      <c r="E639" s="43"/>
+      <c r="G639" s="43"/>
     </row>
     <row r="640" spans="5:7">
-      <c r="E640" s="44"/>
-      <c r="G640" s="44"/>
+      <c r="E640" s="43"/>
+      <c r="G640" s="43"/>
     </row>
     <row r="641" spans="5:7">
-      <c r="E641" s="44"/>
-      <c r="G641" s="44"/>
+      <c r="E641" s="43"/>
+      <c r="G641" s="43"/>
     </row>
     <row r="642" spans="5:7">
-      <c r="E642" s="44"/>
-      <c r="G642" s="44"/>
+      <c r="E642" s="43"/>
+      <c r="G642" s="43"/>
     </row>
     <row r="643" spans="5:7">
-      <c r="E643" s="44"/>
-      <c r="G643" s="44"/>
+      <c r="E643" s="43"/>
+      <c r="G643" s="43"/>
     </row>
     <row r="644" spans="5:7">
-      <c r="E644" s="44"/>
-      <c r="G644" s="44"/>
+      <c r="E644" s="43"/>
+      <c r="G644" s="43"/>
     </row>
     <row r="645" spans="5:7">
-      <c r="E645" s="44"/>
-      <c r="G645" s="44"/>
+      <c r="E645" s="43"/>
+      <c r="G645" s="43"/>
     </row>
     <row r="646" spans="5:7">
-      <c r="E646" s="44"/>
-      <c r="G646" s="44"/>
+      <c r="E646" s="43"/>
+      <c r="G646" s="43"/>
     </row>
     <row r="647" spans="5:7">
-      <c r="E647" s="44"/>
-      <c r="G647" s="44"/>
+      <c r="E647" s="43"/>
+      <c r="G647" s="43"/>
     </row>
     <row r="648" spans="5:7">
-      <c r="E648" s="44"/>
-      <c r="G648" s="44"/>
+      <c r="E648" s="43"/>
+      <c r="G648" s="43"/>
     </row>
     <row r="649" spans="5:7">
-      <c r="E649" s="44"/>
-      <c r="G649" s="44"/>
+      <c r="E649" s="43"/>
+      <c r="G649" s="43"/>
     </row>
     <row r="650" spans="5:7">
-      <c r="E650" s="44"/>
-      <c r="G650" s="44"/>
+      <c r="E650" s="43"/>
+      <c r="G650" s="43"/>
     </row>
     <row r="651" spans="5:7">
-      <c r="E651" s="44"/>
-      <c r="G651" s="44"/>
+      <c r="E651" s="43"/>
+      <c r="G651" s="43"/>
     </row>
     <row r="652" spans="5:7">
-      <c r="E652" s="44"/>
-      <c r="G652" s="44"/>
+      <c r="E652" s="43"/>
+      <c r="G652" s="43"/>
     </row>
     <row r="653" spans="5:7">
-      <c r="E653" s="44"/>
-      <c r="G653" s="44"/>
+      <c r="E653" s="43"/>
+      <c r="G653" s="43"/>
     </row>
     <row r="654" spans="5:7">
-      <c r="E654" s="44"/>
-      <c r="G654" s="44"/>
+      <c r="E654" s="43"/>
+      <c r="G654" s="43"/>
     </row>
     <row r="655" spans="5:7">
-      <c r="E655" s="44"/>
-      <c r="G655" s="44"/>
+      <c r="E655" s="43"/>
+      <c r="G655" s="43"/>
     </row>
     <row r="656" spans="5:7">
-      <c r="E656" s="44"/>
-      <c r="G656" s="44"/>
+      <c r="E656" s="43"/>
+      <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
-      <c r="E657" s="44"/>
-      <c r="G657" s="44"/>
+      <c r="E657" s="43"/>
+      <c r="G657" s="43"/>
     </row>
     <row r="658" spans="5:7">
-      <c r="E658" s="44"/>
-      <c r="G658" s="44"/>
+      <c r="E658" s="43"/>
+      <c r="G658" s="43"/>
     </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="44"/>
-      <c r="G659" s="44"/>
+      <c r="E659" s="43"/>
+      <c r="G659" s="43"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="44"/>
-      <c r="G660" s="44"/>
+      <c r="E660" s="43"/>
+      <c r="G660" s="43"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="44"/>
-      <c r="G661" s="44"/>
+      <c r="E661" s="43"/>
+      <c r="G661" s="43"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="44"/>
-      <c r="G662" s="44"/>
+      <c r="E662" s="43"/>
+      <c r="G662" s="43"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="44"/>
-      <c r="G663" s="44"/>
+      <c r="E663" s="43"/>
+      <c r="G663" s="43"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="44"/>
-      <c r="G664" s="44"/>
+      <c r="E664" s="43"/>
+      <c r="G664" s="43"/>
     </row>
     <row r="665" spans="5:7">
-      <c r="E665" s="44"/>
-      <c r="G665" s="44"/>
+      <c r="E665" s="43"/>
+      <c r="G665" s="43"/>
     </row>
     <row r="666" spans="5:7">
-      <c r="E666" s="44"/>
-      <c r="G666" s="44"/>
+      <c r="E666" s="43"/>
+      <c r="G666" s="43"/>
     </row>
     <row r="667" spans="5:7">
-      <c r="E667" s="44"/>
-      <c r="G667" s="44"/>
+      <c r="E667" s="43"/>
+      <c r="G667" s="43"/>
     </row>
     <row r="668" spans="5:7">
-      <c r="E668" s="44"/>
-      <c r="G668" s="44"/>
+      <c r="E668" s="43"/>
+      <c r="G668" s="43"/>
     </row>
     <row r="669" spans="5:7">
-      <c r="E669" s="44"/>
-      <c r="G669" s="44"/>
+      <c r="E669" s="43"/>
+      <c r="G669" s="43"/>
     </row>
     <row r="670" spans="5:7">
-      <c r="E670" s="44"/>
-      <c r="G670" s="44"/>
+      <c r="E670" s="43"/>
+      <c r="G670" s="43"/>
     </row>
     <row r="671" spans="5:7">
-      <c r="E671" s="44"/>
-      <c r="G671" s="44"/>
+      <c r="E671" s="43"/>
+      <c r="G671" s="43"/>
     </row>
     <row r="672" spans="5:7">
-      <c r="E672" s="44"/>
-      <c r="G672" s="44"/>
+      <c r="E672" s="43"/>
+      <c r="G672" s="43"/>
     </row>
     <row r="682" spans="5:5">
-      <c r="E682" s="44"/>
+      <c r="E682" s="43"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="44"/>
+      <c r="G693" s="43"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="44"/>
+      <c r="G694" s="43"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="44"/>
+      <c r="G695" s="43"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="44"/>
+      <c r="G696" s="43"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="44"/>
+      <c r="G697" s="43"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="44"/>
+      <c r="G698" s="43"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="44"/>
+      <c r="G699" s="43"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="44"/>
+      <c r="G700" s="43"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="44"/>
+      <c r="G701" s="43"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="44"/>
+      <c r="G702" s="43"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="44"/>
+      <c r="G703" s="43"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="44"/>
+      <c r="G704" s="43"/>
     </row>
     <row r="705" spans="5:7">
-      <c r="G705" s="44"/>
+      <c r="G705" s="43"/>
     </row>
     <row r="706" spans="5:7">
-      <c r="G706" s="44"/>
+      <c r="G706" s="43"/>
     </row>
     <row r="707" spans="5:7">
-      <c r="G707" s="44"/>
+      <c r="G707" s="43"/>
     </row>
     <row r="708" spans="5:7">
-      <c r="G708" s="44"/>
+      <c r="G708" s="43"/>
     </row>
     <row r="709" spans="5:7">
-      <c r="G709" s="44"/>
+      <c r="G709" s="43"/>
     </row>
     <row r="710" spans="5:7">
-      <c r="G710" s="44"/>
+      <c r="G710" s="43"/>
     </row>
     <row r="711" spans="5:7">
-      <c r="G711" s="44"/>
+      <c r="G711" s="43"/>
     </row>
     <row r="712" spans="5:7">
-      <c r="E712" s="44"/>
-      <c r="G712" s="44"/>
+      <c r="E712" s="43"/>
+      <c r="G712" s="43"/>
     </row>
     <row r="722" spans="5:7">
-      <c r="E722" s="44"/>
+      <c r="E722" s="43"/>
     </row>
     <row r="733" spans="5:7">
-      <c r="E733" s="44"/>
-      <c r="G733" s="44"/>
+      <c r="E733" s="43"/>
+      <c r="G733" s="43"/>
     </row>
     <row r="734" spans="5:7">
-      <c r="E734" s="44"/>
-      <c r="G734" s="44"/>
+      <c r="E734" s="43"/>
+      <c r="G734" s="43"/>
     </row>
     <row r="735" spans="5:7">
-      <c r="E735" s="44"/>
-      <c r="G735" s="44"/>
+      <c r="E735" s="43"/>
+      <c r="G735" s="43"/>
     </row>
     <row r="736" spans="5:7">
-      <c r="E736" s="44"/>
-      <c r="G736" s="44"/>
+      <c r="E736" s="43"/>
+      <c r="G736" s="43"/>
     </row>
     <row r="737" spans="5:7">
-      <c r="E737" s="44"/>
-      <c r="G737" s="44"/>
+      <c r="E737" s="43"/>
+      <c r="G737" s="43"/>
     </row>
     <row r="738" spans="5:7">
-      <c r="E738" s="44"/>
-      <c r="G738" s="44"/>
+      <c r="E738" s="43"/>
+      <c r="G738" s="43"/>
     </row>
     <row r="739" spans="5:7">
-      <c r="E739" s="44"/>
-      <c r="G739" s="44"/>
+      <c r="E739" s="43"/>
+      <c r="G739" s="43"/>
     </row>
     <row r="740" spans="5:7">
-      <c r="E740" s="44"/>
-      <c r="G740" s="44"/>
+      <c r="E740" s="43"/>
+      <c r="G740" s="43"/>
     </row>
     <row r="741" spans="5:7">
-      <c r="E741" s="44"/>
-      <c r="G741" s="44"/>
+      <c r="E741" s="43"/>
+      <c r="G741" s="43"/>
     </row>
     <row r="742" spans="5:7">
-      <c r="E742" s="44"/>
-      <c r="G742" s="44"/>
+      <c r="E742" s="43"/>
+      <c r="G742" s="43"/>
     </row>
     <row r="743" spans="5:7">
-      <c r="E743" s="44"/>
-      <c r="G743" s="44"/>
+      <c r="E743" s="43"/>
+      <c r="G743" s="43"/>
     </row>
     <row r="744" spans="5:7">
-      <c r="E744" s="44"/>
-      <c r="G744" s="44"/>
+      <c r="E744" s="43"/>
+      <c r="G744" s="43"/>
     </row>
     <row r="745" spans="5:7">
-      <c r="E745" s="44"/>
-      <c r="G745" s="44"/>
+      <c r="E745" s="43"/>
+      <c r="G745" s="43"/>
     </row>
     <row r="746" spans="5:7">
-      <c r="E746" s="44"/>
-      <c r="G746" s="44"/>
+      <c r="E746" s="43"/>
+      <c r="G746" s="43"/>
     </row>
     <row r="747" spans="5:7">
-      <c r="E747" s="44"/>
-      <c r="G747" s="44"/>
+      <c r="E747" s="43"/>
+      <c r="G747" s="43"/>
     </row>
     <row r="748" spans="5:7">
-      <c r="E748" s="44"/>
-      <c r="G748" s="44"/>
+      <c r="E748" s="43"/>
+      <c r="G748" s="43"/>
     </row>
     <row r="750" spans="5:7">
-      <c r="E750" s="44"/>
-      <c r="G750" s="44"/>
+      <c r="E750" s="43"/>
+      <c r="G750" s="43"/>
     </row>
     <row r="751" spans="5:7">
-      <c r="E751" s="44"/>
-      <c r="G751" s="44"/>
+      <c r="E751" s="43"/>
+      <c r="G751" s="43"/>
     </row>
     <row r="752" spans="5:7">
-      <c r="E752" s="44"/>
-      <c r="G752" s="44"/>
+      <c r="E752" s="43"/>
+      <c r="G752" s="43"/>
     </row>
     <row r="753" spans="5:7">
-      <c r="E753" s="44"/>
-      <c r="G753" s="44"/>
+      <c r="E753" s="43"/>
+      <c r="G753" s="43"/>
     </row>
     <row r="754" spans="5:7">
-      <c r="E754" s="44"/>
-      <c r="G754" s="44"/>
+      <c r="E754" s="43"/>
+      <c r="G754" s="43"/>
     </row>
     <row r="755" spans="5:7">
-      <c r="E755" s="44"/>
-      <c r="G755" s="44"/>
+      <c r="E755" s="43"/>
+      <c r="G755" s="43"/>
     </row>
     <row r="756" spans="5:7">
-      <c r="E756" s="44"/>
-      <c r="G756" s="44"/>
+      <c r="E756" s="43"/>
+      <c r="G756" s="43"/>
     </row>
     <row r="757" spans="5:7">
-      <c r="E757" s="44"/>
-      <c r="G757" s="44"/>
+      <c r="E757" s="43"/>
+      <c r="G757" s="43"/>
     </row>
     <row r="758" spans="5:7">
-      <c r="E758" s="44"/>
-      <c r="G758" s="44"/>
+      <c r="E758" s="43"/>
+      <c r="G758" s="43"/>
     </row>
     <row r="759" spans="5:7">
-      <c r="E759" s="44"/>
-      <c r="G759" s="44"/>
+      <c r="E759" s="43"/>
+      <c r="G759" s="43"/>
     </row>
     <row r="760" spans="5:7">
-      <c r="E760" s="44"/>
-      <c r="G760" s="44"/>
+      <c r="E760" s="43"/>
+      <c r="G760" s="43"/>
     </row>
     <row r="761" spans="5:7">
-      <c r="E761" s="44"/>
-      <c r="G761" s="44"/>
+      <c r="E761" s="43"/>
+      <c r="G761" s="43"/>
     </row>
     <row r="762" spans="5:7">
-      <c r="E762" s="44"/>
-      <c r="G762" s="44"/>
+      <c r="E762" s="43"/>
+      <c r="G762" s="43"/>
     </row>
     <row r="763" spans="5:7">
-      <c r="E763" s="44"/>
-      <c r="G763" s="44"/>
+      <c r="E763" s="43"/>
+      <c r="G763" s="43"/>
     </row>
     <row r="766" spans="5:7">
-      <c r="E766" s="44"/>
+      <c r="E766" s="43"/>
     </row>
     <row r="770" spans="5:5">
-      <c r="E770" s="44"/>
+      <c r="E770" s="43"/>
     </row>
     <row r="771" spans="5:5">
-      <c r="E771" s="44"/>
+      <c r="E771" s="43"/>
     </row>
     <row r="772" spans="5:5">
-      <c r="E772" s="44"/>
+      <c r="E772" s="43"/>
     </row>
     <row r="773" spans="5:5">
-      <c r="E773" s="44"/>
+      <c r="E773" s="43"/>
     </row>
     <row r="776" spans="5:5">
-      <c r="E776" s="44"/>
+      <c r="E776" s="43"/>
     </row>
     <row r="777" spans="5:5">
-      <c r="E777" s="44"/>
+      <c r="E777" s="43"/>
     </row>
     <row r="778" spans="5:5">
-      <c r="E778" s="44"/>
+      <c r="E778" s="43"/>
     </row>
     <row r="779" spans="5:5">
-      <c r="E779" s="44"/>
+      <c r="E779" s="43"/>
     </row>
     <row r="782" spans="5:5">
-      <c r="E782" s="44"/>
+      <c r="E782" s="43"/>
     </row>
     <row r="783" spans="5:5">
-      <c r="E783" s="44"/>
+      <c r="E783" s="43"/>
     </row>
     <row r="784" spans="5:5">
-      <c r="E784" s="44"/>
+      <c r="E784" s="43"/>
     </row>
     <row r="785" spans="5:5">
-      <c r="E785" s="44"/>
+      <c r="E785" s="43"/>
     </row>
     <row r="786" spans="5:5">
-      <c r="E786" s="44"/>
+      <c r="E786" s="43"/>
     </row>
     <row r="787" spans="5:5">
-      <c r="E787" s="44"/>
+      <c r="E787" s="43"/>
     </row>
     <row r="788" spans="5:5">
-      <c r="E788" s="44"/>
+      <c r="E788" s="43"/>
     </row>
     <row r="789" spans="5:5">
-      <c r="E789" s="44"/>
+      <c r="E789" s="43"/>
     </row>
     <row r="790" spans="5:5">
-      <c r="E790" s="44"/>
+      <c r="E790" s="43"/>
     </row>
     <row r="791" spans="5:5">
-      <c r="E791" s="44"/>
+      <c r="E791" s="43"/>
     </row>
     <row r="792" spans="5:5">
-      <c r="E792" s="44"/>
+      <c r="E792" s="43"/>
     </row>
     <row r="793" spans="5:5">
-      <c r="E793" s="44"/>
+      <c r="E793" s="43"/>
     </row>
     <row r="794" spans="5:5">
-      <c r="E794" s="44"/>
+      <c r="E794" s="43"/>
     </row>
     <row r="795" spans="5:5">
-      <c r="E795" s="44"/>
+      <c r="E795" s="43"/>
     </row>
     <row r="797" spans="5:5">
-      <c r="E797" s="44"/>
+      <c r="E797" s="43"/>
     </row>
     <row r="798" spans="5:5">
-      <c r="E798" s="44"/>
+      <c r="E798" s="43"/>
     </row>
     <row r="799" spans="5:5">
-      <c r="E799" s="44"/>
+      <c r="E799" s="43"/>
     </row>
     <row r="800" spans="5:5">
-      <c r="E800" s="44"/>
+      <c r="E800" s="43"/>
     </row>
     <row r="801" spans="5:5">
-      <c r="E801" s="44"/>
+      <c r="E801" s="43"/>
     </row>
     <row r="802" spans="5:5">
-      <c r="E802" s="44"/>
+      <c r="E802" s="43"/>
     </row>
     <row r="803" spans="5:5">
-      <c r="E803" s="44"/>
+      <c r="E803" s="43"/>
     </row>
     <row r="804" spans="5:5">
-      <c r="E804" s="44"/>
+      <c r="E804" s="43"/>
     </row>
     <row r="805" spans="5:5">
-      <c r="E805" s="44"/>
+      <c r="E805" s="43"/>
     </row>
     <row r="806" spans="5:5">
-      <c r="E806" s="44"/>
+      <c r="E806" s="43"/>
     </row>
     <row r="807" spans="5:5">
-      <c r="E807" s="44"/>
+      <c r="E807" s="43"/>
     </row>
     <row r="808" spans="5:5">
-      <c r="E808" s="44"/>
+      <c r="E808" s="43"/>
     </row>
     <row r="809" spans="5:5">
-      <c r="E809" s="44"/>
+      <c r="E809" s="43"/>
     </row>
     <row r="810" spans="5:5">
-      <c r="E810" s="44"/>
+      <c r="E810" s="43"/>
     </row>
     <row r="812" spans="5:5">
-      <c r="E812" s="44"/>
+      <c r="E812" s="43"/>
     </row>
     <row r="813" spans="5:5">
-      <c r="E813" s="44"/>
+      <c r="E813" s="43"/>
     </row>
     <row r="814" spans="5:5">
-      <c r="E814" s="44"/>
+      <c r="E814" s="43"/>
     </row>
     <row r="815" spans="5:5">
-      <c r="E815" s="44"/>
+      <c r="E815" s="43"/>
     </row>
     <row r="816" spans="5:5">
-      <c r="E816" s="44"/>
+      <c r="E816" s="43"/>
     </row>
     <row r="817" spans="5:5">
-      <c r="E817" s="44"/>
+      <c r="E817" s="43"/>
     </row>
     <row r="818" spans="5:5">
-      <c r="E818" s="44"/>
+      <c r="E818" s="43"/>
     </row>
     <row r="819" spans="5:5">
-      <c r="E819" s="44"/>
+      <c r="E819" s="43"/>
     </row>
     <row r="820" spans="5:5">
-      <c r="E820" s="44"/>
+      <c r="E820" s="43"/>
     </row>
     <row r="821" spans="5:5">
-      <c r="E821" s="44"/>
+      <c r="E821" s="43"/>
     </row>
     <row r="822" spans="5:5">
-      <c r="E822" s="44"/>
+      <c r="E822" s="43"/>
     </row>
     <row r="823" spans="5:5">
-      <c r="E823" s="44"/>
+      <c r="E823" s="43"/>
     </row>
     <row r="824" spans="5:5">
-      <c r="E824" s="44"/>
+      <c r="E824" s="43"/>
     </row>
     <row r="825" spans="5:5">
-      <c r="E825" s="44"/>
+      <c r="E825" s="43"/>
     </row>
     <row r="827" spans="5:5">
-      <c r="E827" s="44"/>
+      <c r="E827" s="43"/>
     </row>
     <row r="828" spans="5:5">
-      <c r="E828" s="44"/>
+      <c r="E828" s="43"/>
     </row>
     <row r="829" spans="5:5">
-      <c r="E829" s="44"/>
+      <c r="E829" s="43"/>
     </row>
     <row r="830" spans="5:5">
-      <c r="E830" s="44"/>
+      <c r="E830" s="43"/>
     </row>
     <row r="831" spans="5:5">
-      <c r="E831" s="44"/>
+      <c r="E831" s="43"/>
     </row>
     <row r="832" spans="5:5">
-      <c r="E832" s="44"/>
+      <c r="E832" s="43"/>
     </row>
     <row r="833" spans="5:5">
-      <c r="E833" s="44"/>
+      <c r="E833" s="43"/>
     </row>
     <row r="834" spans="5:5">
-      <c r="E834" s="44"/>
+      <c r="E834" s="43"/>
     </row>
     <row r="835" spans="5:5">
-      <c r="E835" s="44"/>
+      <c r="E835" s="43"/>
     </row>
     <row r="836" spans="5:5">
-      <c r="E836" s="44"/>
+      <c r="E836" s="43"/>
     </row>
     <row r="837" spans="5:5">
-      <c r="E837" s="44"/>
+      <c r="E837" s="43"/>
     </row>
     <row r="838" spans="5:5">
-      <c r="E838" s="44"/>
+      <c r="E838" s="43"/>
     </row>
     <row r="839" spans="5:5">
-      <c r="E839" s="44"/>
+      <c r="E839" s="43"/>
     </row>
     <row r="840" spans="5:5">
-      <c r="E840" s="44"/>
+      <c r="E840" s="43"/>
     </row>
     <row r="841" spans="5:5">
-      <c r="E841" s="44"/>
+      <c r="E841" s="43"/>
     </row>
     <row r="842" spans="5:5">
-      <c r="E842" s="44"/>
+      <c r="E842" s="43"/>
     </row>
     <row r="843" spans="5:5">
-      <c r="E843" s="44"/>
+      <c r="E843" s="43"/>
     </row>
     <row r="844" spans="5:5">
-      <c r="E844" s="44"/>
+      <c r="E844" s="43"/>
     </row>
     <row r="845" spans="5:5">
-      <c r="E845" s="44"/>
+      <c r="E845" s="43"/>
     </row>
     <row r="846" spans="5:5">
-      <c r="E846" s="44"/>
+      <c r="E846" s="43"/>
     </row>
     <row r="847" spans="5:5">
-      <c r="E847" s="44"/>
+      <c r="E847" s="43"/>
     </row>
     <row r="848" spans="5:5">
-      <c r="E848" s="44"/>
+      <c r="E848" s="43"/>
     </row>
     <row r="849" spans="5:5">
-      <c r="E849" s="44"/>
+      <c r="E849" s="43"/>
     </row>
     <row r="850" spans="5:5">
-      <c r="E850" s="44"/>
+      <c r="E850" s="43"/>
     </row>
     <row r="851" spans="5:5">
-      <c r="E851" s="44"/>
+      <c r="E851" s="43"/>
     </row>
     <row r="852" spans="5:5">
-      <c r="E852" s="44"/>
+      <c r="E852" s="43"/>
     </row>
     <row r="853" spans="5:5">
-      <c r="E853" s="44"/>
+      <c r="E853" s="43"/>
     </row>
     <row r="854" spans="5:5">
-      <c r="E854" s="44"/>
+      <c r="E854" s="43"/>
     </row>
     <row r="856" spans="5:5">
-      <c r="E856" s="44"/>
+      <c r="E856" s="43"/>
     </row>
     <row r="869" spans="5:5">
-      <c r="E869" s="44"/>
+      <c r="E869" s="43"/>
     </row>
     <row r="883" spans="5:5">
-      <c r="E883" s="44"/>
+      <c r="E883" s="43"/>
     </row>
     <row r="885" spans="5:5">
-      <c r="E885" s="44"/>
+      <c r="E885" s="43"/>
     </row>
     <row r="898" spans="5:5">
-      <c r="E898" s="44"/>
+      <c r="E898" s="43"/>
     </row>
     <row r="912" spans="5:5">
-      <c r="E912" s="44"/>
+      <c r="E912" s="43"/>
     </row>
     <row r="914" spans="5:5">
-      <c r="E914" s="44"/>
+      <c r="E914" s="43"/>
     </row>
     <row r="927" spans="5:5">
-      <c r="E927" s="44"/>
+      <c r="E927" s="43"/>
     </row>
     <row r="941" spans="5:5">
-      <c r="E941" s="44"/>
+      <c r="E941" s="43"/>
     </row>
     <row r="944" spans="5:5">
-      <c r="E944" s="44"/>
+      <c r="E944" s="43"/>
     </row>
     <row r="945" spans="5:5">
-      <c r="E945" s="44"/>
+      <c r="E945" s="43"/>
     </row>
     <row r="946" spans="5:5">
-      <c r="E946" s="44"/>
+      <c r="E946" s="43"/>
     </row>
     <row r="947" spans="5:5">
-      <c r="E947" s="44"/>
+      <c r="E947" s="43"/>
     </row>
     <row r="948" spans="5:5">
-      <c r="E948" s="44"/>
+      <c r="E948" s="43"/>
     </row>
     <row r="949" spans="5:5">
-      <c r="E949" s="44"/>
+      <c r="E949" s="43"/>
     </row>
     <row r="950" spans="5:5">
-      <c r="E950" s="44"/>
+      <c r="E950" s="43"/>
     </row>
     <row r="951" spans="5:5">
-      <c r="E951" s="44"/>
+      <c r="E951" s="43"/>
     </row>
     <row r="952" spans="5:5">
-      <c r="E952" s="44"/>
+      <c r="E952" s="43"/>
     </row>
     <row r="953" spans="5:5">
-      <c r="E953" s="44"/>
+      <c r="E953" s="43"/>
     </row>
     <row r="954" spans="5:5">
-      <c r="E954" s="44"/>
+      <c r="E954" s="43"/>
     </row>
     <row r="955" spans="5:5">
-      <c r="E955" s="44"/>
+      <c r="E955" s="43"/>
     </row>
     <row r="956" spans="5:5">
-      <c r="E956" s="44"/>
+      <c r="E956" s="43"/>
     </row>
     <row r="957" spans="5:5">
-      <c r="E957" s="44"/>
+      <c r="E957" s="43"/>
     </row>
     <row r="966" spans="5:5">
-      <c r="E966" s="44"/>
+      <c r="E966" s="43"/>
     </row>
     <row r="983" spans="5:5">
-      <c r="E983" s="44"/>
+      <c r="E983" s="43"/>
     </row>
     <row r="1000" spans="5:5">
-      <c r="E1000" s="44"/>
+      <c r="E1000" s="43"/>
     </row>
     <row r="1017" spans="5:5">
-      <c r="E1017" s="44"/>
+      <c r="E1017" s="43"/>
     </row>
     <row r="1034" spans="5:5">
-      <c r="E1034" s="44"/>
+      <c r="E1034" s="43"/>
     </row>
     <row r="1051" spans="5:5">
-      <c r="E1051" s="44"/>
+      <c r="E1051" s="43"/>
     </row>
     <row r="1068" spans="5:5">
-      <c r="E1068" s="44"/>
+      <c r="E1068" s="43"/>
     </row>
     <row r="1085" spans="5:5">
-      <c r="E1085" s="44"/>
+      <c r="E1085" s="43"/>
     </row>
     <row r="1102" spans="5:5">
-      <c r="E1102" s="44"/>
+      <c r="E1102" s="43"/>
     </row>
     <row r="1119" spans="5:5">
-      <c r="E1119" s="44"/>
+      <c r="E1119" s="43"/>
     </row>
     <row r="1136" spans="5:5">
-      <c r="E1136" s="44"/>
+      <c r="E1136" s="43"/>
     </row>
     <row r="1153" spans="5:5">
-      <c r="E1153" s="44"/>
+      <c r="E1153" s="43"/>
     </row>
     <row r="1170" spans="5:5">
-      <c r="E1170" s="44"/>
+      <c r="E1170" s="43"/>
     </row>
     <row r="1187" spans="5:5">
-      <c r="E1187" s="44"/>
+      <c r="E1187" s="43"/>
     </row>
     <row r="1204" spans="5:5">
-      <c r="E1204" s="44"/>
+      <c r="E1204" s="43"/>
     </row>
     <row r="1221" spans="5:7">
-      <c r="E1221" s="44"/>
+      <c r="E1221" s="43"/>
     </row>
     <row r="1231" spans="5:7">
-      <c r="G1231" s="44"/>
+      <c r="G1231" s="43"/>
     </row>
     <row r="1232" spans="5:7">
-      <c r="G1232" s="44"/>
+      <c r="G1232" s="43"/>
     </row>
     <row r="1233" spans="5:7">
-      <c r="G1233" s="44"/>
+      <c r="G1233" s="43"/>
     </row>
     <row r="1234" spans="5:7">
-      <c r="G1234" s="44"/>
+      <c r="G1234" s="43"/>
     </row>
     <row r="1235" spans="5:7">
-      <c r="G1235" s="44"/>
+      <c r="G1235" s="43"/>
     </row>
     <row r="1236" spans="5:7">
-      <c r="G1236" s="44"/>
+      <c r="G1236" s="43"/>
     </row>
     <row r="1237" spans="5:7">
-      <c r="G1237" s="44"/>
+      <c r="G1237" s="43"/>
     </row>
     <row r="1238" spans="5:7">
-      <c r="G1238" s="44"/>
+      <c r="G1238" s="43"/>
     </row>
     <row r="1239" spans="5:7">
-      <c r="G1239" s="44"/>
+      <c r="G1239" s="43"/>
     </row>
     <row r="1240" spans="5:7">
-      <c r="G1240" s="44"/>
+      <c r="G1240" s="43"/>
     </row>
     <row r="1241" spans="5:7">
-      <c r="G1241" s="44"/>
+      <c r="G1241" s="43"/>
     </row>
     <row r="1242" spans="5:7">
-      <c r="G1242" s="44"/>
+      <c r="G1242" s="43"/>
     </row>
     <row r="1243" spans="5:7">
-      <c r="G1243" s="44"/>
+      <c r="G1243" s="43"/>
     </row>
     <row r="1244" spans="5:7">
-      <c r="E1244" s="44"/>
-      <c r="G1244" s="44"/>
+      <c r="E1244" s="43"/>
+      <c r="G1244" s="43"/>
     </row>
     <row r="1265" spans="5:5">
-      <c r="E1265" s="44"/>
+      <c r="E1265" s="43"/>
     </row>
     <row r="1280" spans="5:5">
-      <c r="E1280" s="44"/>
+      <c r="E1280" s="43"/>
     </row>
     <row r="1295" spans="5:5">
-      <c r="E1295" s="44"/>
+      <c r="E1295" s="43"/>
     </row>
     <row r="1310" spans="5:5">
-      <c r="E1310" s="44"/>
+      <c r="E1310" s="43"/>
     </row>
     <row r="1326" spans="5:5">
-      <c r="E1326" s="44"/>
+      <c r="E1326" s="43"/>
     </row>
     <row r="1334" spans="5:7">
-      <c r="E1334" s="44"/>
+      <c r="E1334" s="43"/>
     </row>
     <row r="1343" spans="5:7">
-      <c r="G1343" s="44"/>
+      <c r="G1343" s="43"/>
     </row>
     <row r="1344" spans="5:7">
-      <c r="G1344" s="44"/>
+      <c r="G1344" s="43"/>
     </row>
     <row r="1345" spans="7:7">
-      <c r="G1345" s="44"/>
+      <c r="G1345" s="43"/>
     </row>
     <row r="1346" spans="7:7">
-      <c r="G1346" s="44"/>
+      <c r="G1346" s="43"/>
     </row>
     <row r="1347" spans="7:7">
-      <c r="G1347" s="44"/>
+      <c r="G1347" s="43"/>
     </row>
     <row r="1348" spans="7:7">
-      <c r="G1348" s="44"/>
+      <c r="G1348" s="43"/>
     </row>
     <row r="1349" spans="7:7">
-      <c r="G1349" s="44"/>
+      <c r="G1349" s="43"/>
     </row>
     <row r="1350" spans="7:7">
-      <c r="G1350" s="44"/>
+      <c r="G1350" s="43"/>
     </row>
     <row r="1351" spans="7:7">
-      <c r="G1351" s="44"/>
+      <c r="G1351" s="43"/>
     </row>
     <row r="1352" spans="7:7">
-      <c r="G1352" s="44"/>
+      <c r="G1352" s="43"/>
     </row>
     <row r="1353" spans="7:7">
-      <c r="G1353" s="44"/>
+      <c r="G1353" s="43"/>
     </row>
     <row r="1354" spans="7:7">
-      <c r="G1354" s="44"/>
+      <c r="G1354" s="43"/>
     </row>
     <row r="1355" spans="7:7">
-      <c r="G1355" s="44"/>
+      <c r="G1355" s="43"/>
     </row>
     <row r="1356" spans="7:7">
-      <c r="G1356" s="44"/>
+      <c r="G1356" s="43"/>
     </row>
     <row r="1357" spans="7:7">
-      <c r="G1357" s="44"/>
+      <c r="G1357" s="43"/>
     </row>
     <row r="1358" spans="7:7">
-      <c r="G1358" s="44"/>
+      <c r="G1358" s="43"/>
     </row>
     <row r="1359" spans="7:7">
-      <c r="G1359" s="44"/>
+      <c r="G1359" s="43"/>
     </row>
     <row r="1360" spans="7:7">
-      <c r="G1360" s="44"/>
+      <c r="G1360" s="43"/>
     </row>
     <row r="1361" spans="5:7">
-      <c r="G1361" s="44"/>
+      <c r="G1361" s="43"/>
     </row>
     <row r="1362" spans="5:7">
-      <c r="E1362" s="44"/>
-      <c r="G1362" s="44"/>
+      <c r="E1362" s="43"/>
+      <c r="G1362" s="43"/>
     </row>
     <row r="1370" spans="5:7">
-      <c r="E1370" s="44"/>
+      <c r="E1370" s="43"/>
     </row>
     <row r="1377" spans="5:5">
-      <c r="E1377" s="44"/>
+      <c r="E1377" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19DFCC6-FECB-4D8B-A4B8-AFB6BBFD403C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E666F93-137A-4015-BBB3-A23501DE3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9499" uniqueCount="1873">
   <si>
     <t>Name</t>
   </si>
@@ -5718,6 +5718,15 @@
   </si>
   <si>
     <t>Cannot find this pin in the schematics!?</t>
+  </si>
+  <si>
+    <t>Scope measurements</t>
+  </si>
+  <si>
+    <t>Introduction to C64 scope measurements</t>
+  </si>
+  <si>
+    <t>Data/Commodore 64/250407/Scope baseline/C64 250407 Introduction to scope baseline measurements.txt</t>
   </si>
 </sst>
 </file>
@@ -5847,7 +5856,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5989,16 +5998,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6319,9 +6318,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6632,8 +6631,8 @@
   <dimension ref="A1:F416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10447,11 +10446,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="E1264" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E1282" sqref="E1282"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13330,7 +13329,7 @@
       <c r="D151" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="E151" s="52" t="s">
+      <c r="E151" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="F151" s="14" t="s">
@@ -23074,22 +23073,22 @@
       </c>
     </row>
     <row r="623" spans="1:7" s="23" customFormat="1">
-      <c r="A623" s="53" t="s">
+      <c r="A623" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B623" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="C623" s="55">
+      <c r="B623" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C623" s="35">
         <v>9</v>
       </c>
-      <c r="D623" s="53" t="s">
+      <c r="D623" s="14" t="s">
         <v>948</v>
       </c>
       <c r="E623" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F623" s="53" t="s">
+      <c r="F623" s="14" t="s">
         <v>977</v>
       </c>
       <c r="G623" s="23" t="s">
@@ -23097,22 +23096,22 @@
       </c>
     </row>
     <row r="624" spans="1:7" s="23" customFormat="1">
-      <c r="A624" s="53" t="s">
+      <c r="A624" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B624" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="C624" s="55">
+      <c r="B624" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C624" s="35">
         <v>9</v>
       </c>
-      <c r="D624" s="53" t="s">
+      <c r="D624" s="14" t="s">
         <v>948</v>
       </c>
       <c r="E624" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="F624" s="53" t="s">
+      <c r="F624" s="14" t="s">
         <v>1414</v>
       </c>
       <c r="G624" s="23" t="s">
@@ -27131,7 +27130,7 @@
       <c r="D826" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="E826" s="52" t="s">
+      <c r="E826" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="F826" s="14" t="s">
@@ -27177,7 +27176,7 @@
       <c r="D828" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="E828" s="52" t="s">
+      <c r="E828" s="1" t="s">
         <v>1645</v>
       </c>
       <c r="F828" s="14" t="s">
@@ -33612,83 +33611,83 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" s="52" customFormat="1">
-      <c r="A1134" s="53" t="s">
+    <row r="1134" spans="1:6">
+      <c r="A1134" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1134" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1134" s="55">
+      <c r="B1134" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1134" s="35">
         <v>2</v>
       </c>
-      <c r="D1134" s="53" t="s">
+      <c r="D1134" s="14" t="s">
         <v>986</v>
       </c>
       <c r="E1134" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="F1134" s="53" t="s">
+      <c r="F1134" s="14" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" s="52" customFormat="1">
-      <c r="A1135" s="53" t="s">
+    <row r="1135" spans="1:6">
+      <c r="A1135" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1135" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1135" s="55">
+      <c r="B1135" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1135" s="35">
         <v>2</v>
       </c>
-      <c r="D1135" s="53" t="s">
+      <c r="D1135" s="14" t="s">
         <v>986</v>
       </c>
       <c r="E1135" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="F1135" s="53" t="s">
+      <c r="F1135" s="14" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" s="52" customFormat="1">
-      <c r="A1136" s="53" t="s">
+    <row r="1136" spans="1:6">
+      <c r="A1136" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1136" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1136" s="55">
+      <c r="B1136" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1136" s="35">
         <v>3</v>
       </c>
-      <c r="D1136" s="53" t="s">
+      <c r="D1136" s="14" t="s">
         <v>987</v>
       </c>
       <c r="E1136" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="F1136" s="53" t="s">
+      <c r="F1136" s="14" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1137" spans="1:6" s="52" customFormat="1">
-      <c r="A1137" s="53" t="s">
+    <row r="1137" spans="1:6">
+      <c r="A1137" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1137" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1137" s="55">
+      <c r="B1137" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1137" s="35">
         <v>3</v>
       </c>
-      <c r="D1137" s="53" t="s">
+      <c r="D1137" s="14" t="s">
         <v>987</v>
       </c>
       <c r="E1137" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="F1137" s="53" t="s">
+      <c r="F1137" s="14" t="s">
         <v>1575</v>
       </c>
     </row>
@@ -35660,7 +35659,7 @@
       <c r="D1235" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="E1235" s="52" t="s">
+      <c r="E1235" s="1" t="s">
         <v>1848</v>
       </c>
       <c r="F1235" s="14" t="s">
@@ -36148,7 +36147,6 @@
       <c r="F1259" s="14" t="s">
         <v>1784</v>
       </c>
-      <c r="G1259" s="52"/>
     </row>
     <row r="1260" spans="1:7">
       <c r="A1260" s="14" t="s">
@@ -38605,8 +38603,8 @@
   <dimension ref="A1:H892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A873" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A886" sqref="A886"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -56404,8 +56402,8 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -57184,6 +57182,17 @@
         <v>356</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1872</v>
+      </c>
+    </row>
     <row r="12" spans="1:3">
       <c r="A12" s="25"/>
     </row>
@@ -57458,7 +57467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA099A4-572D-49C3-B67B-31B3C765B76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8FB7BD-C3BE-4AE5-88CA-5B7803C7D56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -6015,7 +6015,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-29</t>
+      <t>2025-October-30</t>
     </r>
   </si>
 </sst>
@@ -6608,7 +6608,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6920,9 +6920,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -60929,7 +60929,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -61017,38 +61017,49 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>786</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="25"/>
-    </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="26"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="27"/>
+      <c r="A13" s="25"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="26"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="26"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14"/>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="14"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61059,7 +61070,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -61224,13 +61235,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1963</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1965</v>
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -61238,21 +61249,21 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -61260,40 +61271,29 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>321</v>
-      </c>
-      <c r="C22" t="s">
-        <v>322</v>
-      </c>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="25"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="28"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="26"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="26"/>
+      <c r="A23" s="28"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="27"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="14"/>
+      <c r="A36" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D129C4E-1668-439E-8D6B-BB4DC015E45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C36FA9-D68C-4CF1-9442-539AAFF26DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -6291,7 +6291,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-14</t>
+      <t>2025-December-15</t>
     </r>
   </si>
 </sst>
@@ -6422,7 +6422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6564,6 +6564,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7255,11 +7264,11 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -7305,10 +7314,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>1999</v>
@@ -7324,168 +7333,168 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="52" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="52" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="52" t="s">
         <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="52" t="s">
         <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="52" t="s">
         <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="52" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="52" t="s">
         <v>188</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="52" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
@@ -7495,714 +7504,714 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="52" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="52" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="52" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="52" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="52" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="52" t="s">
         <v>136</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="52" t="s">
         <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="52" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="52" t="s">
         <v>194</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="52" t="s">
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="52" t="s">
         <v>193</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="52" t="s">
         <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="52" t="s">
         <v>167</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="52" t="s">
         <v>236</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="52" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="52" t="s">
         <v>135</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="52" t="s">
         <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="52" t="s">
         <v>234</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="52" t="s">
         <v>182</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="52" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="52" t="s">
         <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="52" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="52" t="s">
         <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="52" t="s">
         <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="52" t="s">
         <v>155</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="52" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="52" t="s">
         <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="52" t="s">
         <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="52" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="52" t="s">
         <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>38</v>
@@ -8215,14 +8224,14 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>38</v>
@@ -8235,70 +8244,70 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="52" t="s">
         <v>42</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="52" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="28.8">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>38</v>
@@ -8308,28 +8317,28 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>38</v>
@@ -8339,28 +8348,28 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>38</v>
@@ -8370,290 +8379,290 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="52" t="s">
         <v>102</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="52" t="s">
         <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="52" t="s">
         <v>191</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="52" t="s">
         <v>157</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="52" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="52" t="s">
         <v>121</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="52" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="52" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="52" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="52" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="52" t="s">
         <v>53</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="52" t="s">
         <v>281</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1950</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="52" t="s">
         <v>118</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="52" t="s">
         <v>175</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="52" t="s">
         <v>147</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -8661,14 +8670,14 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>2000</v>
@@ -8678,28 +8687,28 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="28.8">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:7">
+      <c r="A105" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>1965</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>36</v>
@@ -8709,14 +8718,14 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>2001</v>
@@ -8726,14 +8735,14 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="52" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>2002</v>
@@ -8743,14 +8752,14 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="52" t="s">
         <v>198</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>2003</v>
@@ -8760,14 +8769,14 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>2004</v>
@@ -8777,14 +8786,14 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="52" t="s">
         <v>58</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>2005</v>
@@ -8794,14 +8803,14 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>2005</v>
@@ -8811,14 +8820,14 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>2006</v>
@@ -8828,14 +8837,14 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="41" t="s">
         <v>406</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>1988</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>2007</v>
@@ -8845,14 +8854,14 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="41" t="s">
         <v>450</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>1989</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>2008</v>
@@ -8862,14 +8871,14 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="42" t="s">
         <v>399</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1972</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>2009</v>
@@ -8879,13 +8888,13 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="40" t="s">
         <v>2010</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -8896,7 +8905,7 @@
       <c r="A117" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>1990</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -8907,14 +8916,14 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="1">
         <v>6526</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>2011</v>
@@ -8924,14 +8933,14 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="1">
         <v>6526</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>2011</v>
@@ -8941,14 +8950,14 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="52" t="s">
         <v>176</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>372</v>
@@ -8956,19 +8965,19 @@
       <c r="E120" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="52" t="s">
         <v>177</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>371</v>
@@ -8976,19 +8985,19 @@
       <c r="E121" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="52" t="s">
         <v>178</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>369</v>
@@ -9001,14 +9010,14 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="1">
         <v>2114</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>2012</v>
@@ -9016,19 +9025,19 @@
       <c r="E123" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="1">
         <v>6510</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>2013</v>
@@ -9041,16 +9050,16 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="1">
         <v>7406</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="1" t="s">
         <v>2014</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -9058,14 +9067,14 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C126" s="1">
         <v>4164</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>2015</v>
@@ -9078,14 +9087,14 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="1">
         <v>4164</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>2015</v>
@@ -9098,14 +9107,14 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C128" s="1">
         <v>4164</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>2015</v>
@@ -9118,14 +9127,14 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C129" s="1">
         <v>4164</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>2015</v>
@@ -9138,16 +9147,16 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="1" t="s">
         <v>2016</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -9155,16 +9164,16 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="1" t="s">
         <v>2017</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -9172,16 +9181,16 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="52" t="s">
         <v>195</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="1" t="s">
         <v>2018</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -9189,16 +9198,16 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C133" s="1">
         <v>4066</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="1" t="s">
         <v>2019</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -9206,16 +9215,16 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="52" t="s">
         <v>192</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="1" t="s">
         <v>2019</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -9223,14 +9232,14 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="1">
         <v>6581</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>2020</v>
@@ -9243,14 +9252,14 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="1">
         <v>6569</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>44</v>
@@ -9258,19 +9267,19 @@
       <c r="F136" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="1">
         <v>6567</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>2021</v>
@@ -9281,19 +9290,19 @@
       <c r="F137" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="1" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C138" s="1">
         <v>556</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>2022</v>
@@ -9303,14 +9312,14 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C139" s="1">
         <v>4164</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>2015</v>
@@ -9323,14 +9332,14 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" s="1">
         <v>4164</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>2015</v>
@@ -9343,14 +9352,14 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" s="1">
         <v>4164</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>2015</v>
@@ -9363,14 +9372,14 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" s="1">
         <v>4164</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>2015</v>
@@ -9383,14 +9392,14 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="52" t="s">
         <v>174</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>2016</v>
@@ -9400,14 +9409,14 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="52" t="s">
         <v>183</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>2023</v>
@@ -9417,14 +9426,14 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="52" t="s">
         <v>117</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>2024</v>
@@ -9434,16 +9443,16 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C146" s="1">
         <v>4066</v>
       </c>
-      <c r="C146" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="1" t="s">
         <v>2019</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -9451,14 +9460,14 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>2025</v>
@@ -9468,14 +9477,14 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>2026</v>
@@ -9485,14 +9494,14 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>2027</v>
@@ -9502,14 +9511,14 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="1">
         <v>4044</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>2028</v>
@@ -9519,24 +9528,24 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="52" t="s">
         <v>232</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -9547,10 +9556,10 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -9561,10 +9570,10 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -9575,10 +9584,10 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -9589,10 +9598,10 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="47" t="s">
+      <c r="A156" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -9603,10 +9612,10 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -9617,10 +9626,10 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -9631,10 +9640,10 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="52" t="s">
         <v>493</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -9645,10 +9654,10 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -9659,10 +9668,10 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="47" t="s">
+      <c r="A161" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -9673,10 +9682,10 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="47" t="s">
+      <c r="A162" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -9687,10 +9696,10 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -9701,10 +9710,10 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="47" t="s">
+      <c r="A164" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -9715,10 +9724,10 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="47" t="s">
+      <c r="A165" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -9729,10 +9738,10 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -9743,10 +9752,10 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -9757,10 +9766,10 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -9771,10 +9780,10 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="47" t="s">
+      <c r="A169" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -9785,10 +9794,10 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -9799,10 +9808,10 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -9813,10 +9822,10 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -9827,10 +9836,10 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="47" t="s">
+      <c r="A173" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -9841,14 +9850,14 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="52" t="s">
         <v>436</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>2031</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>2030</v>
@@ -9858,14 +9867,14 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="52" t="s">
         <v>444</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>2032</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>2033</v>
@@ -9875,10 +9884,10 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="16" t="s">
+      <c r="A176" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>478</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -9889,10 +9898,10 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -9903,10 +9912,10 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>428</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -9917,56 +9926,56 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="52" t="s">
         <v>1967</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1971</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="16" t="s">
+      <c r="A180" s="52" t="s">
         <v>1968</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="52" t="s">
         <v>1969</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="52" t="s">
         <v>229</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>2036</v>
@@ -9976,14 +9985,14 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="16" t="s">
+      <c r="A183" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="1">
         <v>7812</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>2037</v>
@@ -9993,14 +10002,14 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C184" s="1">
         <v>7805</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>2038</v>
@@ -10010,10 +10019,10 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -10030,10 +10039,10 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="16" t="s">
+      <c r="A186" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -10050,10 +10059,10 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -10061,10 +10070,10 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -10072,10 +10081,10 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>461</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -10083,10 +10092,10 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -10094,10 +10103,10 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>463</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -10105,10 +10114,10 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -10116,10 +10125,10 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>461</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -10127,10 +10136,10 @@
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -10138,10 +10147,10 @@
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="16" t="s">
+      <c r="A195" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -10149,10 +10158,10 @@
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>465</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -10160,14 +10169,14 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="16" t="s">
+      <c r="A197" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="40"/>
+      <c r="C197" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C197"/>
-      <c r="D197"/>
+      <c r="D197" s="40"/>
       <c r="E197" s="1" t="s">
         <v>476</v>
       </c>
@@ -10179,14 +10188,14 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="16" t="s">
+      <c r="A198" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="40"/>
+      <c r="C198" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C198"/>
-      <c r="D198"/>
+      <c r="D198" s="40"/>
       <c r="E198" s="1" t="s">
         <v>476</v>
       </c>
@@ -10198,16 +10207,16 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="40" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C199" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D199"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="1" t="s">
         <v>476</v>
       </c>
@@ -10216,10 +10225,10 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -10227,10 +10236,10 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="16" t="s">
+      <c r="A201" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -10238,10 +10247,10 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="16" t="s">
+      <c r="A202" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -10249,10 +10258,10 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="16" t="s">
+      <c r="A203" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>467</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -10260,10 +10269,10 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="16" t="s">
+      <c r="A204" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>468</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -10271,10 +10280,10 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="16" t="s">
+      <c r="A205" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>468</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -10282,10 +10291,10 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>469</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -10293,10 +10302,10 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -10304,10 +10313,10 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -10315,10 +10324,10 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="16" t="s">
+      <c r="A209" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -10326,10 +10335,10 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="16" t="s">
+      <c r="A210" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -10337,10 +10346,10 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="16" t="s">
+      <c r="A211" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -10348,10 +10357,10 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>472</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -10359,10 +10368,10 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="16" t="s">
+      <c r="A213" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -10370,10 +10379,10 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="16" t="s">
+      <c r="A214" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -10381,10 +10390,10 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -10392,10 +10401,10 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="16" t="s">
+      <c r="A216" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>471</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -10403,10 +10412,10 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="16" t="s">
+      <c r="A217" s="52" t="s">
         <v>410</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -10414,10 +10423,10 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="16" t="s">
+      <c r="A218" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>788</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -10431,10 +10440,10 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="16" t="s">
+      <c r="A219" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>473</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -10448,10 +10457,10 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="16" t="s">
+      <c r="A220" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>466</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -10465,10 +10474,10 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -10482,10 +10491,10 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="16" t="s">
+      <c r="A222" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>462</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -10493,10 +10502,10 @@
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="16" t="s">
+      <c r="A223" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>474</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -10507,10 +10516,10 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="16" t="s">
+      <c r="A224" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>474</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -10521,10 +10530,10 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="16" t="s">
+      <c r="A225" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -10535,10 +10544,10 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="16" t="s">
+      <c r="A226" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -10549,10 +10558,10 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="16" t="s">
+      <c r="A227" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -10563,10 +10572,10 @@
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -10577,10 +10586,10 @@
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="16" t="s">
+      <c r="A229" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>454</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -10591,10 +10600,10 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="16" t="s">
+      <c r="A230" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -10605,10 +10614,10 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="16" t="s">
+      <c r="A231" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -10619,154 +10628,118 @@
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="48"/>
+      <c r="A232" s="42"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="48"/>
+      <c r="A233" s="42"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="48"/>
+      <c r="A234" s="42"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="48"/>
+      <c r="A235" s="42"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="48"/>
+      <c r="A236" s="42"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="48"/>
+      <c r="A237" s="42"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="48"/>
+      <c r="A238" s="42"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="47"/>
+      <c r="A239" s="41"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="47"/>
+      <c r="A240" s="41"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="47"/>
+      <c r="A241" s="41"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="48"/>
+      <c r="A242" s="42"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="47"/>
+      <c r="A243" s="41"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="47"/>
+      <c r="A244" s="41"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="47"/>
+      <c r="A245" s="41"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="47"/>
+      <c r="A246" s="41"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="47"/>
+      <c r="A247" s="41"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="48"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="14"/>
+      <c r="A248" s="42"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="27"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="14"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="14"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="14"/>
+      <c r="A250" s="53"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="27"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="14"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="14"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="14"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="14"/>
+      <c r="A254" s="53"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="27"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="14"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="14"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="14"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="14"/>
+      <c r="A259" s="53"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="18"/>
+      <c r="A264" s="54"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="18"/>
+      <c r="A265" s="54"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="18"/>
+      <c r="A266" s="54"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="18"/>
+      <c r="A267" s="54"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="18"/>
+      <c r="A268" s="54"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="18"/>
+      <c r="A269" s="54"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="18"/>
+      <c r="A270" s="54"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="18"/>
+      <c r="A271" s="54"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="18"/>
+      <c r="A272" s="54"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="18"/>
+      <c r="A273" s="54"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="18"/>
+      <c r="A274" s="54"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="16"/>
+      <c r="A275" s="52"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="16"/>
+      <c r="A276" s="52"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="16"/>
+      <c r="A277" s="52"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="18"/>
+      <c r="A278" s="54"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="18"/>
+      <c r="A279" s="54"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="18"/>
+      <c r="A280" s="54"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="18"/>
+      <c r="A281" s="54"/>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="16"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F23E2-8B0B-4436-9E36-DDF42187C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A4B7A3-5A25-4E89-885D-900C2A491C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -7320,8 +7320,8 @@
   <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11906,10 +11906,10 @@
   <dimension ref="A1:I2807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D1439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A1450" sqref="A1450:XFD1451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F75A766-FBCC-40A4-920B-761DB400308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DC660-E528-453B-81FD-D50A44316B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10423" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10470" uniqueCount="2094">
   <si>
     <t>Name</t>
   </si>
@@ -6355,6 +6355,69 @@
     <t>This is Φ2 clock OUTPUT (CPU generates this signal)</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/C64 RF modulator.png</t>
+  </si>
+  <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>INTER CARRIER SELECTOR</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Note 2V/DIV</t>
+  </si>
+  <si>
+    <t>Signal originates from VIC-II</t>
+  </si>
+  <si>
+    <t>Analog?</t>
+  </si>
+  <si>
+    <t>You need to measure this from the backside of motherboard</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -6367,7 +6430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-21</t>
     </r>
   </si>
 </sst>
@@ -6498,7 +6561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6649,6 +6712,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6999,7 +7065,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2072</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7041,12 +7107,12 @@
         <v>273</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="28.8">
       <c r="A9" s="43" t="s">
@@ -11919,7 +11985,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2807"/>
+  <dimension ref="A1:I2816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -12030,7 +12096,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -40337,7 +40403,7 @@
     </row>
     <row r="1450" spans="1:7">
       <c r="A1450" s="14" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="B1450" s="14"/>
       <c r="C1450" s="34"/>
@@ -40345,256 +40411,306 @@
         <v>228</v>
       </c>
       <c r="F1450" s="14" t="s">
-        <v>1872</v>
+        <v>2072</v>
+      </c>
+      <c r="G1450" s="1" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="1451" spans="1:7">
       <c r="A1451" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1451" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1451" s="34">
+        <v>1</v>
+      </c>
+      <c r="D1451" s="55" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1451" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1451" s="14" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G1451" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7">
+      <c r="A1452" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1452" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1452" s="34">
+        <v>2</v>
+      </c>
+      <c r="D1452" s="55" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E1452" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1452" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G1452" s="1" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7">
+      <c r="A1453" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1453" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1453" s="34">
+        <v>3</v>
+      </c>
+      <c r="D1453" s="55" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E1453" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1453" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G1453" s="1" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7">
+      <c r="A1454" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1454" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1454" s="34">
+        <v>4</v>
+      </c>
+      <c r="D1454" s="55" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1454" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1454" s="14" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7">
+      <c r="A1455" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1455" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1455" s="34">
+        <v>5</v>
+      </c>
+      <c r="D1455" s="55" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E1455" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1455" s="14" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7">
+      <c r="A1456" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1456" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1456" s="34">
+        <v>6</v>
+      </c>
+      <c r="D1456" s="55" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E1456" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1456" s="14" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7">
+      <c r="A1457" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1457" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1457" s="34">
+        <v>7</v>
+      </c>
+      <c r="D1457" s="55" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E1457" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1457" s="14" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7">
+      <c r="A1458" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1458" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1458" s="34">
+        <v>8</v>
+      </c>
+      <c r="D1458" s="55" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E1458" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F1458" s="14" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7">
+      <c r="A1459" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B1451" s="14"/>
-      <c r="C1451" s="34"/>
-      <c r="D1451" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="F1451" s="14" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:7" ht="28.8">
-      <c r="A1452" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1452" s="14"/>
-      <c r="C1452" s="34"/>
-      <c r="D1452" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1452" s="14" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G1452" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:7" ht="28.8">
-      <c r="A1453" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1453" s="14"/>
-      <c r="C1453" s="34"/>
-      <c r="D1453" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1453" s="14" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G1453" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:7" ht="72">
-      <c r="A1454" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1454" s="14"/>
-      <c r="C1454" s="34"/>
-      <c r="D1454" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1454" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:7" ht="43.2">
-      <c r="A1455" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B1455" s="14"/>
-      <c r="C1455" s="34"/>
-      <c r="D1455" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1455" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G1455" s="1" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:7">
-      <c r="A1456" s="49" t="s">
-        <v>1927</v>
-      </c>
-      <c r="B1456"/>
-      <c r="C1456" s="34"/>
-      <c r="D1456" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1456" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G1456" s="1" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:7">
-      <c r="A1457" s="49" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B1457"/>
-      <c r="C1457" s="34"/>
-      <c r="D1457" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1457" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G1457" s="1" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:7" ht="28.8">
-      <c r="A1458" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1458" s="16"/>
-      <c r="C1458" s="35"/>
-      <c r="D1458" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1458" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1458" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:7" ht="28.8">
-      <c r="A1459" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1459" s="1"/>
+      <c r="B1459" s="14"/>
+      <c r="C1459" s="34"/>
       <c r="D1459" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1459" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:7" ht="28.8">
-      <c r="A1460" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1460" s="1"/>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7">
+      <c r="A1460" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1460" s="14"/>
+      <c r="C1460" s="34"/>
       <c r="D1460" s="14" t="s">
-        <v>228</v>
+        <v>560</v>
       </c>
       <c r="F1460" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1460" s="40" t="s">
-        <v>746</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1461" spans="1:7" ht="28.8">
-      <c r="A1461" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1461" s="1"/>
+      <c r="A1461" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1461" s="14"/>
+      <c r="C1461" s="34"/>
       <c r="D1461" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1461" s="40" t="s">
-        <v>746</v>
+        <v>1873</v>
+      </c>
+      <c r="G1461" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="1462" spans="1:7" ht="28.8">
-      <c r="A1462" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1462" s="1"/>
+      <c r="A1462" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1462" s="14"/>
+      <c r="C1462" s="34"/>
       <c r="D1462" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1462" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1462" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:7" ht="28.8">
-      <c r="A1463" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1463" s="1"/>
+        <v>1873</v>
+      </c>
+      <c r="G1462" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" ht="72">
+      <c r="A1463" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1463" s="14"/>
+      <c r="C1463" s="34"/>
       <c r="D1463" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1463" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1463" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:7" ht="28.8">
-      <c r="A1464" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1464" s="1"/>
+      <c r="G1463" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" ht="43.2">
+      <c r="A1464" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1464" s="14"/>
+      <c r="C1464" s="34"/>
       <c r="D1464" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1464" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1464" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:7" ht="28.8">
-      <c r="A1465" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1465" s="1"/>
+      <c r="F1464" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G1464" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7">
+      <c r="A1465" s="49" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1465"/>
+      <c r="C1465" s="34"/>
       <c r="D1465" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1465" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1465" s="40" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:7" ht="28.8">
-      <c r="A1466" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1466" s="1"/>
+      <c r="F1465" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G1465" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7">
+      <c r="A1466" s="49" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1466"/>
+      <c r="C1466" s="34"/>
       <c r="D1466" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1466" s="14" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G1466" s="40" t="s">
-        <v>746</v>
+      <c r="F1466" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G1466" s="1" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="1467" spans="1:7" ht="28.8">
       <c r="A1467" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1467" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="B1467" s="16"/>
+      <c r="C1467" s="35"/>
       <c r="D1467" s="14" t="s">
         <v>228</v>
       </c>
@@ -40607,9 +40723,9 @@
     </row>
     <row r="1468" spans="1:7" ht="28.8">
       <c r="A1468" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1468"/>
+        <v>380</v>
+      </c>
+      <c r="C1468" s="1"/>
       <c r="D1468" s="14" t="s">
         <v>228</v>
       </c>
@@ -40622,7 +40738,7 @@
     </row>
     <row r="1469" spans="1:7" ht="28.8">
       <c r="A1469" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1469" s="1"/>
       <c r="D1469" s="14" t="s">
@@ -40637,7 +40753,7 @@
     </row>
     <row r="1470" spans="1:7" ht="28.8">
       <c r="A1470" s="16" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C1470" s="1"/>
       <c r="D1470" s="14" t="s">
@@ -40652,7 +40768,7 @@
     </row>
     <row r="1471" spans="1:7" ht="28.8">
       <c r="A1471" s="16" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C1471" s="1"/>
       <c r="D1471" s="14" t="s">
@@ -40667,7 +40783,7 @@
     </row>
     <row r="1472" spans="1:7" ht="28.8">
       <c r="A1472" s="16" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C1472" s="1"/>
       <c r="D1472" s="14" t="s">
@@ -40682,7 +40798,7 @@
     </row>
     <row r="1473" spans="1:7" ht="28.8">
       <c r="A1473" s="16" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C1473" s="1"/>
       <c r="D1473" s="14" t="s">
@@ -40697,7 +40813,7 @@
     </row>
     <row r="1474" spans="1:7" ht="28.8">
       <c r="A1474" s="16" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C1474" s="1"/>
       <c r="D1474" s="14" t="s">
@@ -40712,7 +40828,7 @@
     </row>
     <row r="1475" spans="1:7" ht="28.8">
       <c r="A1475" s="16" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="C1475" s="1"/>
       <c r="D1475" s="14" t="s">
@@ -40727,7 +40843,7 @@
     </row>
     <row r="1476" spans="1:7" ht="28.8">
       <c r="A1476" s="16" t="s">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="C1476" s="1"/>
       <c r="D1476" s="14" t="s">
@@ -40742,9 +40858,9 @@
     </row>
     <row r="1477" spans="1:7" ht="28.8">
       <c r="A1477" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1477" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="C1477"/>
       <c r="D1477" s="14" t="s">
         <v>228</v>
       </c>
@@ -40757,7 +40873,7 @@
     </row>
     <row r="1478" spans="1:7" ht="28.8">
       <c r="A1478" s="16" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C1478" s="1"/>
       <c r="D1478" s="14" t="s">
@@ -40772,7 +40888,7 @@
     </row>
     <row r="1479" spans="1:7" ht="28.8">
       <c r="A1479" s="16" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="C1479" s="1"/>
       <c r="D1479" s="14" t="s">
@@ -40787,7 +40903,7 @@
     </row>
     <row r="1480" spans="1:7" ht="28.8">
       <c r="A1480" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C1480" s="1"/>
       <c r="D1480" s="14" t="s">
@@ -40802,7 +40918,7 @@
     </row>
     <row r="1481" spans="1:7" ht="28.8">
       <c r="A1481" s="16" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C1481" s="1"/>
       <c r="D1481" s="14" t="s">
@@ -40817,7 +40933,7 @@
     </row>
     <row r="1482" spans="1:7" ht="28.8">
       <c r="A1482" s="16" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C1482" s="1"/>
       <c r="D1482" s="14" t="s">
@@ -40832,7 +40948,7 @@
     </row>
     <row r="1483" spans="1:7" ht="28.8">
       <c r="A1483" s="16" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C1483" s="1"/>
       <c r="D1483" s="14" t="s">
@@ -40847,7 +40963,7 @@
     </row>
     <row r="1484" spans="1:7" ht="28.8">
       <c r="A1484" s="16" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C1484" s="1"/>
       <c r="D1484" s="14" t="s">
@@ -40862,7 +40978,7 @@
     </row>
     <row r="1485" spans="1:7" ht="28.8">
       <c r="A1485" s="16" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C1485" s="1"/>
       <c r="D1485" s="14" t="s">
@@ -40877,7 +40993,7 @@
     </row>
     <row r="1486" spans="1:7" ht="28.8">
       <c r="A1486" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C1486" s="1"/>
       <c r="D1486" s="14" t="s">
@@ -40892,7 +41008,7 @@
     </row>
     <row r="1487" spans="1:7" ht="28.8">
       <c r="A1487" s="16" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C1487" s="1"/>
       <c r="D1487" s="14" t="s">
@@ -40907,7 +41023,7 @@
     </row>
     <row r="1488" spans="1:7" ht="28.8">
       <c r="A1488" s="16" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C1488" s="1"/>
       <c r="D1488" s="14" t="s">
@@ -40922,7 +41038,7 @@
     </row>
     <row r="1489" spans="1:7" ht="28.8">
       <c r="A1489" s="16" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C1489" s="1"/>
       <c r="D1489" s="14" t="s">
@@ -40935,59 +41051,149 @@
         <v>746</v>
       </c>
     </row>
-    <row r="1490" spans="1:7">
-      <c r="A1490" s="46"/>
-      <c r="B1490" s="26"/>
-      <c r="C1490" s="36"/>
-    </row>
-    <row r="1491" spans="1:7">
-      <c r="A1491" s="45"/>
-      <c r="B1491"/>
-      <c r="C1491" s="34"/>
-    </row>
-    <row r="1492" spans="1:7">
-      <c r="A1492" s="14"/>
-      <c r="B1492" s="14"/>
-      <c r="C1492" s="34"/>
-    </row>
-    <row r="1493" spans="1:7">
-      <c r="A1493" s="14"/>
-      <c r="B1493" s="14"/>
-      <c r="C1493" s="34"/>
-    </row>
-    <row r="1494" spans="1:7">
-      <c r="A1494" s="27"/>
-      <c r="B1494" s="27"/>
-      <c r="C1494" s="36"/>
-    </row>
-    <row r="1495" spans="1:7">
-      <c r="A1495" s="14"/>
-      <c r="B1495" s="14"/>
-      <c r="C1495" s="34"/>
-    </row>
-    <row r="1496" spans="1:7">
-      <c r="A1496" s="14"/>
-      <c r="B1496" s="14"/>
-      <c r="C1496" s="34"/>
-    </row>
-    <row r="1497" spans="1:7">
-      <c r="A1497" s="14"/>
-      <c r="B1497" s="14"/>
-      <c r="C1497" s="34"/>
-    </row>
-    <row r="1498" spans="1:7">
-      <c r="A1498" s="27"/>
-      <c r="B1498" s="27"/>
-      <c r="C1498" s="36"/>
+    <row r="1490" spans="1:7" ht="28.8">
+      <c r="A1490" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1490" s="1"/>
+      <c r="D1490" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1490" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1490" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" ht="28.8">
+      <c r="A1491" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1491" s="1"/>
+      <c r="D1491" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1491" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1491" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" ht="28.8">
+      <c r="A1492" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1492" s="1"/>
+      <c r="D1492" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1492" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1492" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" ht="28.8">
+      <c r="A1493" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1493" s="1"/>
+      <c r="D1493" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1493" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1493" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" ht="28.8">
+      <c r="A1494" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1494" s="1"/>
+      <c r="D1494" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1494" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1494" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" ht="28.8">
+      <c r="A1495" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1495" s="1"/>
+      <c r="D1495" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1495" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1495" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" ht="28.8">
+      <c r="A1496" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1496" s="1"/>
+      <c r="D1496" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1496" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1496" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" ht="28.8">
+      <c r="A1497" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1497" s="1"/>
+      <c r="D1497" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1497" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1497" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" ht="28.8">
+      <c r="A1498" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1498" s="1"/>
+      <c r="D1498" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1498" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G1498" s="40" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="1499" spans="1:7">
-      <c r="A1499" s="14"/>
-      <c r="B1499" s="14"/>
-      <c r="C1499" s="34"/>
+      <c r="A1499" s="46"/>
+      <c r="B1499" s="26"/>
+      <c r="C1499" s="36"/>
     </row>
     <row r="1500" spans="1:7">
-      <c r="A1500" s="14"/>
-      <c r="B1500" s="14"/>
+      <c r="A1500" s="45"/>
+      <c r="B1500"/>
       <c r="C1500" s="34"/>
     </row>
     <row r="1501" spans="1:7">
@@ -41001,9 +41207,9 @@
       <c r="C1502" s="34"/>
     </row>
     <row r="1503" spans="1:7">
-      <c r="A1503" s="14"/>
-      <c r="B1503" s="14"/>
-      <c r="C1503" s="34"/>
+      <c r="A1503" s="27"/>
+      <c r="B1503" s="27"/>
+      <c r="C1503" s="36"/>
     </row>
     <row r="1504" spans="1:7">
       <c r="A1504" s="14"/>
@@ -41021,9 +41227,9 @@
       <c r="C1506" s="34"/>
     </row>
     <row r="1507" spans="1:3">
-      <c r="A1507" s="14"/>
-      <c r="B1507" s="14"/>
-      <c r="C1507" s="34"/>
+      <c r="A1507" s="27"/>
+      <c r="B1507" s="27"/>
+      <c r="C1507" s="36"/>
     </row>
     <row r="1508" spans="1:3">
       <c r="A1508" s="14"/>
@@ -41155,75 +41361,84 @@
       <c r="B1533" s="14"/>
       <c r="C1533" s="34"/>
     </row>
-    <row r="1640" spans="5:5">
-      <c r="E1640" s="40"/>
-    </row>
-    <row r="1641" spans="5:5">
-      <c r="E1641" s="40"/>
-    </row>
-    <row r="1642" spans="5:5">
-      <c r="E1642" s="40"/>
-    </row>
-    <row r="1643" spans="5:5">
-      <c r="E1643" s="40"/>
-    </row>
-    <row r="1644" spans="5:5">
-      <c r="E1644" s="40"/>
-    </row>
-    <row r="1645" spans="5:5">
-      <c r="E1645" s="40"/>
-    </row>
-    <row r="1646" spans="5:5">
-      <c r="E1646" s="40"/>
-    </row>
-    <row r="1656" spans="5:7">
-      <c r="E1656" s="40"/>
-    </row>
-    <row r="1658" spans="5:7">
-      <c r="E1658" s="40"/>
-      <c r="G1658" s="40"/>
-    </row>
-    <row r="1659" spans="5:7">
-      <c r="G1659" s="40"/>
-    </row>
-    <row r="1660" spans="5:7">
-      <c r="E1660" s="41"/>
-      <c r="G1660" s="40"/>
-    </row>
-    <row r="1661" spans="5:7">
-      <c r="E1661" s="40"/>
-      <c r="G1661" s="40"/>
-    </row>
-    <row r="1662" spans="5:7">
-      <c r="E1662" s="40"/>
-      <c r="G1662" s="40"/>
-    </row>
-    <row r="1663" spans="5:7">
-      <c r="E1663" s="40"/>
-      <c r="G1663" s="40"/>
-    </row>
-    <row r="1664" spans="5:7">
-      <c r="E1664" s="40"/>
-      <c r="G1664" s="40"/>
+    <row r="1534" spans="1:3">
+      <c r="A1534" s="14"/>
+      <c r="B1534" s="14"/>
+      <c r="C1534" s="34"/>
+    </row>
+    <row r="1535" spans="1:3">
+      <c r="A1535" s="14"/>
+      <c r="B1535" s="14"/>
+      <c r="C1535" s="34"/>
+    </row>
+    <row r="1536" spans="1:3">
+      <c r="A1536" s="14"/>
+      <c r="B1536" s="14"/>
+      <c r="C1536" s="34"/>
+    </row>
+    <row r="1537" spans="1:3">
+      <c r="A1537" s="14"/>
+      <c r="B1537" s="14"/>
+      <c r="C1537" s="34"/>
+    </row>
+    <row r="1538" spans="1:3">
+      <c r="A1538" s="14"/>
+      <c r="B1538" s="14"/>
+      <c r="C1538" s="34"/>
+    </row>
+    <row r="1539" spans="1:3">
+      <c r="A1539" s="14"/>
+      <c r="B1539" s="14"/>
+      <c r="C1539" s="34"/>
+    </row>
+    <row r="1540" spans="1:3">
+      <c r="A1540" s="14"/>
+      <c r="B1540" s="14"/>
+      <c r="C1540" s="34"/>
+    </row>
+    <row r="1541" spans="1:3">
+      <c r="A1541" s="14"/>
+      <c r="B1541" s="14"/>
+      <c r="C1541" s="34"/>
+    </row>
+    <row r="1542" spans="1:3">
+      <c r="A1542" s="14"/>
+      <c r="B1542" s="14"/>
+      <c r="C1542" s="34"/>
+    </row>
+    <row r="1649" spans="5:5">
+      <c r="E1649" s="40"/>
+    </row>
+    <row r="1650" spans="5:5">
+      <c r="E1650" s="40"/>
+    </row>
+    <row r="1651" spans="5:5">
+      <c r="E1651" s="40"/>
+    </row>
+    <row r="1652" spans="5:5">
+      <c r="E1652" s="40"/>
+    </row>
+    <row r="1653" spans="5:5">
+      <c r="E1653" s="40"/>
+    </row>
+    <row r="1654" spans="5:5">
+      <c r="E1654" s="40"/>
+    </row>
+    <row r="1655" spans="5:5">
+      <c r="E1655" s="40"/>
     </row>
     <row r="1665" spans="5:7">
       <c r="E1665" s="40"/>
-      <c r="G1665" s="40"/>
-    </row>
-    <row r="1666" spans="5:7">
-      <c r="E1666" s="42"/>
-      <c r="G1666" s="40"/>
     </row>
     <row r="1667" spans="5:7">
       <c r="E1667" s="40"/>
       <c r="G1667" s="40"/>
     </row>
     <row r="1668" spans="5:7">
-      <c r="E1668" s="40"/>
       <c r="G1668" s="40"/>
     </row>
     <row r="1669" spans="5:7">
-      <c r="E1669" s="40"/>
+      <c r="E1669" s="41"/>
       <c r="G1669" s="40"/>
     </row>
     <row r="1670" spans="5:7">
@@ -41247,7 +41462,7 @@
       <c r="G1674" s="40"/>
     </row>
     <row r="1675" spans="5:7">
-      <c r="E1675" s="40"/>
+      <c r="E1675" s="42"/>
       <c r="G1675" s="40"/>
     </row>
     <row r="1676" spans="5:7">
@@ -41370,35 +41585,44 @@
       <c r="E1705" s="40"/>
       <c r="G1705" s="40"/>
     </row>
+    <row r="1706" spans="5:7">
+      <c r="E1706" s="40"/>
+      <c r="G1706" s="40"/>
+    </row>
+    <row r="1707" spans="5:7">
+      <c r="E1707" s="40"/>
+      <c r="G1707" s="40"/>
+    </row>
+    <row r="1708" spans="5:7">
+      <c r="E1708" s="40"/>
+      <c r="G1708" s="40"/>
+    </row>
+    <row r="1709" spans="5:7">
+      <c r="E1709" s="40"/>
+      <c r="G1709" s="40"/>
+    </row>
+    <row r="1710" spans="5:7">
+      <c r="E1710" s="40"/>
+      <c r="G1710" s="40"/>
+    </row>
+    <row r="1711" spans="5:7">
+      <c r="E1711" s="40"/>
+      <c r="G1711" s="40"/>
+    </row>
+    <row r="1712" spans="5:7">
+      <c r="E1712" s="40"/>
+      <c r="G1712" s="40"/>
+    </row>
     <row r="1713" spans="5:7">
       <c r="E1713" s="40"/>
+      <c r="G1713" s="40"/>
+    </row>
+    <row r="1714" spans="5:7">
+      <c r="E1714" s="40"/>
+      <c r="G1714" s="40"/>
     </row>
     <row r="1722" spans="5:7">
-      <c r="G1722" s="40"/>
-    </row>
-    <row r="1723" spans="5:7">
-      <c r="G1723" s="40"/>
-    </row>
-    <row r="1724" spans="5:7">
-      <c r="G1724" s="40"/>
-    </row>
-    <row r="1725" spans="5:7">
-      <c r="G1725" s="40"/>
-    </row>
-    <row r="1726" spans="5:7">
-      <c r="G1726" s="40"/>
-    </row>
-    <row r="1727" spans="5:7">
-      <c r="G1727" s="40"/>
-    </row>
-    <row r="1728" spans="5:7">
-      <c r="G1728" s="40"/>
-    </row>
-    <row r="1729" spans="7:7">
-      <c r="G1729" s="40"/>
-    </row>
-    <row r="1730" spans="7:7">
-      <c r="G1730" s="40"/>
+      <c r="E1722" s="40"/>
     </row>
     <row r="1731" spans="7:7">
       <c r="G1731" s="40"/>
@@ -41415,33 +41639,48 @@
     <row r="1735" spans="7:7">
       <c r="G1735" s="40"/>
     </row>
-    <row r="1765" spans="5:5">
-      <c r="E1765" s="40"/>
-    </row>
-    <row r="1784" spans="5:5">
-      <c r="E1784" s="40"/>
-    </row>
-    <row r="1785" spans="5:5">
-      <c r="E1785" s="40"/>
-    </row>
-    <row r="1788" spans="5:5">
-      <c r="E1788" s="40"/>
-    </row>
-    <row r="1789" spans="5:5">
-      <c r="E1789" s="40"/>
-    </row>
-    <row r="1790" spans="5:5">
-      <c r="E1790" s="40"/>
-    </row>
-    <row r="1791" spans="5:5">
-      <c r="E1791" s="40"/>
-    </row>
-    <row r="1792" spans="5:5">
-      <c r="E1792" s="40"/>
+    <row r="1736" spans="7:7">
+      <c r="G1736" s="40"/>
+    </row>
+    <row r="1737" spans="7:7">
+      <c r="G1737" s="40"/>
+    </row>
+    <row r="1738" spans="7:7">
+      <c r="G1738" s="40"/>
+    </row>
+    <row r="1739" spans="7:7">
+      <c r="G1739" s="40"/>
+    </row>
+    <row r="1740" spans="7:7">
+      <c r="G1740" s="40"/>
+    </row>
+    <row r="1741" spans="7:7">
+      <c r="G1741" s="40"/>
+    </row>
+    <row r="1742" spans="7:7">
+      <c r="G1742" s="40"/>
+    </row>
+    <row r="1743" spans="7:7">
+      <c r="G1743" s="40"/>
+    </row>
+    <row r="1744" spans="7:7">
+      <c r="G1744" s="40"/>
+    </row>
+    <row r="1774" spans="5:5">
+      <c r="E1774" s="40"/>
     </row>
     <row r="1793" spans="5:5">
       <c r="E1793" s="40"/>
     </row>
+    <row r="1794" spans="5:5">
+      <c r="E1794" s="40"/>
+    </row>
+    <row r="1797" spans="5:5">
+      <c r="E1797" s="40"/>
+    </row>
+    <row r="1798" spans="5:5">
+      <c r="E1798" s="40"/>
+    </row>
     <row r="1799" spans="5:5">
       <c r="E1799" s="40"/>
     </row>
@@ -41454,18 +41693,6 @@
     <row r="1802" spans="5:5">
       <c r="E1802" s="40"/>
     </row>
-    <row r="1803" spans="5:5">
-      <c r="E1803" s="40"/>
-    </row>
-    <row r="1804" spans="5:5">
-      <c r="E1804" s="40"/>
-    </row>
-    <row r="1805" spans="5:5">
-      <c r="E1805" s="40"/>
-    </row>
-    <row r="1807" spans="5:5">
-      <c r="E1807" s="40"/>
-    </row>
     <row r="1808" spans="5:5">
       <c r="E1808" s="40"/>
     </row>
@@ -41475,92 +41702,91 @@
     <row r="1810" spans="5:5">
       <c r="E1810" s="40"/>
     </row>
+    <row r="1811" spans="5:5">
+      <c r="E1811" s="40"/>
+    </row>
+    <row r="1812" spans="5:5">
+      <c r="E1812" s="40"/>
+    </row>
+    <row r="1813" spans="5:5">
+      <c r="E1813" s="40"/>
+    </row>
     <row r="1814" spans="5:5">
       <c r="E1814" s="40"/>
     </row>
-    <row r="1821" spans="5:5">
-      <c r="E1821" s="40"/>
-    </row>
-    <row r="1825" spans="5:5">
-      <c r="E1825" s="40"/>
-    </row>
-    <row r="1836" spans="5:5">
-      <c r="E1836" s="40"/>
-    </row>
-    <row r="1846" spans="5:7">
-      <c r="E1846" s="40"/>
-    </row>
-    <row r="1848" spans="5:7">
-      <c r="G1848" s="40"/>
-    </row>
-    <row r="1849" spans="5:7">
-      <c r="G1849" s="40"/>
-    </row>
-    <row r="1850" spans="5:7">
-      <c r="G1850" s="40"/>
-    </row>
-    <row r="1851" spans="5:7">
-      <c r="G1851" s="40"/>
-    </row>
-    <row r="1852" spans="5:7">
-      <c r="G1852" s="40"/>
-    </row>
-    <row r="1853" spans="5:7">
-      <c r="G1853" s="40"/>
-    </row>
-    <row r="1854" spans="5:7">
-      <c r="G1854" s="40"/>
-    </row>
-    <row r="1855" spans="5:7">
-      <c r="G1855" s="40"/>
-    </row>
-    <row r="1856" spans="5:7">
-      <c r="G1856" s="40"/>
-    </row>
-    <row r="1857" spans="5:7">
+    <row r="1816" spans="5:5">
+      <c r="E1816" s="40"/>
+    </row>
+    <row r="1817" spans="5:5">
+      <c r="E1817" s="40"/>
+    </row>
+    <row r="1818" spans="5:5">
+      <c r="E1818" s="40"/>
+    </row>
+    <row r="1819" spans="5:5">
+      <c r="E1819" s="40"/>
+    </row>
+    <row r="1823" spans="5:5">
+      <c r="E1823" s="40"/>
+    </row>
+    <row r="1830" spans="5:5">
+      <c r="E1830" s="40"/>
+    </row>
+    <row r="1834" spans="5:5">
+      <c r="E1834" s="40"/>
+    </row>
+    <row r="1845" spans="5:5">
+      <c r="E1845" s="40"/>
+    </row>
+    <row r="1855" spans="5:5">
+      <c r="E1855" s="40"/>
+    </row>
+    <row r="1857" spans="7:7">
       <c r="G1857" s="40"/>
     </row>
-    <row r="1858" spans="5:7">
+    <row r="1858" spans="7:7">
       <c r="G1858" s="40"/>
     </row>
-    <row r="1859" spans="5:7">
+    <row r="1859" spans="7:7">
       <c r="G1859" s="40"/>
     </row>
-    <row r="1860" spans="5:7">
+    <row r="1860" spans="7:7">
       <c r="G1860" s="40"/>
     </row>
-    <row r="1861" spans="5:7">
+    <row r="1861" spans="7:7">
       <c r="G1861" s="40"/>
     </row>
-    <row r="1862" spans="5:7">
+    <row r="1862" spans="7:7">
       <c r="G1862" s="40"/>
     </row>
-    <row r="1863" spans="5:7">
+    <row r="1863" spans="7:7">
       <c r="G1863" s="40"/>
     </row>
-    <row r="1864" spans="5:7">
+    <row r="1864" spans="7:7">
       <c r="G1864" s="40"/>
     </row>
-    <row r="1865" spans="5:7">
+    <row r="1865" spans="7:7">
       <c r="G1865" s="40"/>
     </row>
-    <row r="1866" spans="5:7">
+    <row r="1866" spans="7:7">
       <c r="G1866" s="40"/>
     </row>
-    <row r="1867" spans="5:7">
-      <c r="E1867" s="40"/>
+    <row r="1867" spans="7:7">
       <c r="G1867" s="40"/>
     </row>
-    <row r="1869" spans="5:7">
+    <row r="1868" spans="7:7">
+      <c r="G1868" s="40"/>
+    </row>
+    <row r="1869" spans="7:7">
       <c r="G1869" s="40"/>
     </row>
-    <row r="1870" spans="5:7">
+    <row r="1870" spans="7:7">
       <c r="G1870" s="40"/>
     </row>
-    <row r="1871" spans="5:7">
+    <row r="1871" spans="7:7">
       <c r="G1871" s="40"/>
     </row>
-    <row r="1872" spans="5:7">
+    <row r="1872" spans="7:7">
       <c r="G1872" s="40"/>
     </row>
     <row r="1873" spans="5:7">
@@ -41576,9 +41802,6 @@
       <c r="E1876" s="40"/>
       <c r="G1876" s="40"/>
     </row>
-    <row r="1877" spans="5:7">
-      <c r="G1877" s="40"/>
-    </row>
     <row r="1878" spans="5:7">
       <c r="G1878" s="40"/>
     </row>
@@ -41598,8 +41821,11 @@
       <c r="G1883" s="40"/>
     </row>
     <row r="1884" spans="5:7">
-      <c r="E1884" s="40"/>
       <c r="G1884" s="40"/>
+    </row>
+    <row r="1885" spans="5:7">
+      <c r="E1885" s="40"/>
+      <c r="G1885" s="40"/>
     </row>
     <row r="1886" spans="5:7">
       <c r="G1886" s="40"/>
@@ -41626,9 +41852,6 @@
       <c r="E1893" s="40"/>
       <c r="G1893" s="40"/>
     </row>
-    <row r="1894" spans="5:7">
-      <c r="G1894" s="40"/>
-    </row>
     <row r="1895" spans="5:7">
       <c r="G1895" s="40"/>
     </row>
@@ -41648,60 +41871,61 @@
       <c r="G1900" s="40"/>
     </row>
     <row r="1901" spans="5:7">
-      <c r="E1901" s="40"/>
       <c r="G1901" s="40"/>
     </row>
-    <row r="1909" spans="5:5">
-      <c r="E1909" s="40"/>
-    </row>
-    <row r="1916" spans="5:5">
-      <c r="E1916" s="40"/>
-    </row>
-    <row r="1932" spans="5:5">
-      <c r="E1932" s="41"/>
-    </row>
-    <row r="1933" spans="5:5">
-      <c r="E1933" s="41"/>
-    </row>
-    <row r="1936" spans="5:5">
-      <c r="E1936" s="41"/>
-    </row>
-    <row r="1937" spans="5:5">
-      <c r="E1937" s="40"/>
-    </row>
-    <row r="1950" spans="5:5">
-      <c r="E1950" s="40"/>
-    </row>
-    <row r="1962" spans="5:5">
-      <c r="E1962" s="40"/>
-    </row>
-    <row r="1966" spans="5:5">
-      <c r="E1966" s="40"/>
-    </row>
-    <row r="1967" spans="5:5">
-      <c r="E1967" s="40"/>
-    </row>
-    <row r="1968" spans="5:5">
-      <c r="E1968" s="40"/>
-    </row>
-    <row r="1969" spans="5:5">
-      <c r="E1969" s="40"/>
-    </row>
-    <row r="1970" spans="5:5">
-      <c r="E1970" s="40"/>
+    <row r="1902" spans="5:7">
+      <c r="E1902" s="40"/>
+      <c r="G1902" s="40"/>
+    </row>
+    <row r="1903" spans="5:7">
+      <c r="G1903" s="40"/>
+    </row>
+    <row r="1904" spans="5:7">
+      <c r="G1904" s="40"/>
+    </row>
+    <row r="1905" spans="5:7">
+      <c r="G1905" s="40"/>
+    </row>
+    <row r="1906" spans="5:7">
+      <c r="G1906" s="40"/>
+    </row>
+    <row r="1907" spans="5:7">
+      <c r="G1907" s="40"/>
+    </row>
+    <row r="1908" spans="5:7">
+      <c r="G1908" s="40"/>
+    </row>
+    <row r="1909" spans="5:7">
+      <c r="G1909" s="40"/>
+    </row>
+    <row r="1910" spans="5:7">
+      <c r="E1910" s="40"/>
+      <c r="G1910" s="40"/>
+    </row>
+    <row r="1918" spans="5:7">
+      <c r="E1918" s="40"/>
+    </row>
+    <row r="1925" spans="5:5">
+      <c r="E1925" s="40"/>
+    </row>
+    <row r="1941" spans="5:5">
+      <c r="E1941" s="41"/>
+    </row>
+    <row r="1942" spans="5:5">
+      <c r="E1942" s="41"/>
+    </row>
+    <row r="1945" spans="5:5">
+      <c r="E1945" s="41"/>
+    </row>
+    <row r="1946" spans="5:5">
+      <c r="E1946" s="40"/>
+    </row>
+    <row r="1959" spans="5:5">
+      <c r="E1959" s="40"/>
     </row>
     <row r="1971" spans="5:5">
       <c r="E1971" s="40"/>
     </row>
-    <row r="1972" spans="5:5">
-      <c r="E1972" s="40"/>
-    </row>
-    <row r="1973" spans="5:5">
-      <c r="E1973" s="40"/>
-    </row>
-    <row r="1974" spans="5:5">
-      <c r="E1974" s="40"/>
-    </row>
     <row r="1975" spans="5:5">
       <c r="E1975" s="40"/>
     </row>
@@ -41747,32 +41971,32 @@
     <row r="1989" spans="5:7">
       <c r="E1989" s="40"/>
     </row>
+    <row r="1990" spans="5:7">
+      <c r="E1990" s="40"/>
+    </row>
     <row r="1991" spans="5:7">
-      <c r="G1991" s="40"/>
+      <c r="E1991" s="40"/>
     </row>
     <row r="1992" spans="5:7">
-      <c r="G1992" s="40"/>
+      <c r="E1992" s="40"/>
     </row>
     <row r="1993" spans="5:7">
-      <c r="G1993" s="40"/>
+      <c r="E1993" s="40"/>
     </row>
     <row r="1994" spans="5:7">
-      <c r="G1994" s="40"/>
+      <c r="E1994" s="40"/>
     </row>
     <row r="1995" spans="5:7">
-      <c r="G1995" s="40"/>
+      <c r="E1995" s="40"/>
     </row>
     <row r="1996" spans="5:7">
-      <c r="G1996" s="40"/>
+      <c r="E1996" s="40"/>
     </row>
     <row r="1997" spans="5:7">
-      <c r="G1997" s="40"/>
+      <c r="E1997" s="40"/>
     </row>
     <row r="1998" spans="5:7">
-      <c r="G1998" s="40"/>
-    </row>
-    <row r="1999" spans="5:7">
-      <c r="G1999" s="40"/>
+      <c r="E1998" s="40"/>
     </row>
     <row r="2000" spans="5:7">
       <c r="G2000" s="40"/>
@@ -41787,35 +42011,35 @@
       <c r="G2003" s="40"/>
     </row>
     <row r="2004" spans="5:7">
-      <c r="E2004" s="40"/>
       <c r="G2004" s="40"/>
     </row>
+    <row r="2005" spans="5:7">
+      <c r="G2005" s="40"/>
+    </row>
     <row r="2006" spans="5:7">
-      <c r="E2006" s="40"/>
+      <c r="G2006" s="40"/>
     </row>
     <row r="2007" spans="5:7">
-      <c r="E2007" s="40"/>
+      <c r="G2007" s="40"/>
     </row>
     <row r="2008" spans="5:7">
-      <c r="E2008" s="40"/>
+      <c r="G2008" s="40"/>
     </row>
     <row r="2009" spans="5:7">
-      <c r="E2009" s="40"/>
+      <c r="G2009" s="40"/>
     </row>
     <row r="2010" spans="5:7">
-      <c r="E2010" s="40"/>
+      <c r="G2010" s="40"/>
     </row>
     <row r="2011" spans="5:7">
-      <c r="E2011" s="40"/>
+      <c r="G2011" s="40"/>
     </row>
     <row r="2012" spans="5:7">
-      <c r="E2012" s="40"/>
+      <c r="G2012" s="40"/>
     </row>
     <row r="2013" spans="5:7">
       <c r="E2013" s="40"/>
-    </row>
-    <row r="2014" spans="5:7">
-      <c r="E2014" s="40"/>
+      <c r="G2013" s="40"/>
     </row>
     <row r="2015" spans="5:7">
       <c r="E2015" s="40"/>
@@ -41934,41 +42158,32 @@
     <row r="2053" spans="5:7">
       <c r="E2053" s="40"/>
     </row>
+    <row r="2054" spans="5:7">
+      <c r="E2054" s="40"/>
+    </row>
     <row r="2055" spans="5:7">
       <c r="E2055" s="40"/>
-      <c r="G2055" s="40"/>
     </row>
     <row r="2056" spans="5:7">
       <c r="E2056" s="40"/>
-      <c r="G2056" s="40"/>
     </row>
     <row r="2057" spans="5:7">
       <c r="E2057" s="40"/>
-      <c r="G2057" s="40"/>
     </row>
     <row r="2058" spans="5:7">
       <c r="E2058" s="40"/>
-      <c r="G2058" s="40"/>
     </row>
     <row r="2059" spans="5:7">
       <c r="E2059" s="40"/>
-      <c r="G2059" s="40"/>
     </row>
     <row r="2060" spans="5:7">
       <c r="E2060" s="40"/>
-      <c r="G2060" s="40"/>
     </row>
     <row r="2061" spans="5:7">
       <c r="E2061" s="40"/>
-      <c r="G2061" s="40"/>
     </row>
     <row r="2062" spans="5:7">
       <c r="E2062" s="40"/>
-      <c r="G2062" s="40"/>
-    </row>
-    <row r="2063" spans="5:7">
-      <c r="E2063" s="40"/>
-      <c r="G2063" s="40"/>
     </row>
     <row r="2064" spans="5:7">
       <c r="E2064" s="40"/>
@@ -42126,108 +42341,108 @@
       <c r="E2102" s="40"/>
       <c r="G2102" s="40"/>
     </row>
-    <row r="2112" spans="5:7">
-      <c r="E2112" s="40"/>
-    </row>
-    <row r="2123" spans="7:7">
-      <c r="G2123" s="40"/>
-    </row>
-    <row r="2124" spans="7:7">
-      <c r="G2124" s="40"/>
-    </row>
-    <row r="2125" spans="7:7">
-      <c r="G2125" s="40"/>
-    </row>
-    <row r="2126" spans="7:7">
-      <c r="G2126" s="40"/>
-    </row>
-    <row r="2127" spans="7:7">
-      <c r="G2127" s="40"/>
-    </row>
-    <row r="2128" spans="7:7">
-      <c r="G2128" s="40"/>
-    </row>
-    <row r="2129" spans="5:7">
-      <c r="G2129" s="40"/>
-    </row>
-    <row r="2130" spans="5:7">
-      <c r="G2130" s="40"/>
-    </row>
-    <row r="2131" spans="5:7">
-      <c r="G2131" s="40"/>
-    </row>
-    <row r="2132" spans="5:7">
+    <row r="2103" spans="5:7">
+      <c r="E2103" s="40"/>
+      <c r="G2103" s="40"/>
+    </row>
+    <row r="2104" spans="5:7">
+      <c r="E2104" s="40"/>
+      <c r="G2104" s="40"/>
+    </row>
+    <row r="2105" spans="5:7">
+      <c r="E2105" s="40"/>
+      <c r="G2105" s="40"/>
+    </row>
+    <row r="2106" spans="5:7">
+      <c r="E2106" s="40"/>
+      <c r="G2106" s="40"/>
+    </row>
+    <row r="2107" spans="5:7">
+      <c r="E2107" s="40"/>
+      <c r="G2107" s="40"/>
+    </row>
+    <row r="2108" spans="5:7">
+      <c r="E2108" s="40"/>
+      <c r="G2108" s="40"/>
+    </row>
+    <row r="2109" spans="5:7">
+      <c r="E2109" s="40"/>
+      <c r="G2109" s="40"/>
+    </row>
+    <row r="2110" spans="5:7">
+      <c r="E2110" s="40"/>
+      <c r="G2110" s="40"/>
+    </row>
+    <row r="2111" spans="5:7">
+      <c r="E2111" s="40"/>
+      <c r="G2111" s="40"/>
+    </row>
+    <row r="2121" spans="5:5">
+      <c r="E2121" s="40"/>
+    </row>
+    <row r="2132" spans="7:7">
       <c r="G2132" s="40"/>
     </row>
-    <row r="2133" spans="5:7">
+    <row r="2133" spans="7:7">
       <c r="G2133" s="40"/>
     </row>
-    <row r="2134" spans="5:7">
+    <row r="2134" spans="7:7">
       <c r="G2134" s="40"/>
     </row>
-    <row r="2135" spans="5:7">
+    <row r="2135" spans="7:7">
       <c r="G2135" s="40"/>
     </row>
-    <row r="2136" spans="5:7">
+    <row r="2136" spans="7:7">
       <c r="G2136" s="40"/>
     </row>
-    <row r="2137" spans="5:7">
+    <row r="2137" spans="7:7">
       <c r="G2137" s="40"/>
     </row>
-    <row r="2138" spans="5:7">
+    <row r="2138" spans="7:7">
       <c r="G2138" s="40"/>
     </row>
-    <row r="2139" spans="5:7">
+    <row r="2139" spans="7:7">
       <c r="G2139" s="40"/>
     </row>
-    <row r="2140" spans="5:7">
+    <row r="2140" spans="7:7">
       <c r="G2140" s="40"/>
     </row>
-    <row r="2141" spans="5:7">
+    <row r="2141" spans="7:7">
       <c r="G2141" s="40"/>
     </row>
-    <row r="2142" spans="5:7">
-      <c r="E2142" s="40"/>
+    <row r="2142" spans="7:7">
       <c r="G2142" s="40"/>
     </row>
-    <row r="2152" spans="5:5">
-      <c r="E2152" s="40"/>
-    </row>
-    <row r="2163" spans="5:7">
-      <c r="E2163" s="40"/>
-      <c r="G2163" s="40"/>
-    </row>
-    <row r="2164" spans="5:7">
-      <c r="E2164" s="40"/>
-      <c r="G2164" s="40"/>
-    </row>
-    <row r="2165" spans="5:7">
-      <c r="E2165" s="40"/>
-      <c r="G2165" s="40"/>
-    </row>
-    <row r="2166" spans="5:7">
-      <c r="E2166" s="40"/>
-      <c r="G2166" s="40"/>
-    </row>
-    <row r="2167" spans="5:7">
-      <c r="E2167" s="40"/>
-      <c r="G2167" s="40"/>
-    </row>
-    <row r="2168" spans="5:7">
-      <c r="E2168" s="40"/>
-      <c r="G2168" s="40"/>
-    </row>
-    <row r="2169" spans="5:7">
-      <c r="E2169" s="40"/>
-      <c r="G2169" s="40"/>
-    </row>
-    <row r="2170" spans="5:7">
-      <c r="E2170" s="40"/>
-      <c r="G2170" s="40"/>
-    </row>
-    <row r="2171" spans="5:7">
-      <c r="E2171" s="40"/>
-      <c r="G2171" s="40"/>
+    <row r="2143" spans="7:7">
+      <c r="G2143" s="40"/>
+    </row>
+    <row r="2144" spans="7:7">
+      <c r="G2144" s="40"/>
+    </row>
+    <row r="2145" spans="5:7">
+      <c r="G2145" s="40"/>
+    </row>
+    <row r="2146" spans="5:7">
+      <c r="G2146" s="40"/>
+    </row>
+    <row r="2147" spans="5:7">
+      <c r="G2147" s="40"/>
+    </row>
+    <row r="2148" spans="5:7">
+      <c r="G2148" s="40"/>
+    </row>
+    <row r="2149" spans="5:7">
+      <c r="G2149" s="40"/>
+    </row>
+    <row r="2150" spans="5:7">
+      <c r="G2150" s="40"/>
+    </row>
+    <row r="2151" spans="5:7">
+      <c r="E2151" s="40"/>
+      <c r="G2151" s="40"/>
+    </row>
+    <row r="2161" spans="5:7">
+      <c r="E2161" s="40"/>
     </row>
     <row r="2172" spans="5:7">
       <c r="E2172" s="40"/>
@@ -42257,6 +42472,10 @@
       <c r="E2178" s="40"/>
       <c r="G2178" s="40"/>
     </row>
+    <row r="2179" spans="5:7">
+      <c r="E2179" s="40"/>
+      <c r="G2179" s="40"/>
+    </row>
     <row r="2180" spans="5:7">
       <c r="E2180" s="40"/>
       <c r="G2180" s="40"/>
@@ -42289,10 +42508,6 @@
       <c r="E2187" s="40"/>
       <c r="G2187" s="40"/>
     </row>
-    <row r="2188" spans="5:7">
-      <c r="E2188" s="40"/>
-      <c r="G2188" s="40"/>
-    </row>
     <row r="2189" spans="5:7">
       <c r="E2189" s="40"/>
       <c r="G2189" s="40"/>
@@ -42313,42 +42528,57 @@
       <c r="E2193" s="40"/>
       <c r="G2193" s="40"/>
     </row>
+    <row r="2194" spans="5:7">
+      <c r="E2194" s="40"/>
+      <c r="G2194" s="40"/>
+    </row>
+    <row r="2195" spans="5:7">
+      <c r="E2195" s="40"/>
+      <c r="G2195" s="40"/>
+    </row>
     <row r="2196" spans="5:7">
       <c r="E2196" s="40"/>
+      <c r="G2196" s="40"/>
+    </row>
+    <row r="2197" spans="5:7">
+      <c r="E2197" s="40"/>
+      <c r="G2197" s="40"/>
+    </row>
+    <row r="2198" spans="5:7">
+      <c r="E2198" s="40"/>
+      <c r="G2198" s="40"/>
+    </row>
+    <row r="2199" spans="5:7">
+      <c r="E2199" s="40"/>
+      <c r="G2199" s="40"/>
     </row>
     <row r="2200" spans="5:7">
       <c r="E2200" s="40"/>
+      <c r="G2200" s="40"/>
     </row>
     <row r="2201" spans="5:7">
       <c r="E2201" s="40"/>
+      <c r="G2201" s="40"/>
     </row>
     <row r="2202" spans="5:7">
       <c r="E2202" s="40"/>
-    </row>
-    <row r="2203" spans="5:7">
-      <c r="E2203" s="40"/>
-    </row>
-    <row r="2206" spans="5:7">
-      <c r="E2206" s="40"/>
-    </row>
-    <row r="2207" spans="5:7">
-      <c r="E2207" s="40"/>
-    </row>
-    <row r="2208" spans="5:7">
-      <c r="E2208" s="40"/>
+      <c r="G2202" s="40"/>
+    </row>
+    <row r="2205" spans="5:7">
+      <c r="E2205" s="40"/>
     </row>
     <row r="2209" spans="5:5">
       <c r="E2209" s="40"/>
     </row>
+    <row r="2210" spans="5:5">
+      <c r="E2210" s="40"/>
+    </row>
+    <row r="2211" spans="5:5">
+      <c r="E2211" s="40"/>
+    </row>
     <row r="2212" spans="5:5">
       <c r="E2212" s="40"/>
     </row>
-    <row r="2213" spans="5:5">
-      <c r="E2213" s="40"/>
-    </row>
-    <row r="2214" spans="5:5">
-      <c r="E2214" s="40"/>
-    </row>
     <row r="2215" spans="5:5">
       <c r="E2215" s="40"/>
     </row>
@@ -42361,12 +42591,6 @@
     <row r="2218" spans="5:5">
       <c r="E2218" s="40"/>
     </row>
-    <row r="2219" spans="5:5">
-      <c r="E2219" s="40"/>
-    </row>
-    <row r="2220" spans="5:5">
-      <c r="E2220" s="40"/>
-    </row>
     <row r="2221" spans="5:5">
       <c r="E2221" s="40"/>
     </row>
@@ -42382,6 +42606,9 @@
     <row r="2225" spans="5:5">
       <c r="E2225" s="40"/>
     </row>
+    <row r="2226" spans="5:5">
+      <c r="E2226" s="40"/>
+    </row>
     <row r="2227" spans="5:5">
       <c r="E2227" s="40"/>
     </row>
@@ -42406,9 +42633,6 @@
     <row r="2234" spans="5:5">
       <c r="E2234" s="40"/>
     </row>
-    <row r="2235" spans="5:5">
-      <c r="E2235" s="40"/>
-    </row>
     <row r="2236" spans="5:5">
       <c r="E2236" s="40"/>
     </row>
@@ -42424,6 +42648,9 @@
     <row r="2240" spans="5:5">
       <c r="E2240" s="40"/>
     </row>
+    <row r="2241" spans="5:5">
+      <c r="E2241" s="40"/>
+    </row>
     <row r="2242" spans="5:5">
       <c r="E2242" s="40"/>
     </row>
@@ -42448,9 +42675,6 @@
     <row r="2249" spans="5:5">
       <c r="E2249" s="40"/>
     </row>
-    <row r="2250" spans="5:5">
-      <c r="E2250" s="40"/>
-    </row>
     <row r="2251" spans="5:5">
       <c r="E2251" s="40"/>
     </row>
@@ -42466,6 +42690,9 @@
     <row r="2255" spans="5:5">
       <c r="E2255" s="40"/>
     </row>
+    <row r="2256" spans="5:5">
+      <c r="E2256" s="40"/>
+    </row>
     <row r="2257" spans="5:5">
       <c r="E2257" s="40"/>
     </row>
@@ -42490,9 +42717,6 @@
     <row r="2264" spans="5:5">
       <c r="E2264" s="40"/>
     </row>
-    <row r="2265" spans="5:5">
-      <c r="E2265" s="40"/>
-    </row>
     <row r="2266" spans="5:5">
       <c r="E2266" s="40"/>
     </row>
@@ -42550,60 +42774,60 @@
     <row r="2284" spans="5:5">
       <c r="E2284" s="40"/>
     </row>
+    <row r="2285" spans="5:5">
+      <c r="E2285" s="40"/>
+    </row>
     <row r="2286" spans="5:5">
       <c r="E2286" s="40"/>
     </row>
-    <row r="2299" spans="5:5">
-      <c r="E2299" s="40"/>
-    </row>
-    <row r="2313" spans="5:5">
-      <c r="E2313" s="40"/>
-    </row>
-    <row r="2315" spans="5:5">
-      <c r="E2315" s="40"/>
-    </row>
-    <row r="2328" spans="5:5">
-      <c r="E2328" s="40"/>
-    </row>
-    <row r="2342" spans="5:5">
-      <c r="E2342" s="40"/>
-    </row>
-    <row r="2344" spans="5:5">
-      <c r="E2344" s="40"/>
-    </row>
-    <row r="2357" spans="5:5">
-      <c r="E2357" s="40"/>
-    </row>
-    <row r="2371" spans="5:5">
-      <c r="E2371" s="40"/>
-    </row>
-    <row r="2374" spans="5:5">
-      <c r="E2374" s="40"/>
-    </row>
-    <row r="2375" spans="5:5">
-      <c r="E2375" s="40"/>
-    </row>
-    <row r="2376" spans="5:5">
-      <c r="E2376" s="40"/>
-    </row>
-    <row r="2377" spans="5:5">
-      <c r="E2377" s="40"/>
-    </row>
-    <row r="2378" spans="5:5">
-      <c r="E2378" s="40"/>
-    </row>
-    <row r="2379" spans="5:5">
-      <c r="E2379" s="40"/>
+    <row r="2287" spans="5:5">
+      <c r="E2287" s="40"/>
+    </row>
+    <row r="2288" spans="5:5">
+      <c r="E2288" s="40"/>
+    </row>
+    <row r="2289" spans="5:5">
+      <c r="E2289" s="40"/>
+    </row>
+    <row r="2290" spans="5:5">
+      <c r="E2290" s="40"/>
+    </row>
+    <row r="2291" spans="5:5">
+      <c r="E2291" s="40"/>
+    </row>
+    <row r="2292" spans="5:5">
+      <c r="E2292" s="40"/>
+    </row>
+    <row r="2293" spans="5:5">
+      <c r="E2293" s="40"/>
+    </row>
+    <row r="2295" spans="5:5">
+      <c r="E2295" s="40"/>
+    </row>
+    <row r="2308" spans="5:5">
+      <c r="E2308" s="40"/>
+    </row>
+    <row r="2322" spans="5:5">
+      <c r="E2322" s="40"/>
+    </row>
+    <row r="2324" spans="5:5">
+      <c r="E2324" s="40"/>
+    </row>
+    <row r="2337" spans="5:5">
+      <c r="E2337" s="40"/>
+    </row>
+    <row r="2351" spans="5:5">
+      <c r="E2351" s="40"/>
+    </row>
+    <row r="2353" spans="5:5">
+      <c r="E2353" s="40"/>
+    </row>
+    <row r="2366" spans="5:5">
+      <c r="E2366" s="40"/>
     </row>
     <row r="2380" spans="5:5">
       <c r="E2380" s="40"/>
     </row>
-    <row r="2381" spans="5:5">
-      <c r="E2381" s="40"/>
-    </row>
-    <row r="2382" spans="5:5">
-      <c r="E2382" s="40"/>
-    </row>
     <row r="2383" spans="5:5">
       <c r="E2383" s="40"/>
     </row>
@@ -42619,181 +42843,208 @@
     <row r="2387" spans="5:5">
       <c r="E2387" s="40"/>
     </row>
+    <row r="2388" spans="5:5">
+      <c r="E2388" s="40"/>
+    </row>
+    <row r="2389" spans="5:5">
+      <c r="E2389" s="40"/>
+    </row>
+    <row r="2390" spans="5:5">
+      <c r="E2390" s="40"/>
+    </row>
+    <row r="2391" spans="5:5">
+      <c r="E2391" s="40"/>
+    </row>
+    <row r="2392" spans="5:5">
+      <c r="E2392" s="40"/>
+    </row>
+    <row r="2393" spans="5:5">
+      <c r="E2393" s="40"/>
+    </row>
+    <row r="2394" spans="5:5">
+      <c r="E2394" s="40"/>
+    </row>
+    <row r="2395" spans="5:5">
+      <c r="E2395" s="40"/>
+    </row>
     <row r="2396" spans="5:5">
       <c r="E2396" s="40"/>
     </row>
-    <row r="2413" spans="5:5">
-      <c r="E2413" s="40"/>
-    </row>
-    <row r="2430" spans="5:5">
-      <c r="E2430" s="40"/>
-    </row>
-    <row r="2447" spans="5:5">
-      <c r="E2447" s="40"/>
-    </row>
-    <row r="2464" spans="5:5">
-      <c r="E2464" s="40"/>
-    </row>
-    <row r="2481" spans="5:5">
-      <c r="E2481" s="40"/>
-    </row>
-    <row r="2498" spans="5:5">
-      <c r="E2498" s="40"/>
-    </row>
-    <row r="2515" spans="5:5">
-      <c r="E2515" s="40"/>
-    </row>
-    <row r="2532" spans="5:5">
-      <c r="E2532" s="40"/>
-    </row>
-    <row r="2549" spans="5:5">
-      <c r="E2549" s="40"/>
-    </row>
-    <row r="2566" spans="5:5">
-      <c r="E2566" s="40"/>
-    </row>
-    <row r="2583" spans="5:5">
-      <c r="E2583" s="40"/>
-    </row>
-    <row r="2600" spans="5:5">
-      <c r="E2600" s="40"/>
-    </row>
-    <row r="2617" spans="5:5">
-      <c r="E2617" s="40"/>
-    </row>
-    <row r="2634" spans="5:5">
-      <c r="E2634" s="40"/>
-    </row>
-    <row r="2651" spans="5:5">
-      <c r="E2651" s="40"/>
-    </row>
-    <row r="2661" spans="7:7">
-      <c r="G2661" s="40"/>
-    </row>
-    <row r="2662" spans="7:7">
-      <c r="G2662" s="40"/>
-    </row>
-    <row r="2663" spans="7:7">
-      <c r="G2663" s="40"/>
-    </row>
-    <row r="2664" spans="7:7">
-      <c r="G2664" s="40"/>
-    </row>
-    <row r="2665" spans="7:7">
-      <c r="G2665" s="40"/>
-    </row>
-    <row r="2666" spans="7:7">
-      <c r="G2666" s="40"/>
-    </row>
-    <row r="2667" spans="7:7">
-      <c r="G2667" s="40"/>
-    </row>
-    <row r="2668" spans="7:7">
-      <c r="G2668" s="40"/>
-    </row>
-    <row r="2669" spans="7:7">
-      <c r="G2669" s="40"/>
-    </row>
-    <row r="2670" spans="7:7">
+    <row r="2405" spans="5:5">
+      <c r="E2405" s="40"/>
+    </row>
+    <row r="2422" spans="5:5">
+      <c r="E2422" s="40"/>
+    </row>
+    <row r="2439" spans="5:5">
+      <c r="E2439" s="40"/>
+    </row>
+    <row r="2456" spans="5:5">
+      <c r="E2456" s="40"/>
+    </row>
+    <row r="2473" spans="5:5">
+      <c r="E2473" s="40"/>
+    </row>
+    <row r="2490" spans="5:5">
+      <c r="E2490" s="40"/>
+    </row>
+    <row r="2507" spans="5:5">
+      <c r="E2507" s="40"/>
+    </row>
+    <row r="2524" spans="5:5">
+      <c r="E2524" s="40"/>
+    </row>
+    <row r="2541" spans="5:5">
+      <c r="E2541" s="40"/>
+    </row>
+    <row r="2558" spans="5:5">
+      <c r="E2558" s="40"/>
+    </row>
+    <row r="2575" spans="5:5">
+      <c r="E2575" s="40"/>
+    </row>
+    <row r="2592" spans="5:5">
+      <c r="E2592" s="40"/>
+    </row>
+    <row r="2609" spans="5:5">
+      <c r="E2609" s="40"/>
+    </row>
+    <row r="2626" spans="5:5">
+      <c r="E2626" s="40"/>
+    </row>
+    <row r="2643" spans="5:5">
+      <c r="E2643" s="40"/>
+    </row>
+    <row r="2660" spans="5:7">
+      <c r="E2660" s="40"/>
+    </row>
+    <row r="2670" spans="5:7">
       <c r="G2670" s="40"/>
     </row>
-    <row r="2671" spans="7:7">
+    <row r="2671" spans="5:7">
       <c r="G2671" s="40"/>
     </row>
-    <row r="2672" spans="7:7">
+    <row r="2672" spans="5:7">
       <c r="G2672" s="40"/>
     </row>
     <row r="2673" spans="5:7">
       <c r="G2673" s="40"/>
     </row>
     <row r="2674" spans="5:7">
-      <c r="E2674" s="40"/>
       <c r="G2674" s="40"/>
     </row>
-    <row r="2695" spans="5:5">
-      <c r="E2695" s="40"/>
-    </row>
-    <row r="2710" spans="5:5">
-      <c r="E2710" s="40"/>
-    </row>
-    <row r="2725" spans="5:5">
-      <c r="E2725" s="40"/>
-    </row>
-    <row r="2740" spans="5:5">
-      <c r="E2740" s="40"/>
-    </row>
-    <row r="2756" spans="5:5">
-      <c r="E2756" s="40"/>
-    </row>
-    <row r="2764" spans="5:5">
-      <c r="E2764" s="40"/>
-    </row>
-    <row r="2773" spans="7:7">
-      <c r="G2773" s="40"/>
-    </row>
-    <row r="2774" spans="7:7">
-      <c r="G2774" s="40"/>
-    </row>
-    <row r="2775" spans="7:7">
-      <c r="G2775" s="40"/>
-    </row>
-    <row r="2776" spans="7:7">
-      <c r="G2776" s="40"/>
-    </row>
-    <row r="2777" spans="7:7">
-      <c r="G2777" s="40"/>
-    </row>
-    <row r="2778" spans="7:7">
-      <c r="G2778" s="40"/>
-    </row>
-    <row r="2779" spans="7:7">
-      <c r="G2779" s="40"/>
-    </row>
-    <row r="2780" spans="7:7">
-      <c r="G2780" s="40"/>
-    </row>
-    <row r="2781" spans="7:7">
-      <c r="G2781" s="40"/>
-    </row>
-    <row r="2782" spans="7:7">
+    <row r="2675" spans="5:7">
+      <c r="G2675" s="40"/>
+    </row>
+    <row r="2676" spans="5:7">
+      <c r="G2676" s="40"/>
+    </row>
+    <row r="2677" spans="5:7">
+      <c r="G2677" s="40"/>
+    </row>
+    <row r="2678" spans="5:7">
+      <c r="G2678" s="40"/>
+    </row>
+    <row r="2679" spans="5:7">
+      <c r="G2679" s="40"/>
+    </row>
+    <row r="2680" spans="5:7">
+      <c r="G2680" s="40"/>
+    </row>
+    <row r="2681" spans="5:7">
+      <c r="G2681" s="40"/>
+    </row>
+    <row r="2682" spans="5:7">
+      <c r="G2682" s="40"/>
+    </row>
+    <row r="2683" spans="5:7">
+      <c r="E2683" s="40"/>
+      <c r="G2683" s="40"/>
+    </row>
+    <row r="2704" spans="5:5">
+      <c r="E2704" s="40"/>
+    </row>
+    <row r="2719" spans="5:5">
+      <c r="E2719" s="40"/>
+    </row>
+    <row r="2734" spans="5:5">
+      <c r="E2734" s="40"/>
+    </row>
+    <row r="2749" spans="5:5">
+      <c r="E2749" s="40"/>
+    </row>
+    <row r="2765" spans="5:5">
+      <c r="E2765" s="40"/>
+    </row>
+    <row r="2773" spans="5:7">
+      <c r="E2773" s="40"/>
+    </row>
+    <row r="2782" spans="5:7">
       <c r="G2782" s="40"/>
     </row>
-    <row r="2783" spans="7:7">
+    <row r="2783" spans="5:7">
       <c r="G2783" s="40"/>
     </row>
-    <row r="2784" spans="7:7">
+    <row r="2784" spans="5:7">
       <c r="G2784" s="40"/>
     </row>
-    <row r="2785" spans="5:7">
+    <row r="2785" spans="7:7">
       <c r="G2785" s="40"/>
     </row>
-    <row r="2786" spans="5:7">
+    <row r="2786" spans="7:7">
       <c r="G2786" s="40"/>
     </row>
-    <row r="2787" spans="5:7">
+    <row r="2787" spans="7:7">
       <c r="G2787" s="40"/>
     </row>
-    <row r="2788" spans="5:7">
+    <row r="2788" spans="7:7">
       <c r="G2788" s="40"/>
     </row>
-    <row r="2789" spans="5:7">
+    <row r="2789" spans="7:7">
       <c r="G2789" s="40"/>
     </row>
-    <row r="2790" spans="5:7">
+    <row r="2790" spans="7:7">
       <c r="G2790" s="40"/>
     </row>
-    <row r="2791" spans="5:7">
+    <row r="2791" spans="7:7">
       <c r="G2791" s="40"/>
     </row>
-    <row r="2792" spans="5:7">
-      <c r="E2792" s="40"/>
+    <row r="2792" spans="7:7">
       <c r="G2792" s="40"/>
     </row>
-    <row r="2800" spans="5:7">
-      <c r="E2800" s="40"/>
-    </row>
-    <row r="2807" spans="5:5">
-      <c r="E2807" s="40"/>
+    <row r="2793" spans="7:7">
+      <c r="G2793" s="40"/>
+    </row>
+    <row r="2794" spans="7:7">
+      <c r="G2794" s="40"/>
+    </row>
+    <row r="2795" spans="7:7">
+      <c r="G2795" s="40"/>
+    </row>
+    <row r="2796" spans="7:7">
+      <c r="G2796" s="40"/>
+    </row>
+    <row r="2797" spans="7:7">
+      <c r="G2797" s="40"/>
+    </row>
+    <row r="2798" spans="7:7">
+      <c r="G2798" s="40"/>
+    </row>
+    <row r="2799" spans="7:7">
+      <c r="G2799" s="40"/>
+    </row>
+    <row r="2800" spans="7:7">
+      <c r="G2800" s="40"/>
+    </row>
+    <row r="2801" spans="5:7">
+      <c r="E2801" s="40"/>
+      <c r="G2801" s="40"/>
+    </row>
+    <row r="2809" spans="5:7">
+      <c r="E2809" s="40"/>
+    </row>
+    <row r="2816" spans="5:7">
+      <c r="E2816" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DC660-E528-453B-81FD-D50A44316B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05261F12-AA78-41E7-8B5A-A5FFC52A6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -6430,7 +6430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-21</t>
+      <t>2025-December-22</t>
     </r>
   </si>
 </sst>
@@ -61947,7 +61947,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB65E41-F0DF-4DEC-8275-4E4ECFEFABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD613D-A330-4BCB-8F88-7D93DC56721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -5736,70 +5736,13 @@
     <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
   </si>
   <si>
-    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
   </si>
   <si>
-    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/km4164b_samsung.pdf</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
   </si>
   <si>
-    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/NE556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls74a.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn54ls193-sp.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls629.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MC4044P.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MC7800.PDF</t>
   </si>
   <si>
     <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
@@ -6451,12 +6394,69 @@
       <t>2026-January-16</t>
     </r>
   </si>
+  <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS74a.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS629.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4044P.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/54LS193.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6532,6 +6532,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6579,7 +6584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6733,6 +6738,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7080,7 +7088,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2099</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7393,17 +7401,17 @@
     </row>
     <row r="7" spans="1:1" s="2" customFormat="1" ht="14.4" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>2001</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="1" customFormat="1">
       <c r="A8" s="21" t="s">
-        <v>2002</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2029</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -7480,7 +7488,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>1957</v>
+        <v>1938</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>18</v>
@@ -7500,10 +7508,10 @@
         <v>267</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
@@ -7517,10 +7525,10 @@
         <v>267</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>38</v>
@@ -7534,10 +7542,10 @@
         <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -7551,10 +7559,10 @@
         <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
@@ -7568,10 +7576,10 @@
         <v>267</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
@@ -7585,10 +7593,10 @@
         <v>267</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -7602,10 +7610,10 @@
         <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -7619,10 +7627,10 @@
         <v>291</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
@@ -7636,10 +7644,10 @@
         <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
@@ -7653,10 +7661,10 @@
         <v>267</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2046</v>
+        <v>2027</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
@@ -7670,10 +7678,10 @@
         <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2046</v>
+        <v>2027</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>38</v>
@@ -7687,10 +7695,10 @@
         <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
@@ -7707,10 +7715,10 @@
         <v>291</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>38</v>
@@ -7724,10 +7732,10 @@
         <v>291</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>38</v>
@@ -7741,10 +7749,10 @@
         <v>291</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
@@ -7758,10 +7766,10 @@
         <v>267</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>38</v>
@@ -7775,10 +7783,10 @@
         <v>291</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>38</v>
@@ -7792,10 +7800,10 @@
         <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
@@ -7809,10 +7817,10 @@
         <v>292</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2031</v>
+        <v>2012</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>2048</v>
+        <v>2029</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>38</v>
@@ -7826,10 +7834,10 @@
         <v>433</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2050</v>
+        <v>2031</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>2049</v>
+        <v>2030</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>38</v>
@@ -7843,10 +7851,10 @@
         <v>433</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2050</v>
+        <v>2031</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>2049</v>
+        <v>2030</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>38</v>
@@ -7860,10 +7868,10 @@
         <v>267</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
@@ -7877,10 +7885,10 @@
         <v>267</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>2043</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>2062</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>38</v>
@@ -7894,10 +7902,10 @@
         <v>291</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>38</v>
@@ -7911,10 +7919,10 @@
         <v>267</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>38</v>
@@ -7928,10 +7936,10 @@
         <v>267</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
@@ -7945,10 +7953,10 @@
         <v>267</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>38</v>
@@ -7962,10 +7970,10 @@
         <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
@@ -7979,10 +7987,10 @@
         <v>267</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>38</v>
@@ -7996,10 +8004,10 @@
         <v>267</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>38</v>
@@ -8013,10 +8021,10 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>38</v>
@@ -8030,10 +8038,10 @@
         <v>267</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>38</v>
@@ -8047,10 +8055,10 @@
         <v>267</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>38</v>
@@ -8064,10 +8072,10 @@
         <v>291</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>38</v>
@@ -8081,7 +8089,7 @@
         <v>267</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2037</v>
+        <v>2018</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>38</v>
@@ -8095,10 +8103,10 @@
         <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2052</v>
+        <v>2033</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>2051</v>
+        <v>2032</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>38</v>
@@ -8112,10 +8120,10 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2063</v>
+        <v>2044</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>2053</v>
+        <v>2034</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>38</v>
@@ -8129,10 +8137,10 @@
         <v>267</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>38</v>
@@ -8146,10 +8154,10 @@
         <v>267</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>38</v>
@@ -8163,10 +8171,10 @@
         <v>267</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>38</v>
@@ -8180,10 +8188,10 @@
         <v>267</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>38</v>
@@ -8197,10 +8205,10 @@
         <v>267</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>38</v>
@@ -8214,10 +8222,10 @@
         <v>267</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>38</v>
@@ -8231,10 +8239,10 @@
         <v>267</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>38</v>
@@ -8248,10 +8256,10 @@
         <v>267</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>38</v>
@@ -8265,10 +8273,10 @@
         <v>267</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>38</v>
@@ -8282,10 +8290,10 @@
         <v>267</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2054</v>
+        <v>2035</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>38</v>
@@ -8299,10 +8307,10 @@
         <v>267</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>38</v>
@@ -8316,10 +8324,10 @@
         <v>267</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>38</v>
@@ -8333,10 +8341,10 @@
         <v>267</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>38</v>
@@ -8350,10 +8358,10 @@
         <v>267</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>38</v>
@@ -8367,10 +8375,10 @@
         <v>267</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>38</v>
@@ -8384,10 +8392,10 @@
         <v>267</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>38</v>
@@ -8401,10 +8409,10 @@
         <v>267</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>38</v>
@@ -8418,10 +8426,10 @@
         <v>291</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>38</v>
@@ -8435,10 +8443,10 @@
         <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>38</v>
@@ -8452,10 +8460,10 @@
         <v>267</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>38</v>
@@ -8469,10 +8477,10 @@
         <v>291</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>38</v>
@@ -8486,10 +8494,10 @@
         <v>291</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>38</v>
@@ -8503,10 +8511,10 @@
         <v>267</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>38</v>
@@ -8520,10 +8528,10 @@
         <v>267</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>38</v>
@@ -8537,10 +8545,10 @@
         <v>267</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>38</v>
@@ -8574,7 +8582,7 @@
         <v>433</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2038</v>
+        <v>2019</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>38</v>
@@ -8594,10 +8602,10 @@
         <v>267</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>38</v>
@@ -8611,10 +8619,10 @@
         <v>267</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>38</v>
@@ -8628,7 +8636,7 @@
         <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>38</v>
@@ -8642,10 +8650,10 @@
         <v>267</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>38</v>
@@ -8659,7 +8667,7 @@
         <v>267</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>38</v>
@@ -8690,10 +8698,10 @@
         <v>292</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2032</v>
+        <v>2013</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2055</v>
+        <v>2036</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>38</v>
@@ -8710,10 +8718,10 @@
         <v>267</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>38</v>
@@ -8727,7 +8735,7 @@
         <v>292</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2033</v>
+        <v>2014</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>38</v>
@@ -8744,10 +8752,10 @@
         <v>291</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2034</v>
+        <v>2015</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2056</v>
+        <v>2037</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>38</v>
@@ -8761,10 +8769,10 @@
         <v>267</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>38</v>
@@ -8778,10 +8786,10 @@
         <v>267</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2054</v>
+        <v>2035</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>38</v>
@@ -8795,10 +8803,10 @@
         <v>291</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>38</v>
@@ -8812,10 +8820,10 @@
         <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>38</v>
@@ -8829,10 +8837,10 @@
         <v>267</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>38</v>
@@ -8846,7 +8854,7 @@
         <v>267</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2042</v>
+        <v>2023</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>38</v>
@@ -8860,10 +8868,10 @@
         <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>38</v>
@@ -8877,10 +8885,10 @@
         <v>267</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>38</v>
@@ -8894,7 +8902,7 @@
         <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2042</v>
+        <v>2023</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>38</v>
@@ -8908,10 +8916,10 @@
         <v>267</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>38</v>
@@ -8925,10 +8933,10 @@
         <v>291</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>38</v>
@@ -8942,10 +8950,10 @@
         <v>267</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>38</v>
@@ -8959,10 +8967,10 @@
         <v>267</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>38</v>
@@ -8976,10 +8984,10 @@
         <v>291</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>38</v>
@@ -8993,10 +9001,10 @@
         <v>291</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>38</v>
@@ -9010,7 +9018,7 @@
         <v>267</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>38</v>
@@ -9024,10 +9032,10 @@
         <v>267</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>38</v>
@@ -9055,10 +9063,10 @@
         <v>267</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2057</v>
+        <v>2038</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2058</v>
+        <v>2039</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>38</v>
@@ -9072,10 +9080,10 @@
         <v>267</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2059</v>
+        <v>2040</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2060</v>
+        <v>2041</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>38</v>
@@ -9092,7 +9100,7 @@
         <v>311</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1958</v>
+        <v>1939</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>36</v>
@@ -9120,13 +9128,13 @@
         <v>115</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -9140,7 +9148,7 @@
         <v>310</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1959</v>
+        <v>1940</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>36</v>
@@ -9157,7 +9165,7 @@
         <v>318</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1960</v>
+        <v>1941</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>36</v>
@@ -9174,7 +9182,7 @@
         <v>317</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1961</v>
+        <v>1942</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>36</v>
@@ -9191,7 +9199,7 @@
         <v>315</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1962</v>
+        <v>1943</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>36</v>
@@ -9208,7 +9216,7 @@
         <v>312</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1963</v>
+        <v>1944</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>36</v>
@@ -9225,7 +9233,7 @@
         <v>312</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1963</v>
+        <v>1944</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>36</v>
@@ -9242,7 +9250,7 @@
         <v>314</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1964</v>
+        <v>1945</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>36</v>
@@ -9256,10 +9264,10 @@
         <v>437</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>1946</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>1965</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>436</v>
@@ -9273,10 +9281,10 @@
         <v>438</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>1947</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1966</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>436</v>
@@ -9287,13 +9295,13 @@
         <v>381</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1930</v>
+        <v>1911</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>436</v>
@@ -9304,10 +9312,10 @@
         <v>421</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1948</v>
+        <v>1929</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>1968</v>
+        <v>1949</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>436</v>
@@ -9318,10 +9326,10 @@
         <v>422</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1948</v>
+        <v>1929</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1968</v>
+        <v>1949</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>436</v>
@@ -9338,7 +9346,7 @@
         <v>6526</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1969</v>
+        <v>1950</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>44</v>
@@ -9355,7 +9363,7 @@
         <v>6526</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1969</v>
+        <v>1950</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>44</v>
@@ -9432,7 +9440,7 @@
         <v>2114</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1970</v>
+        <v>1951</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>44</v>
@@ -9452,7 +9460,7 @@
         <v>6510</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1971</v>
+        <v>1952</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>44</v>
@@ -9472,7 +9480,7 @@
         <v>7406</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>44</v>
@@ -9489,7 +9497,7 @@
         <v>4164</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>44</v>
@@ -9509,7 +9517,7 @@
         <v>4164</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>44</v>
@@ -9529,7 +9537,7 @@
         <v>4164</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>44</v>
@@ -9549,7 +9557,7 @@
         <v>4164</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>44</v>
@@ -9569,7 +9577,7 @@
         <v>119</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1974</v>
+        <v>1955</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>44</v>
@@ -9586,7 +9594,7 @@
         <v>141</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>44</v>
@@ -9603,7 +9611,7 @@
         <v>187</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>44</v>
@@ -9620,7 +9628,7 @@
         <v>4066</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1977</v>
+        <v>1958</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>44</v>
@@ -9637,7 +9645,7 @@
         <v>219</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1977</v>
+        <v>1958</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>44</v>
@@ -9654,7 +9662,7 @@
         <v>6581</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1978</v>
+        <v>1959</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>44</v>
@@ -9694,7 +9702,7 @@
         <v>6567</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1979</v>
+        <v>1960</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>44</v>
@@ -9717,7 +9725,7 @@
         <v>556</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1980</v>
+        <v>1961</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>44</v>
@@ -9734,7 +9742,7 @@
         <v>4164</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>44</v>
@@ -9754,7 +9762,7 @@
         <v>4164</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>44</v>
@@ -9774,7 +9782,7 @@
         <v>4164</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>44</v>
@@ -9794,7 +9802,7 @@
         <v>4164</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>44</v>
@@ -9814,7 +9822,7 @@
         <v>119</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1974</v>
+        <v>1955</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>44</v>
@@ -9831,7 +9839,7 @@
         <v>175</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>44</v>
@@ -9848,7 +9856,7 @@
         <v>212</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1982</v>
+        <v>1963</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>44</v>
@@ -9865,7 +9873,7 @@
         <v>4066</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1977</v>
+        <v>1958</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>44</v>
@@ -9882,7 +9890,7 @@
         <v>43</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1983</v>
+        <v>1964</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>44</v>
@@ -9899,7 +9907,7 @@
         <v>66</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1984</v>
+        <v>1965</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>44</v>
@@ -9916,7 +9924,7 @@
         <v>349</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1985</v>
+        <v>1966</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>44</v>
@@ -9933,7 +9941,7 @@
         <v>4044</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1986</v>
+        <v>1967</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>44</v>
@@ -9947,7 +9955,7 @@
         <v>224</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>48</v>
@@ -9958,16 +9966,16 @@
         <v>378</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9975,16 +9983,16 @@
         <v>385</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9992,16 +10000,16 @@
         <v>386</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -10009,16 +10017,16 @@
         <v>395</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -10026,16 +10034,16 @@
         <v>401</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -10043,16 +10051,16 @@
         <v>457</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -10060,16 +10068,16 @@
         <v>458</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -10077,16 +10085,16 @@
         <v>459</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -10094,16 +10102,16 @@
         <v>393</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -10111,16 +10119,16 @@
         <v>398</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -10128,16 +10136,16 @@
         <v>394</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -10145,16 +10153,16 @@
         <v>397</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -10162,16 +10170,16 @@
         <v>408</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -10179,16 +10187,16 @@
         <v>409</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -10196,16 +10204,16 @@
         <v>419</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -10213,16 +10221,16 @@
         <v>416</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -10230,16 +10238,16 @@
         <v>430</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -10247,16 +10255,16 @@
         <v>417</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -10264,16 +10272,16 @@
         <v>429</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -10281,16 +10289,16 @@
         <v>428</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -10298,16 +10306,16 @@
         <v>407</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -10315,16 +10323,16 @@
         <v>411</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -10335,10 +10343,10 @@
         <v>443</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1989</v>
+        <v>1970</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1988</v>
+        <v>1969</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>48</v>
@@ -10352,10 +10360,10 @@
         <v>443</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1990</v>
+        <v>1971</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1991</v>
+        <v>1972</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>48</v>
@@ -10369,7 +10377,7 @@
         <v>444</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1992</v>
+        <v>1973</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>48</v>
@@ -10383,7 +10391,7 @@
         <v>324</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1993</v>
+        <v>1974</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>48</v>
@@ -10400,18 +10408,18 @@
         <v>48</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>1928</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="50" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1929</v>
+        <v>1910</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>48</v>
@@ -10419,7 +10427,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="50" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>410</v>
@@ -10433,7 +10441,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="50" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>410</v>
@@ -10456,7 +10464,7 @@
         <v>222</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1994</v>
+        <v>1975</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>48</v>
@@ -10476,7 +10484,7 @@
         <v>7812</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>48</v>
@@ -10493,7 +10501,7 @@
         <v>7805</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1996</v>
+        <v>1977</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10507,7 +10515,7 @@
         <v>218</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10527,7 +10535,7 @@
         <v>218</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1997</v>
+        <v>1978</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>48</v>
@@ -10544,7 +10552,7 @@
         <v>365</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>442</v>
@@ -10555,7 +10563,7 @@
         <v>380</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>442</v>
@@ -10566,7 +10574,7 @@
         <v>366</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>442</v>
@@ -10577,7 +10585,7 @@
         <v>379</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>442</v>
@@ -10588,7 +10596,7 @@
         <v>387</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>442</v>
@@ -10599,7 +10607,7 @@
         <v>396</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>442</v>
@@ -10610,7 +10618,7 @@
         <v>399</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>442</v>
@@ -10621,7 +10629,7 @@
         <v>420</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>442</v>
@@ -10632,7 +10640,7 @@
         <v>423</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>442</v>
@@ -10643,7 +10651,7 @@
         <v>424</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>442</v>
@@ -10655,7 +10663,7 @@
       </c>
       <c r="B197" s="40"/>
       <c r="C197" s="1" t="s">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="D197" s="40"/>
       <c r="E197" s="1" t="s">
@@ -10674,7 +10682,7 @@
       </c>
       <c r="B198" s="40"/>
       <c r="C198" s="1" t="s">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="D198" s="40"/>
       <c r="E198" s="1" t="s">
@@ -10692,7 +10700,7 @@
         <v>460</v>
       </c>
       <c r="B199" s="40" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>462</v>
@@ -10710,7 +10718,7 @@
         <v>367</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>442</v>
@@ -10721,7 +10729,7 @@
         <v>368</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>442</v>
@@ -10732,7 +10740,7 @@
         <v>369</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>442</v>
@@ -10743,7 +10751,7 @@
         <v>377</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>442</v>
@@ -10754,7 +10762,7 @@
         <v>374</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>442</v>
@@ -10765,7 +10773,7 @@
         <v>373</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>442</v>
@@ -10776,7 +10784,7 @@
         <v>376</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>442</v>
@@ -10787,7 +10795,7 @@
         <v>270</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>442</v>
@@ -10798,7 +10806,7 @@
         <v>389</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>442</v>
@@ -10809,7 +10817,7 @@
         <v>400</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>442</v>
@@ -10820,7 +10828,7 @@
         <v>427</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>442</v>
@@ -10831,7 +10839,7 @@
         <v>375</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>442</v>
@@ -10842,7 +10850,7 @@
         <v>372</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>442</v>
@@ -10853,7 +10861,7 @@
         <v>403</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>442</v>
@@ -10864,7 +10872,7 @@
         <v>404</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>442</v>
@@ -10875,7 +10883,7 @@
         <v>405</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>442</v>
@@ -10886,7 +10894,7 @@
         <v>370</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>442</v>
@@ -10897,7 +10905,7 @@
         <v>392</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>442</v>
@@ -10908,7 +10916,7 @@
         <v>414</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>442</v>
@@ -10925,7 +10933,7 @@
         <v>414</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>442</v>
@@ -10942,7 +10950,7 @@
         <v>415</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>442</v>
@@ -10959,7 +10967,7 @@
         <v>415</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>442</v>
@@ -10976,7 +10984,7 @@
         <v>371</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>442</v>
@@ -11043,13 +11051,13 @@
         <v>383</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>434</v>
@@ -11060,13 +11068,13 @@
         <v>382</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>434</v>
@@ -11077,13 +11085,13 @@
         <v>384</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>2028</v>
+        <v>2009</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2098</v>
+        <v>2079</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2000</v>
+        <v>1981</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>434</v>
@@ -11094,13 +11102,13 @@
         <v>413</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>434</v>
@@ -11111,13 +11119,13 @@
         <v>402</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>434</v>
@@ -12002,11 +12010,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2825"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12230,7 +12238,7 @@
         <v>1875</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -12294,7 +12302,7 @@
         <v>1875</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72">
@@ -12310,7 +12318,7 @@
         <v>1875</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
@@ -12326,7 +12334,7 @@
         <v>1875</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="72">
@@ -12342,7 +12350,7 @@
         <v>1875</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8">
@@ -12374,7 +12382,7 @@
         <v>1875</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.8">
@@ -12406,7 +12414,7 @@
         <v>1876</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8">
@@ -12486,7 +12494,7 @@
         <v>1875</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8">
@@ -12646,7 +12654,7 @@
         <v>1875</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8">
@@ -12982,7 +12990,7 @@
         <v>1875</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.8">
@@ -13030,7 +13038,7 @@
         <v>1875</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="72">
@@ -13046,7 +13054,7 @@
         <v>1875</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="28.8">
@@ -13242,7 +13250,7 @@
         <v>1876</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="28.8">
@@ -13274,7 +13282,7 @@
         <v>1876</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="72">
@@ -13290,7 +13298,7 @@
         <v>1875</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="28.8">
@@ -13338,7 +13346,7 @@
         <v>1875</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="28.8">
@@ -13466,7 +13474,7 @@
         <v>1875</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.8">
@@ -13514,7 +13522,7 @@
         <v>1875</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="72">
@@ -13530,7 +13538,7 @@
         <v>1875</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="28.8">
@@ -13592,7 +13600,7 @@
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="40" t="s">
-        <v>2092</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -13606,7 +13614,7 @@
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="40" t="s">
-        <v>2093</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -13620,7 +13628,7 @@
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="40" t="s">
-        <v>2094</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -13634,7 +13642,7 @@
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="40" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -13648,7 +13656,7 @@
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="40" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -13734,7 +13742,7 @@
         <v>764</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>2064</v>
+        <v>2045</v>
       </c>
       <c r="I111" s="14"/>
     </row>
@@ -13776,10 +13784,10 @@
         <v>228</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="I114" s="14"/>
     </row>
@@ -19957,7 +19965,7 @@
         <v>1075</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -20716,7 +20724,7 @@
         <v>1113</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>2069</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="43.2">
@@ -20739,7 +20747,7 @@
         <v>1114</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>2069</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -22242,7 +22250,7 @@
         <v>1189</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>2070</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -22265,7 +22273,7 @@
         <v>1190</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>2070</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -22910,7 +22918,7 @@
         <v>1223</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>1949</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -23566,7 +23574,7 @@
         <v>1223</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>1950</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -24222,7 +24230,7 @@
         <v>1223</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>1951</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -24878,7 +24886,7 @@
         <v>1223</v>
       </c>
       <c r="G671" s="1" t="s">
-        <v>1952</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -28133,7 +28141,7 @@
         <v>1388</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="837" spans="1:7">
@@ -30978,13 +30986,13 @@
         <v>626</v>
       </c>
       <c r="E979" s="23" t="s">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="F979" s="14" t="s">
         <v>1531</v>
       </c>
       <c r="G979" s="23" t="s">
-        <v>2004</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -31001,13 +31009,13 @@
         <v>626</v>
       </c>
       <c r="E980" s="23" t="s">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="F980" s="14" t="s">
         <v>1532</v>
       </c>
       <c r="G980" s="23" t="s">
-        <v>2004</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -31059,16 +31067,16 @@
         <v>15</v>
       </c>
       <c r="D983" s="14" t="s">
-        <v>1910</v>
+        <v>1891</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F983" s="14" t="s">
-        <v>1911</v>
+        <v>1892</v>
       </c>
       <c r="G983" s="1" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="984" spans="1:7">
@@ -31297,7 +31305,7 @@
         <v>1545</v>
       </c>
       <c r="G994" s="1" t="s">
-        <v>2065</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -31320,7 +31328,7 @@
         <v>1546</v>
       </c>
       <c r="G995" s="1" t="s">
-        <v>2065</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -31343,7 +31351,7 @@
         <v>1547</v>
       </c>
       <c r="G996" s="1" t="s">
-        <v>2066</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="997" spans="1:7">
@@ -31366,7 +31374,7 @@
         <v>1548</v>
       </c>
       <c r="G997" s="1" t="s">
-        <v>2066</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -32688,7 +32696,7 @@
         <v>1223</v>
       </c>
       <c r="G1064" s="1" t="s">
-        <v>1953</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -33344,7 +33352,7 @@
         <v>1223</v>
       </c>
       <c r="G1097" s="1" t="s">
-        <v>1954</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1098" spans="1:7">
@@ -34000,7 +34008,7 @@
         <v>1223</v>
       </c>
       <c r="G1130" s="1" t="s">
-        <v>1955</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1131" spans="1:7">
@@ -34656,7 +34664,7 @@
         <v>1223</v>
       </c>
       <c r="G1163" s="1" t="s">
-        <v>1956</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1164" spans="1:7">
@@ -40496,10 +40504,10 @@
         <v>228</v>
       </c>
       <c r="F1455" s="14" t="s">
-        <v>2071</v>
+        <v>2052</v>
       </c>
       <c r="G1455" s="1" t="s">
-        <v>2091</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1456" spans="1:7">
@@ -40513,16 +40521,16 @@
         <v>1</v>
       </c>
       <c r="D1456" s="54" t="s">
-        <v>2072</v>
+        <v>2053</v>
       </c>
       <c r="E1456" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1456" s="14" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="G1456" s="1" t="s">
-        <v>2088</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1457" spans="1:7">
@@ -40536,16 +40544,16 @@
         <v>2</v>
       </c>
       <c r="D1457" s="54" t="s">
-        <v>2074</v>
+        <v>2055</v>
       </c>
       <c r="E1457" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1457" s="14" t="s">
-        <v>2082</v>
+        <v>2063</v>
       </c>
       <c r="G1457" s="1" t="s">
-        <v>2089</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1458" spans="1:7">
@@ -40559,16 +40567,16 @@
         <v>3</v>
       </c>
       <c r="D1458" s="54" t="s">
-        <v>2075</v>
+        <v>2056</v>
       </c>
       <c r="E1458" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1458" s="14" t="s">
-        <v>2083</v>
+        <v>2064</v>
       </c>
       <c r="G1458" s="1" t="s">
-        <v>2088</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1459" spans="1:7">
@@ -40582,13 +40590,13 @@
         <v>4</v>
       </c>
       <c r="D1459" s="54" t="s">
-        <v>2076</v>
+        <v>2057</v>
       </c>
       <c r="E1459" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>2084</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1460" spans="1:7">
@@ -40602,13 +40610,13 @@
         <v>5</v>
       </c>
       <c r="D1460" s="54" t="s">
-        <v>2077</v>
+        <v>2058</v>
       </c>
       <c r="E1460" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1460" s="14" t="s">
-        <v>2085</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1461" spans="1:7">
@@ -40622,13 +40630,13 @@
         <v>6</v>
       </c>
       <c r="D1461" s="54" t="s">
-        <v>2078</v>
+        <v>2059</v>
       </c>
       <c r="E1461" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>2086</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1462" spans="1:7">
@@ -40642,13 +40650,13 @@
         <v>7</v>
       </c>
       <c r="D1462" s="54" t="s">
-        <v>2079</v>
+        <v>2060</v>
       </c>
       <c r="E1462" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1462" s="14" t="s">
-        <v>2087</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1463" spans="1:7">
@@ -40662,13 +40670,13 @@
         <v>8</v>
       </c>
       <c r="D1463" s="54" t="s">
-        <v>2080</v>
+        <v>2061</v>
       </c>
       <c r="E1463" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="F1463" s="14" t="s">
-        <v>2081</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1464" spans="1:7">
@@ -40744,7 +40752,7 @@
     </row>
     <row r="1469" spans="1:7" ht="43.2">
       <c r="A1469" s="14" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="B1469" s="14"/>
       <c r="C1469" s="34"/>
@@ -40755,12 +40763,12 @@
         <v>1873</v>
       </c>
       <c r="G1469" s="1" t="s">
-        <v>1931</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1470" spans="1:7">
       <c r="A1470" s="48" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="B1470"/>
       <c r="C1470" s="34"/>
@@ -40771,12 +40779,12 @@
         <v>1873</v>
       </c>
       <c r="G1470" s="1" t="s">
-        <v>1932</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1471" spans="1:7">
       <c r="A1471" s="48" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="B1471"/>
       <c r="C1471" s="34"/>
@@ -40787,7 +40795,7 @@
         <v>1873</v>
       </c>
       <c r="G1471" s="1" t="s">
-        <v>1933</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1472" spans="1:7" ht="28.8">
@@ -41282,7 +41290,7 @@
       </c>
       <c r="F1504" s="14"/>
       <c r="G1504" s="40" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1505" spans="1:7">
@@ -41296,7 +41304,7 @@
       </c>
       <c r="F1505" s="14"/>
       <c r="G1505" s="40" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1506" spans="1:7">
@@ -41310,7 +41318,7 @@
       </c>
       <c r="F1506" s="14"/>
       <c r="G1506" s="40" t="s">
-        <v>2097</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1507" spans="1:7">
@@ -41324,7 +41332,7 @@
       </c>
       <c r="F1507" s="14"/>
       <c r="G1507" s="40" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1508" spans="1:7">
@@ -41338,7 +41346,7 @@
       </c>
       <c r="F1508" s="14"/>
       <c r="G1508" s="40" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1509" spans="1:7">
@@ -44621,7 +44629,7 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="C74">
         <v>3252</v>
@@ -44641,7 +44649,7 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="C75">
         <v>3186</v>
@@ -44661,7 +44669,7 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="C76">
         <v>3186</v>
@@ -50261,7 +50269,7 @@
         <v>193</v>
       </c>
       <c r="B356" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="C356">
         <v>1861</v>
@@ -50281,7 +50289,7 @@
         <v>193</v>
       </c>
       <c r="B357" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="C357">
         <v>1884</v>
@@ -50301,7 +50309,7 @@
         <v>193</v>
       </c>
       <c r="B358" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="C358">
         <v>1851</v>
@@ -54581,7 +54589,7 @@
         <v>194</v>
       </c>
       <c r="B572" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="C572">
         <v>1182</v>
@@ -54601,7 +54609,7 @@
         <v>194</v>
       </c>
       <c r="B573" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="C573">
         <v>1183</v>
@@ -54621,7 +54629,7 @@
         <v>194</v>
       </c>
       <c r="B574" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="C574">
         <v>1212</v>
@@ -58901,7 +58909,7 @@
         <v>261</v>
       </c>
       <c r="B788" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="C788">
         <v>3013</v>
@@ -58921,7 +58929,7 @@
         <v>261</v>
       </c>
       <c r="B789" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="C789">
         <v>3068</v>
@@ -58941,7 +58949,7 @@
         <v>261</v>
       </c>
       <c r="B790" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="C790">
         <v>2998</v>
@@ -61090,9 +61098,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -61236,10 +61244,10 @@
         <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1941</v>
+        <v>1922</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1939</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1">
@@ -61247,10 +61255,10 @@
         <v>381</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1938</v>
+        <v>1919</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1936</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1">
@@ -61258,10 +61266,10 @@
         <v>421</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1940</v>
+        <v>1921</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1937</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1">
@@ -61269,10 +61277,10 @@
         <v>422</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1940</v>
+        <v>1921</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1937</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -61283,7 +61291,7 @@
         <v>239</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1880</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -61294,7 +61302,7 @@
         <v>239</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1880</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -61305,7 +61313,7 @@
         <v>243</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1881</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -61316,7 +61324,7 @@
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1881</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -61327,7 +61335,7 @@
         <v>244</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1882</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -61338,7 +61346,7 @@
         <v>245</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -61349,7 +61357,7 @@
         <v>230</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1884</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -61360,7 +61368,7 @@
         <v>246</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1885</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -61371,7 +61379,7 @@
         <v>247</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -61382,7 +61390,7 @@
         <v>247</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -61393,7 +61401,7 @@
         <v>247</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -61404,7 +61412,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -61415,7 +61423,7 @@
         <v>248</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -61426,7 +61434,7 @@
         <v>249</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1888</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -61437,7 +61445,7 @@
         <v>250</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1889</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -61448,7 +61456,7 @@
         <v>251</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1890</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -61459,7 +61467,7 @@
         <v>232</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -61470,7 +61478,7 @@
         <v>612</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1892</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -61481,7 +61489,7 @@
         <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>1893</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -61492,7 +61500,7 @@
         <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>1894</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -61503,7 +61511,7 @@
         <v>247</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -61514,7 +61522,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -61525,7 +61533,7 @@
         <v>247</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -61536,7 +61544,7 @@
         <v>247</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1886</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -61547,7 +61555,7 @@
         <v>248</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -61558,7 +61566,7 @@
         <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>1895</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -61569,7 +61577,7 @@
         <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>1896</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -61580,7 +61588,7 @@
         <v>251</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1890</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -61590,8 +61598,8 @@
       <c r="B48" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>1897</v>
+      <c r="C48" s="56" t="s">
+        <v>2093</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -61603,7 +61611,7 @@
         <v>255</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1898</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -61614,7 +61622,7 @@
         <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>1899</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -61625,7 +61633,7 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>1900</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -61636,7 +61644,7 @@
         <v>258</v>
       </c>
       <c r="C52" t="s">
-        <v>1901</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -61647,7 +61655,7 @@
         <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>1901</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1">
@@ -61655,10 +61663,10 @@
         <v>383</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1944</v>
+        <v>1925</v>
       </c>
       <c r="C54" t="s">
-        <v>1943</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1">
@@ -61666,10 +61674,10 @@
         <v>382</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1944</v>
+        <v>1925</v>
       </c>
       <c r="C55" t="s">
-        <v>1943</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1">
@@ -61677,10 +61685,10 @@
         <v>384</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1945</v>
+        <v>1926</v>
       </c>
       <c r="C56" t="s">
-        <v>1942</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1">
@@ -61688,10 +61696,10 @@
         <v>413</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1944</v>
+        <v>1925</v>
       </c>
       <c r="C57" t="s">
-        <v>1943</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="1" customFormat="1">
@@ -61699,10 +61707,10 @@
         <v>402</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1944</v>
+        <v>1925</v>
       </c>
       <c r="C58" t="s">
-        <v>1943</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -61956,7 +61964,7 @@
         <v>237</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1902</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -61967,7 +61975,7 @@
         <v>260</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1903</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -61975,21 +61983,21 @@
         <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>2068</v>
+        <v>2049</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>2067</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="B12" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1907</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -62000,7 +62008,7 @@
         <v>735</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1904</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -62193,10 +62201,10 @@
         <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>1914</v>
+        <v>1895</v>
       </c>
       <c r="C17" t="s">
-        <v>1913</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -62204,10 +62212,10 @@
         <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>1915</v>
+        <v>1896</v>
       </c>
       <c r="C18" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -62215,10 +62223,10 @@
         <v>326</v>
       </c>
       <c r="B19" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
       <c r="C19" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -62226,10 +62234,10 @@
         <v>326</v>
       </c>
       <c r="B20" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="C20" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="21" spans="1:3">

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAD613D-A330-4BCB-8F88-7D93DC56721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C67136-213A-4221-9BF9-8D1F1B8057A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10500" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10501" uniqueCount="2101">
   <si>
     <t>Name</t>
   </si>
@@ -6379,6 +6379,66 @@
     <t>TIP29A</t>
   </si>
   <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS74a.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS629.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4044P.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/54LS193.pdf</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -6391,65 +6451,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-January-16</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4164b_samsung.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS74a.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS629.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4044P.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7800.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/54LS193.pdf</t>
   </si>
 </sst>
 </file>
@@ -6736,11 +6739,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7061,9 +7064,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7088,7 +7091,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2080</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7130,12 +7133,12 @@
         <v>273</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="28.8">
       <c r="A9" s="43" t="s">
@@ -7370,7 +7373,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D457A7-C8EF-467F-8532-E177504F5ACE}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7414,6 +7417,11 @@
         <v>2010</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>2099</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7425,8 +7433,8 @@
   <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -61098,9 +61106,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -61291,7 +61299,7 @@
         <v>239</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -61302,7 +61310,7 @@
         <v>239</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -61313,7 +61321,7 @@
         <v>243</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -61324,7 +61332,7 @@
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -61335,7 +61343,7 @@
         <v>244</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -61357,7 +61365,7 @@
         <v>230</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -61368,7 +61376,7 @@
         <v>246</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -61379,7 +61387,7 @@
         <v>247</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -61390,7 +61398,7 @@
         <v>247</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -61401,7 +61409,7 @@
         <v>247</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -61412,7 +61420,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -61434,7 +61442,7 @@
         <v>249</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -61445,7 +61453,7 @@
         <v>250</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -61456,7 +61464,7 @@
         <v>251</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -61478,7 +61486,7 @@
         <v>612</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -61489,7 +61497,7 @@
         <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -61500,7 +61508,7 @@
         <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -61511,7 +61519,7 @@
         <v>247</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -61522,7 +61530,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -61533,7 +61541,7 @@
         <v>247</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -61544,7 +61552,7 @@
         <v>247</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -61566,7 +61574,7 @@
         <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -61577,7 +61585,7 @@
         <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -61588,7 +61596,7 @@
         <v>251</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -61598,8 +61606,8 @@
       <c r="B48" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="56" t="s">
-        <v>2093</v>
+      <c r="C48" s="55" t="s">
+        <v>2092</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -61611,7 +61619,7 @@
         <v>255</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -61622,7 +61630,7 @@
         <v>256</v>
       </c>
       <c r="C50" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -61633,7 +61641,7 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -61644,7 +61652,7 @@
         <v>258</v>
       </c>
       <c r="C52" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -61655,7 +61663,7 @@
         <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="1" customFormat="1">

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C67136-213A-4221-9BF9-8D1F1B8057A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE3613-66FD-44BC-A8FC-078C97622E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10501" uniqueCount="2101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10544" uniqueCount="2109">
   <si>
     <t>Name</t>
   </si>
@@ -6453,6 +6453,30 @@
       </rPr>
       <t>2026-February-9</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -7161,11 +7185,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1">
-      <c r="A10" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>753</v>
+      <c r="A10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>757</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -7181,11 +7205,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1">
-      <c r="A11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>754</v>
+      <c r="A11" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>758</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -7199,7 +7223,6 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1">
       <c r="A12" s="6" t="s">
@@ -7242,11 +7265,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1">
-      <c r="A14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>757</v>
+      <c r="A14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
@@ -7262,11 +7285,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1">
-      <c r="A15" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>758</v>
+      <c r="A15" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>754</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
@@ -7280,6 +7303,7 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="25"/>
@@ -12016,7 +12040,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2825"/>
+  <dimension ref="A1:I2833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -40546,22 +40570,22 @@
         <v>323</v>
       </c>
       <c r="B1457" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1457" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1457" s="54" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E1457" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1457" s="14" t="s">
-        <v>2063</v>
+        <v>2101</v>
       </c>
       <c r="G1457" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1458" spans="1:7">
@@ -40572,19 +40596,19 @@
         <v>337</v>
       </c>
       <c r="C1458" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1458" s="54" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1458" s="14" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="G1458" s="1" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1459" spans="1:7">
@@ -40592,19 +40616,22 @@
         <v>323</v>
       </c>
       <c r="B1459" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1459" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1459" s="54" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E1459" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>2065</v>
+        <v>2102</v>
+      </c>
+      <c r="G1459" s="1" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="1460" spans="1:7">
@@ -40615,16 +40642,19 @@
         <v>337</v>
       </c>
       <c r="C1460" s="34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1460" s="54" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E1460" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1460" s="14" t="s">
-        <v>2066</v>
+        <v>2064</v>
+      </c>
+      <c r="G1460" s="1" t="s">
+        <v>2069</v>
       </c>
     </row>
     <row r="1461" spans="1:7">
@@ -40632,19 +40662,22 @@
         <v>323</v>
       </c>
       <c r="B1461" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1461" s="34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1461" s="54" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="E1461" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>2067</v>
+        <v>2103</v>
+      </c>
+      <c r="G1461" s="1" t="s">
+        <v>2069</v>
       </c>
     </row>
     <row r="1462" spans="1:7">
@@ -40655,16 +40688,16 @@
         <v>337</v>
       </c>
       <c r="C1462" s="34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1462" s="54" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1462" s="14" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1463" spans="1:7">
@@ -40672,266 +40705,306 @@
         <v>323</v>
       </c>
       <c r="B1463" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1463" s="34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1463" s="54" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="E1463" s="1" t="s">
         <v>2071</v>
       </c>
       <c r="F1463" s="14" t="s">
-        <v>2062</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1464" spans="1:7">
       <c r="A1464" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1464" s="14"/>
-      <c r="C1464" s="34"/>
-      <c r="D1464" s="14" t="s">
-        <v>228</v>
+        <v>323</v>
+      </c>
+      <c r="B1464" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1464" s="34">
+        <v>5</v>
+      </c>
+      <c r="D1464" s="54" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1464" s="1" t="s">
+        <v>2071</v>
       </c>
       <c r="F1464" s="14" t="s">
-        <v>1871</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1465" spans="1:7">
       <c r="A1465" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1465" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1465" s="34">
+        <v>5</v>
+      </c>
+      <c r="D1465" s="54" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1465" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1465" s="14" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7">
+      <c r="A1466" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1466" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1466" s="34">
+        <v>6</v>
+      </c>
+      <c r="D1466" s="54" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1466" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1466" s="14" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7">
+      <c r="A1467" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1467" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1467" s="34">
+        <v>6</v>
+      </c>
+      <c r="D1467" s="54" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1467" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1467" s="14" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7">
+      <c r="A1468" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1468" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1468" s="34">
+        <v>7</v>
+      </c>
+      <c r="D1468" s="54" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1468" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1468" s="14" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7">
+      <c r="A1469" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1469" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1469" s="34">
+        <v>7</v>
+      </c>
+      <c r="D1469" s="54" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1469" s="14" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7">
+      <c r="A1470" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1470" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1470" s="34">
+        <v>8</v>
+      </c>
+      <c r="D1470" s="54" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1470" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1470" s="14" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7">
+      <c r="A1471" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1471" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1471" s="34">
+        <v>8</v>
+      </c>
+      <c r="D1471" s="54" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1471" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1471" s="14" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7">
+      <c r="A1472" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B1465" s="14"/>
-      <c r="C1465" s="34"/>
-      <c r="D1465" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="F1465" s="14" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:7" ht="28.8">
-      <c r="A1466" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1466" s="14"/>
-      <c r="C1466" s="34"/>
-      <c r="D1466" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1466" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G1466" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:7" ht="28.8">
-      <c r="A1467" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1467" s="14"/>
-      <c r="C1467" s="34"/>
-      <c r="D1467" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1467" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G1467" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:7" ht="72">
-      <c r="A1468" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1468" s="14"/>
-      <c r="C1468" s="34"/>
-      <c r="D1468" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1468" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:7" ht="43.2">
-      <c r="A1469" s="14" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1469" s="14"/>
-      <c r="C1469" s="34"/>
-      <c r="D1469" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1469" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G1469" s="1" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:7">
-      <c r="A1470" s="48" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B1470"/>
-      <c r="C1470" s="34"/>
-      <c r="D1470" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1470" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G1470" s="1" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:7">
-      <c r="A1471" s="48" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B1471"/>
-      <c r="C1471" s="34"/>
-      <c r="D1471" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1471" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G1471" s="1" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:7" ht="28.8">
-      <c r="A1472" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1472" s="16"/>
-      <c r="C1472" s="35"/>
+      <c r="B1472" s="14"/>
+      <c r="C1472" s="34"/>
       <c r="D1472" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1472" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1472" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:7" ht="28.8">
-      <c r="A1473" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1473" s="1"/>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7">
+      <c r="A1473" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1473" s="14"/>
+      <c r="C1473" s="34"/>
       <c r="D1473" s="14" t="s">
-        <v>228</v>
+        <v>559</v>
       </c>
       <c r="F1473" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1473" s="40" t="s">
-        <v>745</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1474" spans="1:7" ht="28.8">
-      <c r="A1474" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1474" s="1"/>
+      <c r="A1474" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1474" s="14"/>
+      <c r="C1474" s="34"/>
       <c r="D1474" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1474" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1474" s="40" t="s">
-        <v>745</v>
+        <v>1872</v>
+      </c>
+      <c r="G1474" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="1475" spans="1:7" ht="28.8">
-      <c r="A1475" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1475" s="1"/>
+      <c r="A1475" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1475" s="14"/>
+      <c r="C1475" s="34"/>
       <c r="D1475" s="14" t="s">
         <v>228</v>
       </c>
       <c r="F1475" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1475" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:7" ht="28.8">
-      <c r="A1476" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1476" s="1"/>
+        <v>1872</v>
+      </c>
+      <c r="G1475" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" ht="72">
+      <c r="A1476" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1476" s="14"/>
+      <c r="C1476" s="34"/>
       <c r="D1476" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1476" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1476" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:7" ht="28.8">
-      <c r="A1477" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1477" s="1"/>
+      <c r="G1476" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" ht="43.2">
+      <c r="A1477" s="14" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1477" s="14"/>
+      <c r="C1477" s="34"/>
       <c r="D1477" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1477" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1477" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:7" ht="28.8">
-      <c r="A1478" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1478" s="1"/>
+      <c r="F1477" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G1477" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7">
+      <c r="A1478" s="48" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1478"/>
+      <c r="C1478" s="34"/>
       <c r="D1478" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1478" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1478" s="40" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:7" ht="28.8">
-      <c r="A1479" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1479" s="1"/>
+      <c r="F1478" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G1478" s="1" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7">
+      <c r="A1479" s="48" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1479"/>
+      <c r="C1479" s="34"/>
       <c r="D1479" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1479" s="14" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G1479" s="40" t="s">
-        <v>745</v>
+      <c r="F1479" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G1479" s="1" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="1480" spans="1:7" ht="28.8">
       <c r="A1480" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1480" s="1"/>
+        <v>365</v>
+      </c>
+      <c r="B1480" s="16"/>
+      <c r="C1480" s="35"/>
       <c r="D1480" s="14" t="s">
         <v>228</v>
       </c>
@@ -40944,7 +41017,7 @@
     </row>
     <row r="1481" spans="1:7" ht="28.8">
       <c r="A1481" s="16" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="C1481" s="1"/>
       <c r="D1481" s="14" t="s">
@@ -40959,9 +41032,9 @@
     </row>
     <row r="1482" spans="1:7" ht="28.8">
       <c r="A1482" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1482"/>
+        <v>366</v>
+      </c>
+      <c r="C1482" s="1"/>
       <c r="D1482" s="14" t="s">
         <v>228</v>
       </c>
@@ -40974,7 +41047,7 @@
     </row>
     <row r="1483" spans="1:7" ht="28.8">
       <c r="A1483" s="16" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C1483" s="1"/>
       <c r="D1483" s="14" t="s">
@@ -40989,7 +41062,7 @@
     </row>
     <row r="1484" spans="1:7" ht="28.8">
       <c r="A1484" s="16" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C1484" s="1"/>
       <c r="D1484" s="14" t="s">
@@ -41004,7 +41077,7 @@
     </row>
     <row r="1485" spans="1:7" ht="28.8">
       <c r="A1485" s="16" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C1485" s="1"/>
       <c r="D1485" s="14" t="s">
@@ -41019,7 +41092,7 @@
     </row>
     <row r="1486" spans="1:7" ht="28.8">
       <c r="A1486" s="16" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C1486" s="1"/>
       <c r="D1486" s="14" t="s">
@@ -41034,7 +41107,7 @@
     </row>
     <row r="1487" spans="1:7" ht="28.8">
       <c r="A1487" s="16" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="C1487" s="1"/>
       <c r="D1487" s="14" t="s">
@@ -41049,7 +41122,7 @@
     </row>
     <row r="1488" spans="1:7" ht="28.8">
       <c r="A1488" s="16" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="C1488" s="1"/>
       <c r="D1488" s="14" t="s">
@@ -41064,7 +41137,7 @@
     </row>
     <row r="1489" spans="1:7" ht="28.8">
       <c r="A1489" s="16" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="C1489" s="1"/>
       <c r="D1489" s="14" t="s">
@@ -41079,9 +41152,9 @@
     </row>
     <row r="1490" spans="1:7" ht="28.8">
       <c r="A1490" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1490" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="C1490"/>
       <c r="D1490" s="14" t="s">
         <v>228</v>
       </c>
@@ -41094,7 +41167,7 @@
     </row>
     <row r="1491" spans="1:7" ht="28.8">
       <c r="A1491" s="16" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C1491" s="1"/>
       <c r="D1491" s="14" t="s">
@@ -41109,7 +41182,7 @@
     </row>
     <row r="1492" spans="1:7" ht="28.8">
       <c r="A1492" s="16" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C1492" s="1"/>
       <c r="D1492" s="14" t="s">
@@ -41124,7 +41197,7 @@
     </row>
     <row r="1493" spans="1:7" ht="28.8">
       <c r="A1493" s="16" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="C1493" s="1"/>
       <c r="D1493" s="14" t="s">
@@ -41139,7 +41212,7 @@
     </row>
     <row r="1494" spans="1:7" ht="28.8">
       <c r="A1494" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C1494" s="1"/>
       <c r="D1494" s="14" t="s">
@@ -41154,7 +41227,7 @@
     </row>
     <row r="1495" spans="1:7" ht="28.8">
       <c r="A1495" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C1495" s="1"/>
       <c r="D1495" s="14" t="s">
@@ -41169,7 +41242,7 @@
     </row>
     <row r="1496" spans="1:7" ht="28.8">
       <c r="A1496" s="16" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="C1496" s="1"/>
       <c r="D1496" s="14" t="s">
@@ -41184,7 +41257,7 @@
     </row>
     <row r="1497" spans="1:7" ht="28.8">
       <c r="A1497" s="16" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="C1497" s="1"/>
       <c r="D1497" s="14" t="s">
@@ -41199,7 +41272,7 @@
     </row>
     <row r="1498" spans="1:7" ht="28.8">
       <c r="A1498" s="16" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="C1498" s="1"/>
       <c r="D1498" s="14" t="s">
@@ -41214,7 +41287,7 @@
     </row>
     <row r="1499" spans="1:7" ht="28.8">
       <c r="A1499" s="16" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C1499" s="1"/>
       <c r="D1499" s="14" t="s">
@@ -41229,7 +41302,7 @@
     </row>
     <row r="1500" spans="1:7" ht="28.8">
       <c r="A1500" s="16" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C1500" s="1"/>
       <c r="D1500" s="14" t="s">
@@ -41244,7 +41317,7 @@
     </row>
     <row r="1501" spans="1:7" ht="28.8">
       <c r="A1501" s="16" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C1501" s="1"/>
       <c r="D1501" s="14" t="s">
@@ -41259,7 +41332,7 @@
     </row>
     <row r="1502" spans="1:7" ht="28.8">
       <c r="A1502" s="16" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="C1502" s="1"/>
       <c r="D1502" s="14" t="s">
@@ -41274,7 +41347,7 @@
     </row>
     <row r="1503" spans="1:7" ht="28.8">
       <c r="A1503" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C1503" s="1"/>
       <c r="D1503" s="14" t="s">
@@ -41287,119 +41360,199 @@
         <v>745</v>
       </c>
     </row>
-    <row r="1504" spans="1:7">
+    <row r="1504" spans="1:7" ht="28.8">
       <c r="A1504" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1504" s="16"/>
-      <c r="C1504" s="35"/>
+        <v>403</v>
+      </c>
+      <c r="C1504" s="1"/>
       <c r="D1504" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1504" s="14"/>
+      <c r="F1504" s="14" t="s">
+        <v>1878</v>
+      </c>
       <c r="G1504" s="40" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" ht="28.8">
       <c r="A1505" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1505" s="16"/>
-      <c r="C1505" s="35"/>
+        <v>404</v>
+      </c>
+      <c r="C1505" s="1"/>
       <c r="D1505" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1505" s="14"/>
+      <c r="F1505" s="14" t="s">
+        <v>1878</v>
+      </c>
       <c r="G1505" s="40" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7" ht="28.8">
       <c r="A1506" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="B1506" s="16"/>
-      <c r="C1506" s="35"/>
+        <v>405</v>
+      </c>
+      <c r="C1506" s="1"/>
       <c r="D1506" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1506" s="14"/>
+      <c r="F1506" s="14" t="s">
+        <v>1878</v>
+      </c>
       <c r="G1506" s="40" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7" ht="28.8">
       <c r="A1507" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1507" s="16"/>
-      <c r="C1507" s="35"/>
+        <v>370</v>
+      </c>
+      <c r="C1507" s="1"/>
       <c r="D1507" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1507" s="14"/>
+      <c r="F1507" s="14" t="s">
+        <v>1878</v>
+      </c>
       <c r="G1507" s="40" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:7">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" ht="28.8">
       <c r="A1508" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1508" s="16"/>
-      <c r="C1508" s="35"/>
+        <v>392</v>
+      </c>
+      <c r="C1508" s="1"/>
       <c r="D1508" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F1508" s="14"/>
+      <c r="F1508" s="14" t="s">
+        <v>1878</v>
+      </c>
       <c r="G1508" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7" ht="28.8">
+      <c r="A1509" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1509" s="1"/>
+      <c r="D1509" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1509" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G1509" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7" ht="28.8">
+      <c r="A1510" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1510" s="1"/>
+      <c r="D1510" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1510" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G1510" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7" ht="28.8">
+      <c r="A1511" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1511" s="1"/>
+      <c r="D1511" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1511" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G1511" s="40" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7">
+      <c r="A1512" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1512" s="16"/>
+      <c r="C1512" s="35"/>
+      <c r="D1512" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1512" s="14"/>
+      <c r="G1512" s="40" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="1509" spans="1:7">
-      <c r="A1509" s="45"/>
-      <c r="B1509"/>
-      <c r="C1509" s="34"/>
-    </row>
-    <row r="1510" spans="1:7">
-      <c r="A1510" s="14"/>
-      <c r="B1510" s="14"/>
-      <c r="C1510" s="34"/>
-    </row>
-    <row r="1511" spans="1:7">
-      <c r="A1511" s="14"/>
-      <c r="B1511" s="14"/>
-      <c r="C1511" s="34"/>
-    </row>
-    <row r="1512" spans="1:7">
-      <c r="A1512" s="27"/>
-      <c r="B1512" s="27"/>
-      <c r="C1512" s="36"/>
-    </row>
     <row r="1513" spans="1:7">
-      <c r="A1513" s="14"/>
-      <c r="B1513" s="14"/>
-      <c r="C1513" s="34"/>
+      <c r="A1513" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1513" s="16"/>
+      <c r="C1513" s="35"/>
+      <c r="D1513" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1513" s="14"/>
+      <c r="G1513" s="40" t="s">
+        <v>2077</v>
+      </c>
     </row>
     <row r="1514" spans="1:7">
-      <c r="A1514" s="14"/>
-      <c r="B1514" s="14"/>
-      <c r="C1514" s="34"/>
+      <c r="A1514" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1514" s="16"/>
+      <c r="C1514" s="35"/>
+      <c r="D1514" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1514" s="14"/>
+      <c r="G1514" s="40" t="s">
+        <v>2078</v>
+      </c>
     </row>
     <row r="1515" spans="1:7">
-      <c r="A1515" s="14"/>
-      <c r="B1515" s="14"/>
-      <c r="C1515" s="34"/>
+      <c r="A1515" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1515" s="16"/>
+      <c r="C1515" s="35"/>
+      <c r="D1515" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1515" s="14"/>
+      <c r="G1515" s="40" t="s">
+        <v>2077</v>
+      </c>
     </row>
     <row r="1516" spans="1:7">
-      <c r="A1516" s="27"/>
-      <c r="B1516" s="27"/>
-      <c r="C1516" s="36"/>
+      <c r="A1516" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1516" s="16"/>
+      <c r="C1516" s="35"/>
+      <c r="D1516" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1516" s="14"/>
+      <c r="G1516" s="40" t="s">
+        <v>2077</v>
+      </c>
     </row>
     <row r="1517" spans="1:7">
-      <c r="A1517" s="14"/>
-      <c r="B1517" s="14"/>
+      <c r="A1517" s="45"/>
+      <c r="B1517"/>
       <c r="C1517" s="34"/>
     </row>
     <row r="1518" spans="1:7">
@@ -41413,9 +41566,9 @@
       <c r="C1519" s="34"/>
     </row>
     <row r="1520" spans="1:7">
-      <c r="A1520" s="14"/>
-      <c r="B1520" s="14"/>
-      <c r="C1520" s="34"/>
+      <c r="A1520" s="27"/>
+      <c r="B1520" s="27"/>
+      <c r="C1520" s="36"/>
     </row>
     <row r="1521" spans="1:3">
       <c r="A1521" s="14"/>
@@ -41433,9 +41586,9 @@
       <c r="C1523" s="34"/>
     </row>
     <row r="1524" spans="1:3">
-      <c r="A1524" s="14"/>
-      <c r="B1524" s="14"/>
-      <c r="C1524" s="34"/>
+      <c r="A1524" s="27"/>
+      <c r="B1524" s="27"/>
+      <c r="C1524" s="36"/>
     </row>
     <row r="1525" spans="1:3">
       <c r="A1525" s="14"/>
@@ -41572,71 +41725,79 @@
       <c r="B1551" s="14"/>
       <c r="C1551" s="34"/>
     </row>
-    <row r="1658" spans="5:5">
-      <c r="E1658" s="40"/>
-    </row>
-    <row r="1659" spans="5:5">
-      <c r="E1659" s="40"/>
-    </row>
-    <row r="1660" spans="5:5">
-      <c r="E1660" s="40"/>
-    </row>
-    <row r="1661" spans="5:5">
-      <c r="E1661" s="40"/>
-    </row>
-    <row r="1662" spans="5:5">
-      <c r="E1662" s="40"/>
-    </row>
-    <row r="1663" spans="5:5">
-      <c r="E1663" s="40"/>
-    </row>
-    <row r="1664" spans="5:5">
-      <c r="E1664" s="40"/>
-    </row>
-    <row r="1674" spans="5:7">
-      <c r="E1674" s="40"/>
-    </row>
-    <row r="1676" spans="5:7">
-      <c r="E1676" s="40"/>
-      <c r="G1676" s="40"/>
-    </row>
-    <row r="1677" spans="5:7">
-      <c r="G1677" s="40"/>
-    </row>
-    <row r="1678" spans="5:7">
-      <c r="E1678" s="41"/>
-      <c r="G1678" s="40"/>
-    </row>
-    <row r="1679" spans="5:7">
-      <c r="E1679" s="40"/>
-      <c r="G1679" s="40"/>
-    </row>
-    <row r="1680" spans="5:7">
-      <c r="E1680" s="40"/>
-      <c r="G1680" s="40"/>
-    </row>
-    <row r="1681" spans="5:7">
-      <c r="E1681" s="40"/>
-      <c r="G1681" s="40"/>
+    <row r="1552" spans="1:3">
+      <c r="A1552" s="14"/>
+      <c r="B1552" s="14"/>
+      <c r="C1552" s="34"/>
+    </row>
+    <row r="1553" spans="1:3">
+      <c r="A1553" s="14"/>
+      <c r="B1553" s="14"/>
+      <c r="C1553" s="34"/>
+    </row>
+    <row r="1554" spans="1:3">
+      <c r="A1554" s="14"/>
+      <c r="B1554" s="14"/>
+      <c r="C1554" s="34"/>
+    </row>
+    <row r="1555" spans="1:3">
+      <c r="A1555" s="14"/>
+      <c r="B1555" s="14"/>
+      <c r="C1555" s="34"/>
+    </row>
+    <row r="1556" spans="1:3">
+      <c r="A1556" s="14"/>
+      <c r="B1556" s="14"/>
+      <c r="C1556" s="34"/>
+    </row>
+    <row r="1557" spans="1:3">
+      <c r="A1557" s="14"/>
+      <c r="B1557" s="14"/>
+      <c r="C1557" s="34"/>
+    </row>
+    <row r="1558" spans="1:3">
+      <c r="A1558" s="14"/>
+      <c r="B1558" s="14"/>
+      <c r="C1558" s="34"/>
+    </row>
+    <row r="1559" spans="1:3">
+      <c r="A1559" s="14"/>
+      <c r="B1559" s="14"/>
+      <c r="C1559" s="34"/>
+    </row>
+    <row r="1666" spans="5:5">
+      <c r="E1666" s="40"/>
+    </row>
+    <row r="1667" spans="5:5">
+      <c r="E1667" s="40"/>
+    </row>
+    <row r="1668" spans="5:5">
+      <c r="E1668" s="40"/>
+    </row>
+    <row r="1669" spans="5:5">
+      <c r="E1669" s="40"/>
+    </row>
+    <row r="1670" spans="5:5">
+      <c r="E1670" s="40"/>
+    </row>
+    <row r="1671" spans="5:5">
+      <c r="E1671" s="40"/>
+    </row>
+    <row r="1672" spans="5:5">
+      <c r="E1672" s="40"/>
     </row>
     <row r="1682" spans="5:7">
       <c r="E1682" s="40"/>
-      <c r="G1682" s="40"/>
-    </row>
-    <row r="1683" spans="5:7">
-      <c r="E1683" s="40"/>
-      <c r="G1683" s="40"/>
     </row>
     <row r="1684" spans="5:7">
-      <c r="E1684" s="42"/>
+      <c r="E1684" s="40"/>
       <c r="G1684" s="40"/>
     </row>
     <row r="1685" spans="5:7">
-      <c r="E1685" s="40"/>
       <c r="G1685" s="40"/>
     </row>
     <row r="1686" spans="5:7">
-      <c r="E1686" s="40"/>
+      <c r="E1686" s="41"/>
       <c r="G1686" s="40"/>
     </row>
     <row r="1687" spans="5:7">
@@ -41660,7 +41821,7 @@
       <c r="G1691" s="40"/>
     </row>
     <row r="1692" spans="5:7">
-      <c r="E1692" s="40"/>
+      <c r="E1692" s="42"/>
       <c r="G1692" s="40"/>
     </row>
     <row r="1693" spans="5:7">
@@ -41787,32 +41948,40 @@
       <c r="E1723" s="40"/>
       <c r="G1723" s="40"/>
     </row>
+    <row r="1724" spans="5:7">
+      <c r="E1724" s="40"/>
+      <c r="G1724" s="40"/>
+    </row>
+    <row r="1725" spans="5:7">
+      <c r="E1725" s="40"/>
+      <c r="G1725" s="40"/>
+    </row>
+    <row r="1726" spans="5:7">
+      <c r="E1726" s="40"/>
+      <c r="G1726" s="40"/>
+    </row>
+    <row r="1727" spans="5:7">
+      <c r="E1727" s="40"/>
+      <c r="G1727" s="40"/>
+    </row>
+    <row r="1728" spans="5:7">
+      <c r="E1728" s="40"/>
+      <c r="G1728" s="40"/>
+    </row>
+    <row r="1729" spans="5:7">
+      <c r="E1729" s="40"/>
+      <c r="G1729" s="40"/>
+    </row>
+    <row r="1730" spans="5:7">
+      <c r="E1730" s="40"/>
+      <c r="G1730" s="40"/>
+    </row>
     <row r="1731" spans="5:7">
       <c r="E1731" s="40"/>
-    </row>
-    <row r="1740" spans="5:7">
-      <c r="G1740" s="40"/>
-    </row>
-    <row r="1741" spans="5:7">
-      <c r="G1741" s="40"/>
-    </row>
-    <row r="1742" spans="5:7">
-      <c r="G1742" s="40"/>
-    </row>
-    <row r="1743" spans="5:7">
-      <c r="G1743" s="40"/>
-    </row>
-    <row r="1744" spans="5:7">
-      <c r="G1744" s="40"/>
-    </row>
-    <row r="1745" spans="7:7">
-      <c r="G1745" s="40"/>
-    </row>
-    <row r="1746" spans="7:7">
-      <c r="G1746" s="40"/>
-    </row>
-    <row r="1747" spans="7:7">
-      <c r="G1747" s="40"/>
+      <c r="G1731" s="40"/>
+    </row>
+    <row r="1739" spans="5:7">
+      <c r="E1739" s="40"/>
     </row>
     <row r="1748" spans="7:7">
       <c r="G1748" s="40"/>
@@ -41832,26 +42001,32 @@
     <row r="1753" spans="7:7">
       <c r="G1753" s="40"/>
     </row>
-    <row r="1783" spans="5:5">
-      <c r="E1783" s="40"/>
-    </row>
-    <row r="1802" spans="5:5">
-      <c r="E1802" s="40"/>
-    </row>
-    <row r="1803" spans="5:5">
-      <c r="E1803" s="40"/>
-    </row>
-    <row r="1806" spans="5:5">
-      <c r="E1806" s="40"/>
-    </row>
-    <row r="1807" spans="5:5">
-      <c r="E1807" s="40"/>
-    </row>
-    <row r="1808" spans="5:5">
-      <c r="E1808" s="40"/>
-    </row>
-    <row r="1809" spans="5:5">
-      <c r="E1809" s="40"/>
+    <row r="1754" spans="7:7">
+      <c r="G1754" s="40"/>
+    </row>
+    <row r="1755" spans="7:7">
+      <c r="G1755" s="40"/>
+    </row>
+    <row r="1756" spans="7:7">
+      <c r="G1756" s="40"/>
+    </row>
+    <row r="1757" spans="7:7">
+      <c r="G1757" s="40"/>
+    </row>
+    <row r="1758" spans="7:7">
+      <c r="G1758" s="40"/>
+    </row>
+    <row r="1759" spans="7:7">
+      <c r="G1759" s="40"/>
+    </row>
+    <row r="1760" spans="7:7">
+      <c r="G1760" s="40"/>
+    </row>
+    <row r="1761" spans="7:7">
+      <c r="G1761" s="40"/>
+    </row>
+    <row r="1791" spans="5:5">
+      <c r="E1791" s="40"/>
     </row>
     <row r="1810" spans="5:5">
       <c r="E1810" s="40"/>
@@ -41859,6 +42034,15 @@
     <row r="1811" spans="5:5">
       <c r="E1811" s="40"/>
     </row>
+    <row r="1814" spans="5:5">
+      <c r="E1814" s="40"/>
+    </row>
+    <row r="1815" spans="5:5">
+      <c r="E1815" s="40"/>
+    </row>
+    <row r="1816" spans="5:5">
+      <c r="E1816" s="40"/>
+    </row>
     <row r="1817" spans="5:5">
       <c r="E1817" s="40"/>
     </row>
@@ -41868,18 +42052,6 @@
     <row r="1819" spans="5:5">
       <c r="E1819" s="40"/>
     </row>
-    <row r="1820" spans="5:5">
-      <c r="E1820" s="40"/>
-    </row>
-    <row r="1821" spans="5:5">
-      <c r="E1821" s="40"/>
-    </row>
-    <row r="1822" spans="5:5">
-      <c r="E1822" s="40"/>
-    </row>
-    <row r="1823" spans="5:5">
-      <c r="E1823" s="40"/>
-    </row>
     <row r="1825" spans="5:5">
       <c r="E1825" s="40"/>
     </row>
@@ -41892,86 +42064,85 @@
     <row r="1828" spans="5:5">
       <c r="E1828" s="40"/>
     </row>
-    <row r="1832" spans="5:5">
-      <c r="E1832" s="40"/>
-    </row>
-    <row r="1839" spans="5:5">
-      <c r="E1839" s="40"/>
-    </row>
-    <row r="1843" spans="5:5">
-      <c r="E1843" s="40"/>
-    </row>
-    <row r="1854" spans="5:5">
-      <c r="E1854" s="40"/>
-    </row>
-    <row r="1864" spans="5:7">
-      <c r="E1864" s="40"/>
-    </row>
-    <row r="1866" spans="5:7">
-      <c r="G1866" s="40"/>
-    </row>
-    <row r="1867" spans="5:7">
-      <c r="G1867" s="40"/>
-    </row>
-    <row r="1868" spans="5:7">
-      <c r="G1868" s="40"/>
-    </row>
-    <row r="1869" spans="5:7">
-      <c r="G1869" s="40"/>
-    </row>
-    <row r="1870" spans="5:7">
-      <c r="G1870" s="40"/>
-    </row>
-    <row r="1871" spans="5:7">
-      <c r="G1871" s="40"/>
-    </row>
-    <row r="1872" spans="5:7">
-      <c r="G1872" s="40"/>
-    </row>
-    <row r="1873" spans="5:7">
-      <c r="G1873" s="40"/>
-    </row>
-    <row r="1874" spans="5:7">
+    <row r="1829" spans="5:5">
+      <c r="E1829" s="40"/>
+    </row>
+    <row r="1830" spans="5:5">
+      <c r="E1830" s="40"/>
+    </row>
+    <row r="1831" spans="5:5">
+      <c r="E1831" s="40"/>
+    </row>
+    <row r="1833" spans="5:5">
+      <c r="E1833" s="40"/>
+    </row>
+    <row r="1834" spans="5:5">
+      <c r="E1834" s="40"/>
+    </row>
+    <row r="1835" spans="5:5">
+      <c r="E1835" s="40"/>
+    </row>
+    <row r="1836" spans="5:5">
+      <c r="E1836" s="40"/>
+    </row>
+    <row r="1840" spans="5:5">
+      <c r="E1840" s="40"/>
+    </row>
+    <row r="1847" spans="5:5">
+      <c r="E1847" s="40"/>
+    </row>
+    <row r="1851" spans="5:5">
+      <c r="E1851" s="40"/>
+    </row>
+    <row r="1862" spans="5:5">
+      <c r="E1862" s="40"/>
+    </row>
+    <row r="1872" spans="5:5">
+      <c r="E1872" s="40"/>
+    </row>
+    <row r="1874" spans="7:7">
       <c r="G1874" s="40"/>
     </row>
-    <row r="1875" spans="5:7">
+    <row r="1875" spans="7:7">
       <c r="G1875" s="40"/>
     </row>
-    <row r="1876" spans="5:7">
+    <row r="1876" spans="7:7">
       <c r="G1876" s="40"/>
     </row>
-    <row r="1877" spans="5:7">
+    <row r="1877" spans="7:7">
       <c r="G1877" s="40"/>
     </row>
-    <row r="1878" spans="5:7">
+    <row r="1878" spans="7:7">
       <c r="G1878" s="40"/>
     </row>
-    <row r="1879" spans="5:7">
+    <row r="1879" spans="7:7">
       <c r="G1879" s="40"/>
     </row>
-    <row r="1880" spans="5:7">
+    <row r="1880" spans="7:7">
       <c r="G1880" s="40"/>
     </row>
-    <row r="1881" spans="5:7">
+    <row r="1881" spans="7:7">
       <c r="G1881" s="40"/>
     </row>
-    <row r="1882" spans="5:7">
+    <row r="1882" spans="7:7">
       <c r="G1882" s="40"/>
     </row>
-    <row r="1883" spans="5:7">
+    <row r="1883" spans="7:7">
       <c r="G1883" s="40"/>
     </row>
-    <row r="1884" spans="5:7">
+    <row r="1884" spans="7:7">
       <c r="G1884" s="40"/>
     </row>
-    <row r="1885" spans="5:7">
-      <c r="E1885" s="40"/>
+    <row r="1885" spans="7:7">
       <c r="G1885" s="40"/>
     </row>
-    <row r="1887" spans="5:7">
+    <row r="1886" spans="7:7">
+      <c r="G1886" s="40"/>
+    </row>
+    <row r="1887" spans="7:7">
       <c r="G1887" s="40"/>
     </row>
-    <row r="1888" spans="5:7">
+    <row r="1888" spans="7:7">
       <c r="G1888" s="40"/>
     </row>
     <row r="1889" spans="5:7">
@@ -41987,11 +42158,8 @@
       <c r="G1892" s="40"/>
     </row>
     <row r="1893" spans="5:7">
+      <c r="E1893" s="40"/>
       <c r="G1893" s="40"/>
-    </row>
-    <row r="1894" spans="5:7">
-      <c r="E1894" s="40"/>
-      <c r="G1894" s="40"/>
     </row>
     <row r="1895" spans="5:7">
       <c r="G1895" s="40"/>
@@ -42018,6 +42186,9 @@
       <c r="E1902" s="40"/>
       <c r="G1902" s="40"/>
     </row>
+    <row r="1903" spans="5:7">
+      <c r="G1903" s="40"/>
+    </row>
     <row r="1904" spans="5:7">
       <c r="G1904" s="40"/>
     </row>
@@ -42037,11 +42208,8 @@
       <c r="G1909" s="40"/>
     </row>
     <row r="1910" spans="5:7">
+      <c r="E1910" s="40"/>
       <c r="G1910" s="40"/>
-    </row>
-    <row r="1911" spans="5:7">
-      <c r="E1911" s="40"/>
-      <c r="G1911" s="40"/>
     </row>
     <row r="1912" spans="5:7">
       <c r="G1912" s="40"/>
@@ -42068,54 +42236,55 @@
       <c r="E1919" s="40"/>
       <c r="G1919" s="40"/>
     </row>
-    <row r="1927" spans="5:5">
+    <row r="1920" spans="5:7">
+      <c r="G1920" s="40"/>
+    </row>
+    <row r="1921" spans="5:7">
+      <c r="G1921" s="40"/>
+    </row>
+    <row r="1922" spans="5:7">
+      <c r="G1922" s="40"/>
+    </row>
+    <row r="1923" spans="5:7">
+      <c r="G1923" s="40"/>
+    </row>
+    <row r="1924" spans="5:7">
+      <c r="G1924" s="40"/>
+    </row>
+    <row r="1925" spans="5:7">
+      <c r="G1925" s="40"/>
+    </row>
+    <row r="1926" spans="5:7">
+      <c r="G1926" s="40"/>
+    </row>
+    <row r="1927" spans="5:7">
       <c r="E1927" s="40"/>
-    </row>
-    <row r="1934" spans="5:5">
-      <c r="E1934" s="40"/>
-    </row>
-    <row r="1950" spans="5:5">
-      <c r="E1950" s="41"/>
-    </row>
-    <row r="1951" spans="5:5">
-      <c r="E1951" s="41"/>
-    </row>
-    <row r="1954" spans="5:5">
-      <c r="E1954" s="41"/>
-    </row>
-    <row r="1955" spans="5:5">
-      <c r="E1955" s="40"/>
-    </row>
-    <row r="1968" spans="5:5">
-      <c r="E1968" s="40"/>
-    </row>
-    <row r="1980" spans="5:5">
-      <c r="E1980" s="40"/>
-    </row>
-    <row r="1984" spans="5:5">
-      <c r="E1984" s="40"/>
-    </row>
-    <row r="1985" spans="5:5">
-      <c r="E1985" s="40"/>
-    </row>
-    <row r="1986" spans="5:5">
-      <c r="E1986" s="40"/>
-    </row>
-    <row r="1987" spans="5:5">
-      <c r="E1987" s="40"/>
+      <c r="G1927" s="40"/>
+    </row>
+    <row r="1935" spans="5:7">
+      <c r="E1935" s="40"/>
+    </row>
+    <row r="1942" spans="5:5">
+      <c r="E1942" s="40"/>
+    </row>
+    <row r="1958" spans="5:5">
+      <c r="E1958" s="41"/>
+    </row>
+    <row r="1959" spans="5:5">
+      <c r="E1959" s="41"/>
+    </row>
+    <row r="1962" spans="5:5">
+      <c r="E1962" s="41"/>
+    </row>
+    <row r="1963" spans="5:5">
+      <c r="E1963" s="40"/>
+    </row>
+    <row r="1976" spans="5:5">
+      <c r="E1976" s="40"/>
     </row>
     <row r="1988" spans="5:5">
       <c r="E1988" s="40"/>
     </row>
-    <row r="1989" spans="5:5">
-      <c r="E1989" s="40"/>
-    </row>
-    <row r="1990" spans="5:5">
-      <c r="E1990" s="40"/>
-    </row>
-    <row r="1991" spans="5:5">
-      <c r="E1991" s="40"/>
-    </row>
     <row r="1992" spans="5:5">
       <c r="E1992" s="40"/>
     </row>
@@ -42143,50 +42312,50 @@
     <row r="2000" spans="5:5">
       <c r="E2000" s="40"/>
     </row>
-    <row r="2001" spans="5:7">
+    <row r="2001" spans="5:5">
       <c r="E2001" s="40"/>
     </row>
-    <row r="2002" spans="5:7">
+    <row r="2002" spans="5:5">
       <c r="E2002" s="40"/>
     </row>
-    <row r="2003" spans="5:7">
+    <row r="2003" spans="5:5">
       <c r="E2003" s="40"/>
     </row>
-    <row r="2004" spans="5:7">
+    <row r="2004" spans="5:5">
       <c r="E2004" s="40"/>
     </row>
-    <row r="2005" spans="5:7">
+    <row r="2005" spans="5:5">
       <c r="E2005" s="40"/>
     </row>
-    <row r="2006" spans="5:7">
+    <row r="2006" spans="5:5">
       <c r="E2006" s="40"/>
     </row>
-    <row r="2007" spans="5:7">
+    <row r="2007" spans="5:5">
       <c r="E2007" s="40"/>
     </row>
-    <row r="2009" spans="5:7">
-      <c r="G2009" s="40"/>
-    </row>
-    <row r="2010" spans="5:7">
-      <c r="G2010" s="40"/>
-    </row>
-    <row r="2011" spans="5:7">
-      <c r="G2011" s="40"/>
-    </row>
-    <row r="2012" spans="5:7">
-      <c r="G2012" s="40"/>
-    </row>
-    <row r="2013" spans="5:7">
-      <c r="G2013" s="40"/>
-    </row>
-    <row r="2014" spans="5:7">
-      <c r="G2014" s="40"/>
-    </row>
-    <row r="2015" spans="5:7">
-      <c r="G2015" s="40"/>
-    </row>
-    <row r="2016" spans="5:7">
-      <c r="G2016" s="40"/>
+    <row r="2008" spans="5:5">
+      <c r="E2008" s="40"/>
+    </row>
+    <row r="2009" spans="5:5">
+      <c r="E2009" s="40"/>
+    </row>
+    <row r="2010" spans="5:5">
+      <c r="E2010" s="40"/>
+    </row>
+    <row r="2011" spans="5:5">
+      <c r="E2011" s="40"/>
+    </row>
+    <row r="2012" spans="5:5">
+      <c r="E2012" s="40"/>
+    </row>
+    <row r="2013" spans="5:5">
+      <c r="E2013" s="40"/>
+    </row>
+    <row r="2014" spans="5:5">
+      <c r="E2014" s="40"/>
+    </row>
+    <row r="2015" spans="5:5">
+      <c r="E2015" s="40"/>
     </row>
     <row r="2017" spans="5:7">
       <c r="G2017" s="40"/>
@@ -42204,32 +42373,32 @@
       <c r="G2021" s="40"/>
     </row>
     <row r="2022" spans="5:7">
-      <c r="E2022" s="40"/>
       <c r="G2022" s="40"/>
     </row>
+    <row r="2023" spans="5:7">
+      <c r="G2023" s="40"/>
+    </row>
     <row r="2024" spans="5:7">
-      <c r="E2024" s="40"/>
+      <c r="G2024" s="40"/>
     </row>
     <row r="2025" spans="5:7">
-      <c r="E2025" s="40"/>
+      <c r="G2025" s="40"/>
     </row>
     <row r="2026" spans="5:7">
-      <c r="E2026" s="40"/>
+      <c r="G2026" s="40"/>
     </row>
     <row r="2027" spans="5:7">
-      <c r="E2027" s="40"/>
+      <c r="G2027" s="40"/>
     </row>
     <row r="2028" spans="5:7">
-      <c r="E2028" s="40"/>
+      <c r="G2028" s="40"/>
     </row>
     <row r="2029" spans="5:7">
-      <c r="E2029" s="40"/>
+      <c r="G2029" s="40"/>
     </row>
     <row r="2030" spans="5:7">
       <c r="E2030" s="40"/>
-    </row>
-    <row r="2031" spans="5:7">
-      <c r="E2031" s="40"/>
+      <c r="G2030" s="40"/>
     </row>
     <row r="2032" spans="5:7">
       <c r="E2032" s="40"/>
@@ -42330,58 +42499,50 @@
     <row r="2064" spans="5:5">
       <c r="E2064" s="40"/>
     </row>
-    <row r="2065" spans="5:7">
+    <row r="2065" spans="5:5">
       <c r="E2065" s="40"/>
     </row>
-    <row r="2066" spans="5:7">
+    <row r="2066" spans="5:5">
       <c r="E2066" s="40"/>
     </row>
-    <row r="2067" spans="5:7">
+    <row r="2067" spans="5:5">
       <c r="E2067" s="40"/>
     </row>
-    <row r="2068" spans="5:7">
+    <row r="2068" spans="5:5">
       <c r="E2068" s="40"/>
     </row>
-    <row r="2069" spans="5:7">
+    <row r="2069" spans="5:5">
       <c r="E2069" s="40"/>
     </row>
-    <row r="2070" spans="5:7">
+    <row r="2070" spans="5:5">
       <c r="E2070" s="40"/>
     </row>
-    <row r="2071" spans="5:7">
+    <row r="2071" spans="5:5">
       <c r="E2071" s="40"/>
     </row>
-    <row r="2073" spans="5:7">
+    <row r="2072" spans="5:5">
+      <c r="E2072" s="40"/>
+    </row>
+    <row r="2073" spans="5:5">
       <c r="E2073" s="40"/>
-      <c r="G2073" s="40"/>
-    </row>
-    <row r="2074" spans="5:7">
+    </row>
+    <row r="2074" spans="5:5">
       <c r="E2074" s="40"/>
-      <c r="G2074" s="40"/>
-    </row>
-    <row r="2075" spans="5:7">
+    </row>
+    <row r="2075" spans="5:5">
       <c r="E2075" s="40"/>
-      <c r="G2075" s="40"/>
-    </row>
-    <row r="2076" spans="5:7">
+    </row>
+    <row r="2076" spans="5:5">
       <c r="E2076" s="40"/>
-      <c r="G2076" s="40"/>
-    </row>
-    <row r="2077" spans="5:7">
+    </row>
+    <row r="2077" spans="5:5">
       <c r="E2077" s="40"/>
-      <c r="G2077" s="40"/>
-    </row>
-    <row r="2078" spans="5:7">
+    </row>
+    <row r="2078" spans="5:5">
       <c r="E2078" s="40"/>
-      <c r="G2078" s="40"/>
-    </row>
-    <row r="2079" spans="5:7">
+    </row>
+    <row r="2079" spans="5:5">
       <c r="E2079" s="40"/>
-      <c r="G2079" s="40"/>
-    </row>
-    <row r="2080" spans="5:7">
-      <c r="E2080" s="40"/>
-      <c r="G2080" s="40"/>
     </row>
     <row r="2081" spans="5:7">
       <c r="E2081" s="40"/>
@@ -42543,104 +42704,104 @@
       <c r="E2120" s="40"/>
       <c r="G2120" s="40"/>
     </row>
-    <row r="2130" spans="5:7">
-      <c r="E2130" s="40"/>
-    </row>
-    <row r="2141" spans="5:7">
-      <c r="G2141" s="40"/>
-    </row>
-    <row r="2142" spans="5:7">
-      <c r="G2142" s="40"/>
-    </row>
-    <row r="2143" spans="5:7">
-      <c r="G2143" s="40"/>
-    </row>
-    <row r="2144" spans="5:7">
-      <c r="G2144" s="40"/>
-    </row>
-    <row r="2145" spans="5:7">
-      <c r="G2145" s="40"/>
-    </row>
-    <row r="2146" spans="5:7">
-      <c r="G2146" s="40"/>
-    </row>
-    <row r="2147" spans="5:7">
-      <c r="G2147" s="40"/>
-    </row>
-    <row r="2148" spans="5:7">
-      <c r="G2148" s="40"/>
-    </row>
-    <row r="2149" spans="5:7">
+    <row r="2121" spans="5:7">
+      <c r="E2121" s="40"/>
+      <c r="G2121" s="40"/>
+    </row>
+    <row r="2122" spans="5:7">
+      <c r="E2122" s="40"/>
+      <c r="G2122" s="40"/>
+    </row>
+    <row r="2123" spans="5:7">
+      <c r="E2123" s="40"/>
+      <c r="G2123" s="40"/>
+    </row>
+    <row r="2124" spans="5:7">
+      <c r="E2124" s="40"/>
+      <c r="G2124" s="40"/>
+    </row>
+    <row r="2125" spans="5:7">
+      <c r="E2125" s="40"/>
+      <c r="G2125" s="40"/>
+    </row>
+    <row r="2126" spans="5:7">
+      <c r="E2126" s="40"/>
+      <c r="G2126" s="40"/>
+    </row>
+    <row r="2127" spans="5:7">
+      <c r="E2127" s="40"/>
+      <c r="G2127" s="40"/>
+    </row>
+    <row r="2128" spans="5:7">
+      <c r="E2128" s="40"/>
+      <c r="G2128" s="40"/>
+    </row>
+    <row r="2138" spans="5:5">
+      <c r="E2138" s="40"/>
+    </row>
+    <row r="2149" spans="7:7">
       <c r="G2149" s="40"/>
     </row>
-    <row r="2150" spans="5:7">
+    <row r="2150" spans="7:7">
       <c r="G2150" s="40"/>
     </row>
-    <row r="2151" spans="5:7">
+    <row r="2151" spans="7:7">
       <c r="G2151" s="40"/>
     </row>
-    <row r="2152" spans="5:7">
+    <row r="2152" spans="7:7">
       <c r="G2152" s="40"/>
     </row>
-    <row r="2153" spans="5:7">
+    <row r="2153" spans="7:7">
       <c r="G2153" s="40"/>
     </row>
-    <row r="2154" spans="5:7">
+    <row r="2154" spans="7:7">
       <c r="G2154" s="40"/>
     </row>
-    <row r="2155" spans="5:7">
+    <row r="2155" spans="7:7">
       <c r="G2155" s="40"/>
     </row>
-    <row r="2156" spans="5:7">
+    <row r="2156" spans="7:7">
       <c r="G2156" s="40"/>
     </row>
-    <row r="2157" spans="5:7">
+    <row r="2157" spans="7:7">
       <c r="G2157" s="40"/>
     </row>
-    <row r="2158" spans="5:7">
+    <row r="2158" spans="7:7">
       <c r="G2158" s="40"/>
     </row>
-    <row r="2159" spans="5:7">
+    <row r="2159" spans="7:7">
       <c r="G2159" s="40"/>
     </row>
-    <row r="2160" spans="5:7">
-      <c r="E2160" s="40"/>
+    <row r="2160" spans="7:7">
       <c r="G2160" s="40"/>
     </row>
-    <row r="2170" spans="5:5">
-      <c r="E2170" s="40"/>
-    </row>
-    <row r="2181" spans="5:7">
-      <c r="E2181" s="40"/>
-      <c r="G2181" s="40"/>
-    </row>
-    <row r="2182" spans="5:7">
-      <c r="E2182" s="40"/>
-      <c r="G2182" s="40"/>
-    </row>
-    <row r="2183" spans="5:7">
-      <c r="E2183" s="40"/>
-      <c r="G2183" s="40"/>
-    </row>
-    <row r="2184" spans="5:7">
-      <c r="E2184" s="40"/>
-      <c r="G2184" s="40"/>
-    </row>
-    <row r="2185" spans="5:7">
-      <c r="E2185" s="40"/>
-      <c r="G2185" s="40"/>
-    </row>
-    <row r="2186" spans="5:7">
-      <c r="E2186" s="40"/>
-      <c r="G2186" s="40"/>
-    </row>
-    <row r="2187" spans="5:7">
-      <c r="E2187" s="40"/>
-      <c r="G2187" s="40"/>
-    </row>
-    <row r="2188" spans="5:7">
-      <c r="E2188" s="40"/>
-      <c r="G2188" s="40"/>
+    <row r="2161" spans="5:7">
+      <c r="G2161" s="40"/>
+    </row>
+    <row r="2162" spans="5:7">
+      <c r="G2162" s="40"/>
+    </row>
+    <row r="2163" spans="5:7">
+      <c r="G2163" s="40"/>
+    </row>
+    <row r="2164" spans="5:7">
+      <c r="G2164" s="40"/>
+    </row>
+    <row r="2165" spans="5:7">
+      <c r="G2165" s="40"/>
+    </row>
+    <row r="2166" spans="5:7">
+      <c r="G2166" s="40"/>
+    </row>
+    <row r="2167" spans="5:7">
+      <c r="G2167" s="40"/>
+    </row>
+    <row r="2168" spans="5:7">
+      <c r="E2168" s="40"/>
+      <c r="G2168" s="40"/>
+    </row>
+    <row r="2178" spans="5:7">
+      <c r="E2178" s="40"/>
     </row>
     <row r="2189" spans="5:7">
       <c r="E2189" s="40"/>
@@ -42674,6 +42835,10 @@
       <c r="E2196" s="40"/>
       <c r="G2196" s="40"/>
     </row>
+    <row r="2197" spans="5:7">
+      <c r="E2197" s="40"/>
+      <c r="G2197" s="40"/>
+    </row>
     <row r="2198" spans="5:7">
       <c r="E2198" s="40"/>
       <c r="G2198" s="40"/>
@@ -42702,10 +42867,6 @@
       <c r="E2204" s="40"/>
       <c r="G2204" s="40"/>
     </row>
-    <row r="2205" spans="5:7">
-      <c r="E2205" s="40"/>
-      <c r="G2205" s="40"/>
-    </row>
     <row r="2206" spans="5:7">
       <c r="E2206" s="40"/>
       <c r="G2206" s="40"/>
@@ -42730,26 +42891,40 @@
       <c r="E2211" s="40"/>
       <c r="G2211" s="40"/>
     </row>
+    <row r="2212" spans="5:7">
+      <c r="E2212" s="40"/>
+      <c r="G2212" s="40"/>
+    </row>
+    <row r="2213" spans="5:7">
+      <c r="E2213" s="40"/>
+      <c r="G2213" s="40"/>
+    </row>
     <row r="2214" spans="5:7">
       <c r="E2214" s="40"/>
+      <c r="G2214" s="40"/>
+    </row>
+    <row r="2215" spans="5:7">
+      <c r="E2215" s="40"/>
+      <c r="G2215" s="40"/>
+    </row>
+    <row r="2216" spans="5:7">
+      <c r="E2216" s="40"/>
+      <c r="G2216" s="40"/>
+    </row>
+    <row r="2217" spans="5:7">
+      <c r="E2217" s="40"/>
+      <c r="G2217" s="40"/>
     </row>
     <row r="2218" spans="5:7">
       <c r="E2218" s="40"/>
+      <c r="G2218" s="40"/>
     </row>
     <row r="2219" spans="5:7">
       <c r="E2219" s="40"/>
-    </row>
-    <row r="2220" spans="5:7">
-      <c r="E2220" s="40"/>
-    </row>
-    <row r="2221" spans="5:7">
-      <c r="E2221" s="40"/>
-    </row>
-    <row r="2224" spans="5:7">
-      <c r="E2224" s="40"/>
-    </row>
-    <row r="2225" spans="5:5">
-      <c r="E2225" s="40"/>
+      <c r="G2219" s="40"/>
+    </row>
+    <row r="2222" spans="5:7">
+      <c r="E2222" s="40"/>
     </row>
     <row r="2226" spans="5:5">
       <c r="E2226" s="40"/>
@@ -42757,11 +42932,11 @@
     <row r="2227" spans="5:5">
       <c r="E2227" s="40"/>
     </row>
-    <row r="2230" spans="5:5">
-      <c r="E2230" s="40"/>
-    </row>
-    <row r="2231" spans="5:5">
-      <c r="E2231" s="40"/>
+    <row r="2228" spans="5:5">
+      <c r="E2228" s="40"/>
+    </row>
+    <row r="2229" spans="5:5">
+      <c r="E2229" s="40"/>
     </row>
     <row r="2232" spans="5:5">
       <c r="E2232" s="40"/>
@@ -42775,12 +42950,6 @@
     <row r="2235" spans="5:5">
       <c r="E2235" s="40"/>
     </row>
-    <row r="2236" spans="5:5">
-      <c r="E2236" s="40"/>
-    </row>
-    <row r="2237" spans="5:5">
-      <c r="E2237" s="40"/>
-    </row>
     <row r="2238" spans="5:5">
       <c r="E2238" s="40"/>
     </row>
@@ -42799,6 +42968,9 @@
     <row r="2243" spans="5:5">
       <c r="E2243" s="40"/>
     </row>
+    <row r="2244" spans="5:5">
+      <c r="E2244" s="40"/>
+    </row>
     <row r="2245" spans="5:5">
       <c r="E2245" s="40"/>
     </row>
@@ -42820,9 +42992,6 @@
     <row r="2251" spans="5:5">
       <c r="E2251" s="40"/>
     </row>
-    <row r="2252" spans="5:5">
-      <c r="E2252" s="40"/>
-    </row>
     <row r="2253" spans="5:5">
       <c r="E2253" s="40"/>
     </row>
@@ -42841,6 +43010,9 @@
     <row r="2258" spans="5:5">
       <c r="E2258" s="40"/>
     </row>
+    <row r="2259" spans="5:5">
+      <c r="E2259" s="40"/>
+    </row>
     <row r="2260" spans="5:5">
       <c r="E2260" s="40"/>
     </row>
@@ -42862,9 +43034,6 @@
     <row r="2266" spans="5:5">
       <c r="E2266" s="40"/>
     </row>
-    <row r="2267" spans="5:5">
-      <c r="E2267" s="40"/>
-    </row>
     <row r="2268" spans="5:5">
       <c r="E2268" s="40"/>
     </row>
@@ -42883,6 +43052,9 @@
     <row r="2273" spans="5:5">
       <c r="E2273" s="40"/>
     </row>
+    <row r="2274" spans="5:5">
+      <c r="E2274" s="40"/>
+    </row>
     <row r="2275" spans="5:5">
       <c r="E2275" s="40"/>
     </row>
@@ -42904,9 +43076,6 @@
     <row r="2281" spans="5:5">
       <c r="E2281" s="40"/>
     </row>
-    <row r="2282" spans="5:5">
-      <c r="E2282" s="40"/>
-    </row>
     <row r="2283" spans="5:5">
       <c r="E2283" s="40"/>
     </row>
@@ -42967,57 +43136,57 @@
     <row r="2302" spans="5:5">
       <c r="E2302" s="40"/>
     </row>
+    <row r="2303" spans="5:5">
+      <c r="E2303" s="40"/>
+    </row>
     <row r="2304" spans="5:5">
       <c r="E2304" s="40"/>
     </row>
-    <row r="2317" spans="5:5">
-      <c r="E2317" s="40"/>
-    </row>
-    <row r="2331" spans="5:5">
-      <c r="E2331" s="40"/>
-    </row>
-    <row r="2333" spans="5:5">
-      <c r="E2333" s="40"/>
-    </row>
-    <row r="2346" spans="5:5">
-      <c r="E2346" s="40"/>
-    </row>
-    <row r="2360" spans="5:5">
-      <c r="E2360" s="40"/>
-    </row>
-    <row r="2362" spans="5:5">
-      <c r="E2362" s="40"/>
-    </row>
-    <row r="2375" spans="5:5">
-      <c r="E2375" s="40"/>
-    </row>
-    <row r="2389" spans="5:5">
-      <c r="E2389" s="40"/>
-    </row>
-    <row r="2392" spans="5:5">
-      <c r="E2392" s="40"/>
-    </row>
-    <row r="2393" spans="5:5">
-      <c r="E2393" s="40"/>
-    </row>
-    <row r="2394" spans="5:5">
-      <c r="E2394" s="40"/>
-    </row>
-    <row r="2395" spans="5:5">
-      <c r="E2395" s="40"/>
-    </row>
-    <row r="2396" spans="5:5">
-      <c r="E2396" s="40"/>
+    <row r="2305" spans="5:5">
+      <c r="E2305" s="40"/>
+    </row>
+    <row r="2306" spans="5:5">
+      <c r="E2306" s="40"/>
+    </row>
+    <row r="2307" spans="5:5">
+      <c r="E2307" s="40"/>
+    </row>
+    <row r="2308" spans="5:5">
+      <c r="E2308" s="40"/>
+    </row>
+    <row r="2309" spans="5:5">
+      <c r="E2309" s="40"/>
+    </row>
+    <row r="2310" spans="5:5">
+      <c r="E2310" s="40"/>
+    </row>
+    <row r="2312" spans="5:5">
+      <c r="E2312" s="40"/>
+    </row>
+    <row r="2325" spans="5:5">
+      <c r="E2325" s="40"/>
+    </row>
+    <row r="2339" spans="5:5">
+      <c r="E2339" s="40"/>
+    </row>
+    <row r="2341" spans="5:5">
+      <c r="E2341" s="40"/>
+    </row>
+    <row r="2354" spans="5:5">
+      <c r="E2354" s="40"/>
+    </row>
+    <row r="2368" spans="5:5">
+      <c r="E2368" s="40"/>
+    </row>
+    <row r="2370" spans="5:5">
+      <c r="E2370" s="40"/>
+    </row>
+    <row r="2383" spans="5:5">
+      <c r="E2383" s="40"/>
     </row>
     <row r="2397" spans="5:5">
       <c r="E2397" s="40"/>
     </row>
-    <row r="2398" spans="5:5">
-      <c r="E2398" s="40"/>
-    </row>
-    <row r="2399" spans="5:5">
-      <c r="E2399" s="40"/>
-    </row>
     <row r="2400" spans="5:5">
       <c r="E2400" s="40"/>
     </row>
@@ -43036,82 +43205,82 @@
     <row r="2405" spans="5:5">
       <c r="E2405" s="40"/>
     </row>
-    <row r="2414" spans="5:5">
-      <c r="E2414" s="40"/>
-    </row>
-    <row r="2431" spans="5:5">
-      <c r="E2431" s="40"/>
-    </row>
-    <row r="2448" spans="5:5">
-      <c r="E2448" s="40"/>
-    </row>
-    <row r="2465" spans="5:5">
-      <c r="E2465" s="40"/>
-    </row>
-    <row r="2482" spans="5:5">
-      <c r="E2482" s="40"/>
-    </row>
-    <row r="2499" spans="5:5">
-      <c r="E2499" s="40"/>
-    </row>
-    <row r="2516" spans="5:5">
-      <c r="E2516" s="40"/>
-    </row>
-    <row r="2533" spans="5:5">
-      <c r="E2533" s="40"/>
-    </row>
-    <row r="2550" spans="5:5">
-      <c r="E2550" s="40"/>
-    </row>
-    <row r="2567" spans="5:5">
-      <c r="E2567" s="40"/>
-    </row>
-    <row r="2584" spans="5:5">
-      <c r="E2584" s="40"/>
-    </row>
-    <row r="2601" spans="5:5">
-      <c r="E2601" s="40"/>
-    </row>
-    <row r="2618" spans="5:5">
-      <c r="E2618" s="40"/>
-    </row>
-    <row r="2635" spans="5:5">
-      <c r="E2635" s="40"/>
-    </row>
-    <row r="2652" spans="5:5">
-      <c r="E2652" s="40"/>
-    </row>
-    <row r="2669" spans="5:5">
-      <c r="E2669" s="40"/>
-    </row>
-    <row r="2679" spans="7:7">
-      <c r="G2679" s="40"/>
-    </row>
-    <row r="2680" spans="7:7">
-      <c r="G2680" s="40"/>
-    </row>
-    <row r="2681" spans="7:7">
-      <c r="G2681" s="40"/>
-    </row>
-    <row r="2682" spans="7:7">
-      <c r="G2682" s="40"/>
-    </row>
-    <row r="2683" spans="7:7">
-      <c r="G2683" s="40"/>
-    </row>
-    <row r="2684" spans="7:7">
-      <c r="G2684" s="40"/>
-    </row>
-    <row r="2685" spans="7:7">
-      <c r="G2685" s="40"/>
-    </row>
-    <row r="2686" spans="7:7">
-      <c r="G2686" s="40"/>
-    </row>
-    <row r="2687" spans="7:7">
+    <row r="2406" spans="5:5">
+      <c r="E2406" s="40"/>
+    </row>
+    <row r="2407" spans="5:5">
+      <c r="E2407" s="40"/>
+    </row>
+    <row r="2408" spans="5:5">
+      <c r="E2408" s="40"/>
+    </row>
+    <row r="2409" spans="5:5">
+      <c r="E2409" s="40"/>
+    </row>
+    <row r="2410" spans="5:5">
+      <c r="E2410" s="40"/>
+    </row>
+    <row r="2411" spans="5:5">
+      <c r="E2411" s="40"/>
+    </row>
+    <row r="2412" spans="5:5">
+      <c r="E2412" s="40"/>
+    </row>
+    <row r="2413" spans="5:5">
+      <c r="E2413" s="40"/>
+    </row>
+    <row r="2422" spans="5:5">
+      <c r="E2422" s="40"/>
+    </row>
+    <row r="2439" spans="5:5">
+      <c r="E2439" s="40"/>
+    </row>
+    <row r="2456" spans="5:5">
+      <c r="E2456" s="40"/>
+    </row>
+    <row r="2473" spans="5:5">
+      <c r="E2473" s="40"/>
+    </row>
+    <row r="2490" spans="5:5">
+      <c r="E2490" s="40"/>
+    </row>
+    <row r="2507" spans="5:5">
+      <c r="E2507" s="40"/>
+    </row>
+    <row r="2524" spans="5:5">
+      <c r="E2524" s="40"/>
+    </row>
+    <row r="2541" spans="5:5">
+      <c r="E2541" s="40"/>
+    </row>
+    <row r="2558" spans="5:5">
+      <c r="E2558" s="40"/>
+    </row>
+    <row r="2575" spans="5:5">
+      <c r="E2575" s="40"/>
+    </row>
+    <row r="2592" spans="5:5">
+      <c r="E2592" s="40"/>
+    </row>
+    <row r="2609" spans="5:5">
+      <c r="E2609" s="40"/>
+    </row>
+    <row r="2626" spans="5:5">
+      <c r="E2626" s="40"/>
+    </row>
+    <row r="2643" spans="5:5">
+      <c r="E2643" s="40"/>
+    </row>
+    <row r="2660" spans="5:5">
+      <c r="E2660" s="40"/>
+    </row>
+    <row r="2677" spans="5:7">
+      <c r="E2677" s="40"/>
+    </row>
+    <row r="2687" spans="5:7">
       <c r="G2687" s="40"/>
     </row>
-    <row r="2688" spans="7:7">
+    <row r="2688" spans="5:7">
       <c r="G2688" s="40"/>
     </row>
     <row r="2689" spans="5:7">
@@ -43124,93 +43293,117 @@
       <c r="G2691" s="40"/>
     </row>
     <row r="2692" spans="5:7">
-      <c r="E2692" s="40"/>
       <c r="G2692" s="40"/>
     </row>
-    <row r="2713" spans="5:5">
-      <c r="E2713" s="40"/>
-    </row>
-    <row r="2728" spans="5:5">
-      <c r="E2728" s="40"/>
-    </row>
-    <row r="2743" spans="5:5">
-      <c r="E2743" s="40"/>
-    </row>
-    <row r="2758" spans="5:5">
-      <c r="E2758" s="40"/>
-    </row>
-    <row r="2774" spans="5:5">
-      <c r="E2774" s="40"/>
+    <row r="2693" spans="5:7">
+      <c r="G2693" s="40"/>
+    </row>
+    <row r="2694" spans="5:7">
+      <c r="G2694" s="40"/>
+    </row>
+    <row r="2695" spans="5:7">
+      <c r="G2695" s="40"/>
+    </row>
+    <row r="2696" spans="5:7">
+      <c r="G2696" s="40"/>
+    </row>
+    <row r="2697" spans="5:7">
+      <c r="G2697" s="40"/>
+    </row>
+    <row r="2698" spans="5:7">
+      <c r="G2698" s="40"/>
+    </row>
+    <row r="2699" spans="5:7">
+      <c r="G2699" s="40"/>
+    </row>
+    <row r="2700" spans="5:7">
+      <c r="E2700" s="40"/>
+      <c r="G2700" s="40"/>
+    </row>
+    <row r="2721" spans="5:5">
+      <c r="E2721" s="40"/>
+    </row>
+    <row r="2736" spans="5:5">
+      <c r="E2736" s="40"/>
+    </row>
+    <row r="2751" spans="5:5">
+      <c r="E2751" s="40"/>
+    </row>
+    <row r="2766" spans="5:5">
+      <c r="E2766" s="40"/>
     </row>
     <row r="2782" spans="5:5">
       <c r="E2782" s="40"/>
     </row>
-    <row r="2791" spans="7:7">
-      <c r="G2791" s="40"/>
-    </row>
-    <row r="2792" spans="7:7">
-      <c r="G2792" s="40"/>
-    </row>
-    <row r="2793" spans="7:7">
-      <c r="G2793" s="40"/>
-    </row>
-    <row r="2794" spans="7:7">
-      <c r="G2794" s="40"/>
-    </row>
-    <row r="2795" spans="7:7">
-      <c r="G2795" s="40"/>
-    </row>
-    <row r="2796" spans="7:7">
-      <c r="G2796" s="40"/>
-    </row>
-    <row r="2797" spans="7:7">
-      <c r="G2797" s="40"/>
-    </row>
-    <row r="2798" spans="7:7">
-      <c r="G2798" s="40"/>
-    </row>
-    <row r="2799" spans="7:7">
+    <row r="2790" spans="5:7">
+      <c r="E2790" s="40"/>
+    </row>
+    <row r="2799" spans="5:7">
       <c r="G2799" s="40"/>
     </row>
-    <row r="2800" spans="7:7">
+    <row r="2800" spans="5:7">
       <c r="G2800" s="40"/>
     </row>
-    <row r="2801" spans="5:7">
+    <row r="2801" spans="7:7">
       <c r="G2801" s="40"/>
     </row>
-    <row r="2802" spans="5:7">
+    <row r="2802" spans="7:7">
       <c r="G2802" s="40"/>
     </row>
-    <row r="2803" spans="5:7">
+    <row r="2803" spans="7:7">
       <c r="G2803" s="40"/>
     </row>
-    <row r="2804" spans="5:7">
+    <row r="2804" spans="7:7">
       <c r="G2804" s="40"/>
     </row>
-    <row r="2805" spans="5:7">
+    <row r="2805" spans="7:7">
       <c r="G2805" s="40"/>
     </row>
-    <row r="2806" spans="5:7">
+    <row r="2806" spans="7:7">
       <c r="G2806" s="40"/>
     </row>
-    <row r="2807" spans="5:7">
+    <row r="2807" spans="7:7">
       <c r="G2807" s="40"/>
     </row>
-    <row r="2808" spans="5:7">
+    <row r="2808" spans="7:7">
       <c r="G2808" s="40"/>
     </row>
-    <row r="2809" spans="5:7">
+    <row r="2809" spans="7:7">
       <c r="G2809" s="40"/>
     </row>
-    <row r="2810" spans="5:7">
-      <c r="E2810" s="40"/>
+    <row r="2810" spans="7:7">
       <c r="G2810" s="40"/>
     </row>
-    <row r="2818" spans="5:5">
+    <row r="2811" spans="7:7">
+      <c r="G2811" s="40"/>
+    </row>
+    <row r="2812" spans="7:7">
+      <c r="G2812" s="40"/>
+    </row>
+    <row r="2813" spans="7:7">
+      <c r="G2813" s="40"/>
+    </row>
+    <row r="2814" spans="7:7">
+      <c r="G2814" s="40"/>
+    </row>
+    <row r="2815" spans="7:7">
+      <c r="G2815" s="40"/>
+    </row>
+    <row r="2816" spans="7:7">
+      <c r="G2816" s="40"/>
+    </row>
+    <row r="2817" spans="5:7">
+      <c r="G2817" s="40"/>
+    </row>
+    <row r="2818" spans="5:7">
       <c r="E2818" s="40"/>
-    </row>
-    <row r="2825" spans="5:5">
-      <c r="E2825" s="40"/>
+      <c r="G2818" s="40"/>
+    </row>
+    <row r="2826" spans="5:7">
+      <c r="E2826" s="40"/>
+    </row>
+    <row r="2833" spans="5:5">
+      <c r="E2833" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE3613-66FD-44BC-A8FC-078C97622E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841BE98D-39DD-4115-8A17-C2FA1DAD34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10544" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10545" uniqueCount="2110">
   <si>
     <t>Name</t>
   </si>
@@ -6439,6 +6439,33 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250407/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -6451,32 +6478,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250407/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -7115,7 +7118,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>2100</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7397,7 +7400,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D457A7-C8EF-467F-8532-E177504F5ACE}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7446,8 +7449,14 @@
         <v>2099</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>2108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40582,7 +40591,7 @@
         <v>2071</v>
       </c>
       <c r="F1457" s="14" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G1457" s="1" t="s">
         <v>2069</v>
@@ -40628,7 +40637,7 @@
         <v>2071</v>
       </c>
       <c r="F1459" s="14" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G1459" s="1" t="s">
         <v>2070</v>
@@ -40674,7 +40683,7 @@
         <v>2071</v>
       </c>
       <c r="F1461" s="14" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G1461" s="1" t="s">
         <v>2069</v>
@@ -40717,7 +40726,7 @@
         <v>2071</v>
       </c>
       <c r="F1463" s="14" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1464" spans="1:7">
@@ -40757,7 +40766,7 @@
         <v>2071</v>
       </c>
       <c r="F1465" s="14" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1466" spans="1:7">
@@ -40797,7 +40806,7 @@
         <v>2071</v>
       </c>
       <c r="F1467" s="14" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1468" spans="1:7">
@@ -40837,7 +40846,7 @@
         <v>2071</v>
       </c>
       <c r="F1469" s="14" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1470" spans="1:7">
@@ -40877,7 +40886,7 @@
         <v>2071</v>
       </c>
       <c r="F1471" s="14" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1472" spans="1:7">

--- a/Data/Commodore 64/250407/Data C64 250407.xlsx
+++ b/Data/Commodore 64/250407/Data C64 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841BE98D-39DD-4115-8A17-C2FA1DAD34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9A3C88-7F2A-4C8F-A41F-36C0D562C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
